--- a/output/14-specific-report.xlsx
+++ b/output/14-specific-report.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D2">
-        <v>0.009059241296497341</v>
+        <v>0.01067991780140817</v>
       </c>
       <c r="E2">
-        <v>0.02029949414162044</v>
+        <v>0.01978889205427728</v>
       </c>
       <c r="F2">
-        <v>93.79006741596241</v>
+        <v>93.99113544989963</v>
       </c>
       <c r="G2">
-        <v>64.84921423354655</v>
+        <v>61.04539173951188</v>
       </c>
       <c r="H2">
-        <v>28.94085318241586</v>
+        <v>32.94574371038775</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>1.944067229445426e-09</v>
+        <v>4.673155694730936e-09</v>
       </c>
       <c r="E3">
-        <v>0.02115396919853025</v>
+        <v>0.01836997906374256</v>
       </c>
       <c r="F3">
-        <v>87.22433686704724</v>
+        <v>84.90948045599478</v>
       </c>
       <c r="G3">
-        <v>87.22432885105943</v>
+        <v>84.90945885580025</v>
       </c>
       <c r="H3">
-        <v>8.015987814783117e-06</v>
+        <v>2.160019452453666e-05</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2842449146165292</v>
+        <v>-0.2790985786564789</v>
       </c>
       <c r="D2">
-        <v>0.07180162896221449</v>
+        <v>0.07351705216335604</v>
       </c>
       <c r="E2">
-        <v>3.267649071114556</v>
+        <v>3.364407527881986</v>
       </c>
       <c r="F2">
-        <v>-0.4703868351634756</v>
+        <v>-0.4675775263489731</v>
       </c>
       <c r="G2">
-        <v>-0.07388629752304951</v>
+        <v>-0.0663453275523191</v>
       </c>
       <c r="H2">
-        <v>0.02270142703560851</v>
+        <v>0.02427206568429617</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.268666799917379</v>
+        <v>0.2758798124093152</v>
       </c>
       <c r="D3">
-        <v>0.1153543396403339</v>
+        <v>0.1258152954760778</v>
       </c>
       <c r="E3">
-        <v>2.687243911022667</v>
+        <v>2.668920496064824</v>
       </c>
       <c r="F3">
-        <v>-0.1165462476746892</v>
+        <v>-0.1457577954841726</v>
       </c>
       <c r="G3">
-        <v>0.5836172295029833</v>
+        <v>0.6127028251460683</v>
       </c>
       <c r="H3">
-        <v>0.1069928879506781</v>
+        <v>0.1207929088972737</v>
       </c>
     </row>
     <row r="4">
@@ -580,26 +581,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorautonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.3126122940704539</v>
+        <v>0.2589801408900907</v>
       </c>
       <c r="D4">
-        <v>0.04106971119648554</v>
+        <v>0.1178280638559648</v>
       </c>
       <c r="E4">
-        <v>25.78473412149153</v>
+        <v>3.010211313769895</v>
       </c>
       <c r="F4">
-        <v>0.2345356001259286</v>
+        <v>-0.1088154212852953</v>
       </c>
       <c r="G4">
-        <v>0.3866816339938426</v>
+        <v>0.5644076285515716</v>
       </c>
       <c r="H4">
-        <v>2.5144741480426e-08</v>
+        <v>0.1097218490465556</v>
       </c>
     </row>
     <row r="5">
@@ -610,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.1100445571831774</v>
+        <v>0.3270965607112828</v>
       </c>
       <c r="D5">
-        <v>2.462646274243626e-16</v>
+        <v>0.04571680751029817</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>21.32642944567097</v>
       </c>
       <c r="F5">
-        <v>0.1100445571831743</v>
+        <v>0.2398252620061216</v>
       </c>
       <c r="G5">
-        <v>0.1100445571831805</v>
+        <v>0.4091236566335364</v>
       </c>
       <c r="H5">
-        <v>1.418898238565572e-15</v>
+        <v>2.405396079035121e-07</v>
       </c>
     </row>
     <row r="6">
@@ -640,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorCoherence of mind:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.139651112876202</v>
+        <v>0.1100445571831774</v>
       </c>
       <c r="D6">
-        <v>0.07748877353901955</v>
+        <v>2.390131085737748e-16</v>
       </c>
       <c r="E6">
-        <v>1.556449170404055</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-0.5254463254568597</v>
+        <v>0.1100445571831744</v>
       </c>
       <c r="G6">
-        <v>0.293776354525349</v>
+        <v>0.1100445571831804</v>
       </c>
       <c r="H6">
-        <v>0.2458523981259397</v>
+        <v>1.377117299777746e-15</v>
       </c>
     </row>
     <row r="7">
@@ -670,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.03784981878775419</v>
+        <v>-0.1252421953928357</v>
       </c>
       <c r="D7">
-        <v>0.03433511975392819</v>
+        <v>0.08678566408252239</v>
       </c>
       <c r="E7">
-        <v>14.52209993589579</v>
+        <v>1.632859931212413</v>
       </c>
       <c r="F7">
-        <v>-0.1108049564628853</v>
+        <v>-0.5317081032955081</v>
       </c>
       <c r="G7">
-        <v>0.03551104854930329</v>
+        <v>0.3281173258829933</v>
       </c>
       <c r="H7">
-        <v>0.2880163302179274</v>
+        <v>0.3093305337785289</v>
       </c>
     </row>
     <row r="8">
@@ -700,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorcontrolled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.2972120905586272</v>
+        <v>-0.04524060842750339</v>
       </c>
       <c r="D8">
-        <v>0.06667735379390188</v>
+        <v>0.1046983704622767</v>
       </c>
       <c r="E8">
-        <v>5.193161159041334</v>
+        <v>1.319942290059135</v>
       </c>
       <c r="F8">
-        <v>0.1361091013848888</v>
+        <v>-0.670045061815428</v>
       </c>
       <c r="G8">
-        <v>0.4430010516661046</v>
+        <v>0.617083872064208</v>
       </c>
       <c r="H8">
-        <v>0.005334191293268632</v>
+        <v>0.7254890731696306</v>
       </c>
     </row>
     <row r="9">
@@ -730,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.215222764180883</v>
+        <v>-0.03060192054678393</v>
       </c>
       <c r="D9">
-        <v>0.04161422744873078</v>
+        <v>0.03867244241420388</v>
       </c>
       <c r="E9">
-        <v>1.982933163102141</v>
+        <v>12.32503656261862</v>
       </c>
       <c r="F9">
-        <v>-0.3792453182083279</v>
+        <v>-0.1141262984375858</v>
       </c>
       <c r="G9">
-        <v>-0.038086455060229</v>
+        <v>0.05335203331497799</v>
       </c>
       <c r="H9">
-        <v>0.03499909778938461</v>
+        <v>0.4435859823435713</v>
       </c>
     </row>
     <row r="10">
@@ -760,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factoremotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.0135275462036778</v>
+        <v>0.1480598176168042</v>
       </c>
       <c r="D10">
-        <v>0.04190603294040348</v>
+        <v>0.08528569147670145</v>
       </c>
       <c r="E10">
-        <v>5.551489861174255</v>
+        <v>1.568350769962821</v>
       </c>
       <c r="F10">
-        <v>-0.09080321372581243</v>
+        <v>-0.3219319742607918</v>
       </c>
       <c r="G10">
-        <v>0.1175645892754345</v>
+        <v>0.5595056972761387</v>
       </c>
       <c r="H10">
-        <v>0.7586360382707831</v>
+        <v>0.2555128566835145</v>
       </c>
     </row>
     <row r="11">
@@ -790,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.02502715580591653</v>
+        <v>0.3668398448321462</v>
       </c>
       <c r="D11">
-        <v>0.05059770194196454</v>
+        <v>0.04671353809308973</v>
       </c>
       <c r="E11">
-        <v>7.272635861811238</v>
+        <v>4.102275020023003</v>
       </c>
       <c r="F11">
-        <v>-0.09343557358914316</v>
+        <v>0.250863791407805</v>
       </c>
       <c r="G11">
-        <v>0.1427911576110553</v>
+        <v>0.4724338535884065</v>
       </c>
       <c r="H11">
-        <v>0.6353832310918702</v>
+        <v>0.001062057533893408</v>
       </c>
     </row>
     <row r="12">
@@ -820,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorentity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.04918928015033897</v>
+        <v>-0.2049119311189259</v>
       </c>
       <c r="D12">
-        <v>0.1204015468855162</v>
+        <v>0.04552417958770535</v>
       </c>
       <c r="E12">
-        <v>1.878758901152713</v>
+        <v>2.02691025671554</v>
       </c>
       <c r="F12">
-        <v>-0.5375247584236806</v>
+        <v>-0.3810249176425693</v>
       </c>
       <c r="G12">
-        <v>0.4638534453048913</v>
+        <v>-0.01444977463231906</v>
       </c>
       <c r="H12">
-        <v>0.7244957298927543</v>
+        <v>0.04366057280722069</v>
       </c>
     </row>
     <row r="13">
@@ -850,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.2446021845222981</v>
+        <v>0.01675510364326087</v>
       </c>
       <c r="D13">
-        <v>0.09659009825909048</v>
+        <v>0.04384304053047093</v>
       </c>
       <c r="E13">
-        <v>9.446567248936834</v>
+        <v>5.798466433579232</v>
       </c>
       <c r="F13">
-        <v>-0.4354488060493633</v>
+        <v>-0.09117978698940499</v>
       </c>
       <c r="G13">
-        <v>-0.03271414722561063</v>
+        <v>0.1243009004408307</v>
       </c>
       <c r="H13">
-        <v>0.02838443702285207</v>
+        <v>0.715929524901066</v>
       </c>
     </row>
     <row r="14">
@@ -880,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorexternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.1492750875838308</v>
+        <v>0.006200643470667833</v>
       </c>
       <c r="D14">
-        <v>0.02512003863818634</v>
+        <v>0.08344059966374738</v>
       </c>
       <c r="E14">
-        <v>1.102907236350699</v>
+        <v>3.620115759021568</v>
       </c>
       <c r="F14">
-        <v>-0.1059349146835511</v>
+        <v>-0.2311248025191066</v>
       </c>
       <c r="G14">
-        <v>0.3860345442646802</v>
+        <v>0.2428296302211357</v>
       </c>
       <c r="H14">
-        <v>0.08951245264993378</v>
+        <v>0.944683341856972</v>
       </c>
     </row>
     <row r="15">
@@ -910,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.06530085251863463</v>
+        <v>0.0466066183060669</v>
       </c>
       <c r="D15">
-        <v>0.0785934856971137</v>
+        <v>0.1038208766945442</v>
       </c>
       <c r="E15">
-        <v>1.957373904839963</v>
+        <v>2.334970967576425</v>
       </c>
       <c r="F15">
-        <v>-0.389075693670545</v>
+        <v>-0.330990036682904</v>
       </c>
       <c r="G15">
-        <v>0.2728334122144157</v>
+        <v>0.4113378788897451</v>
       </c>
       <c r="H15">
-        <v>0.4945463874395983</v>
+        <v>0.6915754651597859</v>
       </c>
     </row>
     <row r="16">
@@ -940,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.261281146802565</v>
+        <v>0.03827527075611225</v>
       </c>
       <c r="D16">
-        <v>0.07592092338896539</v>
+        <v>0.0980127940485975</v>
       </c>
       <c r="E16">
-        <v>1.878758901152713</v>
+        <v>1.010271852090562</v>
       </c>
       <c r="F16">
-        <v>-0.08006313186575202</v>
+        <v>-0.8266773324502646</v>
       </c>
       <c r="G16">
-        <v>0.5477776587275345</v>
+        <v>0.8494397719228916</v>
       </c>
       <c r="H16">
-        <v>0.07873180830334423</v>
+        <v>0.7623612920684804</v>
       </c>
     </row>
     <row r="17">
@@ -970,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.2574975961964783</v>
+        <v>-0.124438444979015</v>
       </c>
       <c r="D17">
-        <v>0.1984984050143748</v>
+        <v>0.04178287164822631</v>
       </c>
       <c r="E17">
-        <v>1.133793248298305</v>
+        <v>1.137925554076761</v>
       </c>
       <c r="F17">
-        <v>-0.9293423623979953</v>
+        <v>-0.4820554534856175</v>
       </c>
       <c r="G17">
-        <v>0.974785455123538</v>
+        <v>0.2687211695715407</v>
       </c>
       <c r="H17">
-        <v>0.391213285580412</v>
+        <v>0.1802840061789287</v>
       </c>
     </row>
     <row r="18">
@@ -1000,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.1731445456808779</v>
+        <v>-0.2657892298751155</v>
       </c>
       <c r="D18">
-        <v>0.04826403131419123</v>
+        <v>0.115956546135803</v>
       </c>
       <c r="E18">
-        <v>9.872430631710161</v>
+        <v>7.506917270009454</v>
       </c>
       <c r="F18">
-        <v>-0.2753413400351844</v>
+        <v>-0.4951136024421807</v>
       </c>
       <c r="G18">
-        <v>-0.06707808942321496</v>
+        <v>-0.001842950236232413</v>
       </c>
       <c r="H18">
-        <v>0.004757181540164399</v>
+        <v>0.04880745993304611</v>
       </c>
     </row>
     <row r="19">
@@ -1030,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.2812175254963976</v>
+        <v>0.1485622143420814</v>
       </c>
       <c r="D19">
-        <v>0.03898962779391732</v>
+        <v>0.0259124756918528</v>
       </c>
       <c r="E19">
-        <v>20.65358288615618</v>
+        <v>3.267050373866313</v>
       </c>
       <c r="F19">
-        <v>0.204895613794126</v>
+        <v>0.0707715800557483</v>
       </c>
       <c r="G19">
-        <v>0.3541403317252242</v>
+        <v>0.2245567079312442</v>
       </c>
       <c r="H19">
-        <v>3.036276847289503e-07</v>
+        <v>0.008126301178741028</v>
       </c>
     </row>
     <row r="20">
@@ -1060,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.07011273365840111</v>
+        <v>-0.0468523132979911</v>
       </c>
       <c r="D20">
-        <v>3.254469079242171e-17</v>
+        <v>0.0811866372733669</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2.007823836642065</v>
       </c>
       <c r="F20">
-        <v>-0.07011273365840152</v>
+        <v>-0.3755796723013955</v>
       </c>
       <c r="G20">
-        <v>-0.07011273365840069</v>
+        <v>0.2923464649817437</v>
       </c>
       <c r="H20">
-        <v>2.95019156866981e-16</v>
+        <v>0.6217426530287641</v>
       </c>
     </row>
     <row r="21">
@@ -1090,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.052496128076447</v>
+        <v>0.335990654299413</v>
       </c>
       <c r="D21">
-        <v>0.08754645133430398</v>
+        <v>0.02509568558915094</v>
       </c>
       <c r="E21">
-        <v>1.007047049913193</v>
+        <v>1.010271852090561</v>
       </c>
       <c r="F21">
-        <v>-0.7785236246124964</v>
+        <v>0.03823678342983452</v>
       </c>
       <c r="G21">
-        <v>0.8166580179657746</v>
+        <v>0.5789465573784838</v>
       </c>
       <c r="H21">
-        <v>0.6553032137754808</v>
+        <v>0.04449545364541099</v>
       </c>
     </row>
     <row r="22">
@@ -1120,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factormastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.2479505400679517</v>
+        <v>0.0933745102732025</v>
       </c>
       <c r="D22">
-        <v>0.08447953833910414</v>
+        <v>0.1006937711014173</v>
       </c>
       <c r="E22">
-        <v>1.073261122474315</v>
+        <v>1.876080245000677</v>
       </c>
       <c r="F22">
-        <v>-0.8236541101645497</v>
+        <v>-0.3524303044621686</v>
       </c>
       <c r="G22">
-        <v>0.5794400154704102</v>
+        <v>0.5046389259085139</v>
       </c>
       <c r="H22">
-        <v>0.1910905553368784</v>
+        <v>0.4560486389743553</v>
       </c>
     </row>
     <row r="23">
@@ -1150,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1466519662212898</v>
+        <v>0.5103947413657737</v>
       </c>
       <c r="D23">
-        <v>2.59219003166776e-16</v>
+        <v>0.05335645375970073</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2.787471859317189</v>
       </c>
       <c r="F23">
-        <v>0.1466519662212866</v>
+        <v>0.3678159641618575</v>
       </c>
       <c r="G23">
-        <v>0.1466519662212931</v>
+        <v>0.6295267499328427</v>
       </c>
       <c r="H23">
-        <v>1.117162210317401e-15</v>
+        <v>0.002493118400781723</v>
       </c>
     </row>
     <row r="24">
@@ -1180,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorneed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.2917457044095864</v>
+        <v>-0.1219290637306851</v>
       </c>
       <c r="D24">
-        <v>0.1702101765428329</v>
+        <v>0.08385381947306898</v>
       </c>
       <c r="E24">
-        <v>2.053934797061446</v>
+        <v>2.035481433710705</v>
       </c>
       <c r="F24">
-        <v>-0.7677009651390537</v>
+        <v>-0.4441366743909481</v>
       </c>
       <c r="G24">
-        <v>0.391659030003669</v>
+        <v>0.2282047633057453</v>
       </c>
       <c r="H24">
-        <v>0.2162479341246182</v>
+        <v>0.2793479129651732</v>
       </c>
     </row>
     <row r="25">
@@ -1210,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.2348131729123647</v>
+        <v>-0.1884455805693409</v>
       </c>
       <c r="D25">
-        <v>0.08877549789510496</v>
+        <v>0.06199183342020468</v>
       </c>
       <c r="E25">
-        <v>2.690950072539528</v>
+        <v>9.05799093169359</v>
       </c>
       <c r="F25">
-        <v>-0.06243777182497767</v>
+        <v>-0.3192605853045854</v>
       </c>
       <c r="G25">
-        <v>0.4938005427778923</v>
+        <v>-0.05058328709219685</v>
       </c>
       <c r="H25">
-        <v>0.0833290078482917</v>
+        <v>0.01311348168025923</v>
       </c>
     </row>
     <row r="26">
@@ -1240,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorneed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.1890444464217981</v>
+        <v>0.3141606737891723</v>
       </c>
       <c r="D26">
-        <v>0.05114297509010683</v>
+        <v>0.08385381947306915</v>
       </c>
       <c r="E26">
-        <v>8.787884794724825</v>
+        <v>2.035481433710692</v>
       </c>
       <c r="F26">
-        <v>0.07508390880149322</v>
+        <v>-0.02966976555071059</v>
       </c>
       <c r="G26">
-        <v>0.298130566126997</v>
+        <v>0.5915119609176686</v>
       </c>
       <c r="H26">
-        <v>0.004814668738189718</v>
+        <v>0.05884465916743321</v>
       </c>
     </row>
     <row r="27">
@@ -1270,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.05420923199384598</v>
+        <v>0.2795069884211923</v>
       </c>
       <c r="D27">
-        <v>0.03041032954599606</v>
+        <v>0.04062720780641572</v>
       </c>
       <c r="E27">
-        <v>1.707050680202893</v>
+        <v>19.60826969646251</v>
       </c>
       <c r="F27">
-        <v>-0.1003035876991014</v>
+        <v>0.1995767062477629</v>
       </c>
       <c r="G27">
-        <v>0.2061689138708844</v>
+        <v>0.3557422450568705</v>
       </c>
       <c r="H27">
-        <v>0.2373514783030281</v>
+        <v>8.372036650317384e-07</v>
       </c>
     </row>
     <row r="28">
@@ -1300,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.2091057698069457</v>
+        <v>-0.07011273365840102</v>
       </c>
       <c r="D28">
-        <v>0.1083461918039008</v>
+        <v>2.443972774147965e-17</v>
       </c>
       <c r="E28">
-        <v>3.73986408952644</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>-0.478847484732806</v>
+        <v>-0.07011273365840133</v>
       </c>
       <c r="G28">
-        <v>0.09671248063035601</v>
+        <v>-0.07011273365840072</v>
       </c>
       <c r="H28">
-        <v>0.1266294152008593</v>
+        <v>2.215472845736439e-16</v>
       </c>
     </row>
     <row r="29">
@@ -1330,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C29">
-        <v>-0.0994232443129541</v>
+        <v>0.03550148853161853</v>
       </c>
       <c r="D29">
-        <v>0.04301943858302022</v>
+        <v>0.1111074179268941</v>
       </c>
       <c r="E29">
-        <v>3.088815595446503</v>
+        <v>1.035740094317313</v>
       </c>
       <c r="F29">
-        <v>-0.2302557768918973</v>
+        <v>-0.8527548925642059</v>
       </c>
       <c r="G29">
-        <v>0.03493971820456798</v>
+        <v>0.8709975963454438</v>
       </c>
       <c r="H29">
-        <v>0.1006769461592322</v>
+        <v>0.8016054799103485</v>
       </c>
     </row>
     <row r="30">
@@ -1360,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.2053996343462457</v>
+        <v>-0.236255628492406</v>
       </c>
       <c r="D30">
-        <v>0.0542990781975954</v>
+        <v>0.08380815215012084</v>
       </c>
       <c r="E30">
-        <v>5.209495092237619</v>
+        <v>1.092176678479345</v>
       </c>
       <c r="F30">
-        <v>0.07033850950736095</v>
+        <v>-0.8058635776629959</v>
       </c>
       <c r="G30">
-        <v>0.3330654741976885</v>
+        <v>0.5604624966225246</v>
       </c>
       <c r="H30">
-        <v>0.01124346950920017</v>
+        <v>0.1959295719918943</v>
       </c>
     </row>
     <row r="31">
@@ -1390,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative life events:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.1907753803113011</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D31">
-        <v>0.04055892155768406</v>
+        <v>2.349164434722652e-16</v>
       </c>
       <c r="E31">
-        <v>4.715817621493093</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.08674473653922009</v>
+        <v>0.1466519662212869</v>
       </c>
       <c r="G31">
-        <v>0.290690311221415</v>
+        <v>0.1466519662212928</v>
       </c>
       <c r="H31">
-        <v>0.005874293077285577</v>
+        <v>1.012424899499094e-15</v>
       </c>
     </row>
     <row r="32">
@@ -1420,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factornegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.4921413881869383</v>
+        <v>-0.3615142662933082</v>
       </c>
       <c r="D32">
-        <v>0.06829840088299784</v>
+        <v>0.1110662923329324</v>
       </c>
       <c r="E32">
-        <v>1.655092343610466</v>
+        <v>1.116962220324593</v>
       </c>
       <c r="F32">
-        <v>-0.7162925658225633</v>
+        <v>-0.9022840858153712</v>
       </c>
       <c r="G32">
-        <v>-0.1759259164110671</v>
+        <v>0.6213000004814154</v>
       </c>
       <c r="H32">
-        <v>0.02626748787380212</v>
+        <v>0.1605080259837615</v>
       </c>
     </row>
     <row r="33">
@@ -1450,26 +1451,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.3297782780008515</v>
+        <v>-0.02724171344791702</v>
       </c>
       <c r="D33">
-        <v>0.03446008090704005</v>
+        <v>0.03909208922825985</v>
       </c>
       <c r="E33">
-        <v>7.066941173879955</v>
+        <v>1.353804359871861</v>
       </c>
       <c r="F33">
-        <v>0.2554648168235868</v>
+        <v>-0.2927181855441555</v>
       </c>
       <c r="G33">
-        <v>0.4002179234476529</v>
+        <v>0.2421339197234207</v>
       </c>
       <c r="H33">
-        <v>2.086887118219093e-05</v>
+        <v>0.5859017315135527</v>
       </c>
     </row>
     <row r="34">
@@ -1480,26 +1481,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.3415347006873853</v>
+        <v>0.2062470330350026</v>
       </c>
       <c r="D34">
-        <v>0.03521136241888485</v>
+        <v>0.05281894637516865</v>
       </c>
       <c r="E34">
-        <v>1.065390662964677</v>
+        <v>2.051122600072188</v>
       </c>
       <c r="F34">
-        <v>-0.03161478536247321</v>
+        <v>-0.0126697633306645</v>
       </c>
       <c r="G34">
-        <v>0.631124599725486</v>
+        <v>0.4062964151855291</v>
       </c>
       <c r="H34">
-        <v>0.05471605315557817</v>
+        <v>0.05584306966778531</v>
       </c>
     </row>
     <row r="35">
@@ -1510,26 +1511,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers positive behaviour:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.3247195468355785</v>
+        <v>0.2430613315042943</v>
       </c>
       <c r="D35">
-        <v>0.02689948896552742</v>
+        <v>0.08528569147670155</v>
       </c>
       <c r="E35">
-        <v>1.821858831799606</v>
+        <v>1.568350769962822</v>
       </c>
       <c r="F35">
-        <v>0.2066063745881818</v>
+        <v>-0.2307031857066622</v>
       </c>
       <c r="G35">
-        <v>0.4335045251213722</v>
+        <v>0.6236659160857021</v>
       </c>
       <c r="H35">
-        <v>0.00887932801586102</v>
+        <v>0.1326014635561034</v>
       </c>
     </row>
     <row r="36">
@@ -1540,26 +1541,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2202082776306993</v>
+        <v>0.2305141232462352</v>
       </c>
       <c r="D36">
-        <v>4.000386964968511e-17</v>
+        <v>0.1063533451859138</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2.112756406655732</v>
       </c>
       <c r="F36">
-        <v>0.2202082776306988</v>
+        <v>-0.1976102320255385</v>
       </c>
       <c r="G36">
-        <v>0.2202082776306997</v>
+        <v>0.584788558660937</v>
       </c>
       <c r="H36">
-        <v>1.137565849918934e-16</v>
+        <v>0.1512065522550912</v>
       </c>
     </row>
     <row r="37">
@@ -1570,26 +1571,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2292549601213771</v>
+        <v>0.1979391102217895</v>
       </c>
       <c r="D37">
-        <v>0.09125131833934917</v>
+        <v>0.1033814572714206</v>
       </c>
       <c r="E37">
-        <v>1.015450585018255</v>
+        <v>2.349785241693469</v>
       </c>
       <c r="F37">
-        <v>-0.709007587276567</v>
+        <v>-0.1842990432102443</v>
       </c>
       <c r="G37">
-        <v>0.8745224964067083</v>
+        <v>0.5281692498600677</v>
       </c>
       <c r="H37">
-        <v>0.2341938547636197</v>
+        <v>0.1725778368618949</v>
       </c>
     </row>
     <row r="38">
@@ -1600,26 +1601,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3287071251355536</v>
+        <v>0.1854581799884723</v>
       </c>
       <c r="D38">
-        <v>0.04141107994163729</v>
+        <v>0.07065273721962199</v>
       </c>
       <c r="E38">
-        <v>5.28222686387087</v>
+        <v>4.906980508066117</v>
       </c>
       <c r="F38">
-        <v>0.2322965698374282</v>
+        <v>0.004970307637174799</v>
       </c>
       <c r="G38">
-        <v>0.4187213135422046</v>
+        <v>0.3542440425382613</v>
       </c>
       <c r="H38">
-        <v>0.0003279709701405196</v>
+        <v>0.04597524174477366</v>
       </c>
     </row>
     <row r="39">
@@ -1630,26 +1631,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.2901367230861707</v>
+        <v>0.06052527892712826</v>
       </c>
       <c r="D39">
-        <v>0.02866449973860656</v>
+        <v>0.03376434499691071</v>
       </c>
       <c r="E39">
-        <v>1.913253721290549</v>
+        <v>1.764497537482779</v>
       </c>
       <c r="F39">
-        <v>0.1682502760704404</v>
+        <v>-0.1045520607157413</v>
       </c>
       <c r="G39">
-        <v>0.4032849044071307</v>
+        <v>0.2223568951869372</v>
       </c>
       <c r="H39">
-        <v>0.01054353895670817</v>
+        <v>0.2310249878046935</v>
       </c>
     </row>
     <row r="40">
@@ -1660,26 +1661,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.2604584451024384</v>
+        <v>-0.1951054836676736</v>
       </c>
       <c r="D40">
-        <v>0.07350481256880795</v>
+        <v>0.1085929940345653</v>
       </c>
       <c r="E40">
-        <v>7.359225694740181</v>
+        <v>2.786876422297046</v>
       </c>
       <c r="F40">
-        <v>0.09421385122309706</v>
+        <v>-0.5069928117349163</v>
       </c>
       <c r="G40">
-        <v>0.4125714439175316</v>
+        <v>0.1619565901165866</v>
       </c>
       <c r="H40">
-        <v>0.007738687929075134</v>
+        <v>0.1733093066406548</v>
       </c>
     </row>
     <row r="41">
@@ -1690,26 +1691,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.4606967987052083</v>
+        <v>-0.3652991326272506</v>
       </c>
       <c r="D41">
-        <v>0.1257281539114797</v>
+        <v>0.03678293087762134</v>
       </c>
       <c r="E41">
-        <v>1.59646043709105</v>
+        <v>3.881542680663145</v>
       </c>
       <c r="F41">
-        <v>-0.1949326603233514</v>
+        <v>-0.4513180809774116</v>
       </c>
       <c r="G41">
-        <v>0.8317692494639658</v>
+        <v>-0.2725540296515466</v>
       </c>
       <c r="H41">
-        <v>0.08295648551213186</v>
+        <v>0.0005605722860412529</v>
       </c>
     </row>
     <row r="42">
@@ -1720,26 +1721,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.3847877258754295</v>
+        <v>-0.1688165664582064</v>
       </c>
       <c r="D42">
-        <v>0.08656558678264105</v>
+        <v>0.0852856914767017</v>
       </c>
       <c r="E42">
-        <v>6.039575877216494</v>
+        <v>1.568350769962822</v>
       </c>
       <c r="F42">
-        <v>0.1917805202681531</v>
+        <v>-0.5739580085440942</v>
       </c>
       <c r="G42">
-        <v>0.549140400295178</v>
+        <v>0.3027178077279047</v>
       </c>
       <c r="H42">
-        <v>0.003316337195926302</v>
+        <v>0.2175489689718706</v>
       </c>
     </row>
     <row r="43">
@@ -1750,14 +1751,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.27</v>
+        <v>-0.07444692471408257</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.07080095741221253</v>
+      </c>
+      <c r="E43">
+        <v>2.268618917353991</v>
+      </c>
+      <c r="F43">
+        <v>-0.3338301179239809</v>
+      </c>
+      <c r="G43">
+        <v>0.1954166367458522</v>
+      </c>
+      <c r="H43">
+        <v>0.3912535820494358</v>
       </c>
     </row>
     <row r="44">
@@ -1768,26 +1781,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.1658645185089016</v>
+        <v>0.1430383125401337</v>
       </c>
       <c r="D44">
-        <v>0.02689948896552748</v>
+        <v>0.05253014546425556</v>
       </c>
       <c r="E44">
-        <v>1.821858831799603</v>
+        <v>2.067988364175604</v>
       </c>
       <c r="F44">
-        <v>0.04009945779815956</v>
+        <v>-0.07487899301047897</v>
       </c>
       <c r="G44">
-        <v>0.2864561788812807</v>
+        <v>0.3479165167890061</v>
       </c>
       <c r="H44">
-        <v>0.0310214813088475</v>
+        <v>0.1073133681600414</v>
       </c>
     </row>
     <row r="45">
@@ -1798,26 +1811,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.1036615932079714</v>
+        <v>0.2355134509539061</v>
       </c>
       <c r="D45">
-        <v>0.02689948896552722</v>
+        <v>0.1658753982379803</v>
       </c>
       <c r="E45">
-        <v>1.821858831799603</v>
+        <v>1.10064028424209</v>
       </c>
       <c r="F45">
-        <v>-0.02325069030783799</v>
+        <v>-0.8981513915231396</v>
       </c>
       <c r="G45">
-        <v>0.2272857618466408</v>
+        <v>0.9597405740957132</v>
       </c>
       <c r="H45">
-        <v>0.07043260631198736</v>
+        <v>0.3689241970441406</v>
       </c>
     </row>
     <row r="46">
@@ -1828,26 +1841,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.2136088093755234</v>
+        <v>0.1790101014044065</v>
       </c>
       <c r="D46">
-        <v>0.06467866934441359</v>
+        <v>0.08378033871847221</v>
       </c>
       <c r="E46">
-        <v>2.648745886164584</v>
+        <v>1.261164203821096</v>
       </c>
       <c r="F46">
-        <v>-0.005224420830085113</v>
+        <v>-0.4471564474389754</v>
       </c>
       <c r="G46">
-        <v>0.4129178889529619</v>
+        <v>0.6874264697156323</v>
       </c>
       <c r="H46">
-        <v>0.05275619082846631</v>
+        <v>0.2329009391753364</v>
       </c>
     </row>
     <row r="47">
@@ -1858,26 +1871,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C47">
-        <v>-0.07225962892237235</v>
+        <v>0.1883766113057751</v>
       </c>
       <c r="D47">
-        <v>6.377998745479017e-17</v>
+        <v>0.07784107153851617</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2.272965133616848</v>
       </c>
       <c r="F47">
-        <v>-0.07225962892237316</v>
+        <v>-0.1081060749766943</v>
       </c>
       <c r="G47">
-        <v>-0.07225962892237155</v>
+        <v>0.4540872365889078</v>
       </c>
       <c r="H47">
-        <v>5.609333051498821e-16</v>
+        <v>0.1189180399687069</v>
       </c>
     </row>
     <row r="48">
@@ -1888,26 +1901,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorperformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.154891154386987</v>
+        <v>-0.550632940739296</v>
       </c>
       <c r="D48">
-        <v>0.07934580916548267</v>
+        <v>0.1006937711014177</v>
       </c>
       <c r="E48">
-        <v>3.934762628804807</v>
+        <v>1.876080245000677</v>
       </c>
       <c r="F48">
-        <v>-0.360878207089639</v>
+        <v>-0.7936261108668412</v>
       </c>
       <c r="G48">
-        <v>0.0655053528548928</v>
+        <v>-0.1561381462346995</v>
       </c>
       <c r="H48">
-        <v>0.1216262487938891</v>
+        <v>0.02959702902884595</v>
       </c>
     </row>
     <row r="49">
@@ -1918,26 +1931,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.09178731548589035</v>
+        <v>0.3427333989854162</v>
       </c>
       <c r="D49">
-        <v>0.02947767115498342</v>
+        <v>0.03859994450578026</v>
       </c>
       <c r="E49">
-        <v>4.703671691429281</v>
+        <v>8.496424862850862</v>
       </c>
       <c r="F49">
-        <v>0.01481194223032585</v>
+        <v>0.2627611401484448</v>
       </c>
       <c r="G49">
-        <v>0.1676811419585676</v>
+        <v>0.4180287116473568</v>
       </c>
       <c r="H49">
-        <v>0.02842984235617235</v>
+        <v>1.009180294322524e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1948,26 +1961,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.05001706260711184</v>
+        <v>0.3688094736429406</v>
       </c>
       <c r="D50">
-        <v>0.02947767116005766</v>
+        <v>0.03767698571079293</v>
       </c>
       <c r="E50">
-        <v>4.703671691429247</v>
+        <v>1.124688856998693</v>
       </c>
       <c r="F50">
-        <v>-0.0271678457168942</v>
+        <v>0.01719166468043657</v>
       </c>
       <c r="G50">
-        <v>0.126609111006412</v>
+        <v>0.6392447213742182</v>
       </c>
       <c r="H50">
-        <v>0.1539064083576401</v>
+        <v>0.04752719788087851</v>
       </c>
     </row>
     <row r="51">
@@ -1978,26 +1991,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.1286853404654187</v>
+        <v>0.2990533092976689</v>
       </c>
       <c r="D51">
-        <v>0.04581268016772464</v>
+        <v>0.03062949656809057</v>
       </c>
       <c r="E51">
-        <v>2.361077805280041</v>
+        <v>1.863581124907622</v>
       </c>
       <c r="F51">
-        <v>-0.04144195869568272</v>
+        <v>0.1654655412069204</v>
       </c>
       <c r="G51">
-        <v>0.291560917712449</v>
+        <v>0.4218647183338063</v>
       </c>
       <c r="H51">
-        <v>0.08768029404809333</v>
+        <v>0.01224125526123109</v>
       </c>
     </row>
     <row r="52">
@@ -2008,26 +2021,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C52">
-        <v>-0.2847589257334602</v>
+        <v>0.2202082776306993</v>
       </c>
       <c r="D52">
-        <v>0.02779474743467138</v>
+        <v>2.560359159132615e-17</v>
       </c>
       <c r="E52">
-        <v>4.164669807344831</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>-0.3529725812447138</v>
+        <v>0.2202082776306989</v>
       </c>
       <c r="G52">
-        <v>-0.213534095199407</v>
+        <v>0.2202082776306996</v>
       </c>
       <c r="H52">
-        <v>0.0003710310390651999</v>
+        <v>7.280738509704013e-17</v>
       </c>
     </row>
     <row r="53">
@@ -2038,26 +2051,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2802749166153557</v>
+        <v>0.2092656894920738</v>
       </c>
       <c r="D53">
-        <v>0.02779474743467144</v>
+        <v>0.1154159718491087</v>
       </c>
       <c r="E53">
-        <v>4.164669807344844</v>
+        <v>1.074699137378359</v>
       </c>
       <c r="F53">
-        <v>0.2088785198081036</v>
+        <v>-0.7754489637079286</v>
       </c>
       <c r="G53">
-        <v>0.3486994260987201</v>
+        <v>0.8973919061052698</v>
       </c>
       <c r="H53">
-        <v>0.0003970302235418432</v>
+        <v>0.303461103108626</v>
       </c>
     </row>
     <row r="54">
@@ -2068,26 +2081,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C54">
-        <v>-0.04505530487849341</v>
+        <v>0.2619938368735401</v>
       </c>
       <c r="D54">
-        <v>3.722488292679134e-17</v>
+        <v>0.03684381803789274</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.093812974638004</v>
       </c>
       <c r="F54">
-        <v>-0.04505530487849387</v>
+        <v>-0.1144016062924068</v>
       </c>
       <c r="G54">
-        <v>-0.04505530487849294</v>
+        <v>0.5726121073278398</v>
       </c>
       <c r="H54">
-        <v>5.256218399028344e-16</v>
+        <v>0.0735634569656516</v>
       </c>
     </row>
     <row r="55">
@@ -2098,14 +2111,26 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C55">
-        <v>-0.43</v>
+        <v>0.3467024337002037</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>0.05184601381627484</v>
+      </c>
+      <c r="E55">
+        <v>3.567798919938946</v>
+      </c>
+      <c r="F55">
+        <v>0.207539037148088</v>
+      </c>
+      <c r="G55">
+        <v>0.472110966082537</v>
+      </c>
+      <c r="H55">
+        <v>0.003358823661348698</v>
       </c>
     </row>
     <row r="56">
@@ -2116,26 +2141,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorSocial competence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.2514433377160216</v>
+        <v>0.3003648693342598</v>
       </c>
       <c r="D56">
-        <v>0.04805075745340024</v>
+        <v>0.02808390431993914</v>
       </c>
       <c r="E56">
-        <v>1.858797494055101</v>
+        <v>2.1411550208319</v>
       </c>
       <c r="F56">
-        <v>0.03438945234376267</v>
+        <v>0.1939199244523157</v>
       </c>
       <c r="G56">
-        <v>0.4458454220022721</v>
+        <v>0.3998195654507647</v>
       </c>
       <c r="H56">
-        <v>0.03881407719384902</v>
+        <v>0.006345776436110478</v>
       </c>
     </row>
     <row r="57">
@@ -2146,26 +2171,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.01198960386520322</v>
+        <v>0.2432524017107074</v>
       </c>
       <c r="D57">
-        <v>0.1751577155223692</v>
+        <v>0.06728558828453872</v>
       </c>
       <c r="E57">
-        <v>2.117764450257917</v>
+        <v>7.152773937181059</v>
       </c>
       <c r="F57">
-        <v>-0.6061944684250654</v>
+        <v>0.08956866838927262</v>
       </c>
       <c r="G57">
-        <v>0.6211425599235123</v>
+        <v>0.3856219860428606</v>
       </c>
       <c r="H57">
-        <v>0.9513435773267964</v>
+        <v>0.007473733444212025</v>
       </c>
     </row>
     <row r="58">
@@ -2176,26 +2201,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C58">
-        <v>-0.2851053347445097</v>
+        <v>0.4601616963353457</v>
       </c>
       <c r="D58">
-        <v>0.07838923445136317</v>
+        <v>0.1263222471032476</v>
       </c>
       <c r="E58">
-        <v>1.174447744618313</v>
+        <v>1.601046812102728</v>
       </c>
       <c r="F58">
-        <v>-0.7613838564623367</v>
+        <v>-0.1962684754741054</v>
       </c>
       <c r="G58">
-        <v>0.3910497493599771</v>
+        <v>0.8317787518884726</v>
       </c>
       <c r="H58">
-        <v>0.1366758808296878</v>
+        <v>0.08335065926857514</v>
       </c>
     </row>
     <row r="59">
@@ -2206,26 +2231,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.1430473969888013</v>
+        <v>0.3742683692655466</v>
       </c>
       <c r="D59">
-        <v>0.0412701998543454</v>
+        <v>0.0851744423770255</v>
       </c>
       <c r="E59">
-        <v>1.18989181263681</v>
+        <v>6.238252476913601</v>
       </c>
       <c r="F59">
-        <v>-0.2152181417325141</v>
+        <v>0.1847321104657474</v>
       </c>
       <c r="G59">
-        <v>0.4673755348608786</v>
+        <v>0.5369624625186407</v>
       </c>
       <c r="H59">
-        <v>0.145297741371896</v>
+        <v>0.003276207291525689</v>
       </c>
     </row>
     <row r="60">
@@ -2236,26 +2261,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.2915759187760777</v>
+        <v>0.27</v>
       </c>
       <c r="D60">
-        <v>0.1343674871767272</v>
-      </c>
-      <c r="E60">
-        <v>2.170527863380352</v>
-      </c>
-      <c r="F60">
-        <v>-0.2321216987093635</v>
-      </c>
-      <c r="G60">
-        <v>0.6842201576997953</v>
-      </c>
-      <c r="H60">
-        <v>0.1449455624959109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2266,26 +2279,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.03151782240311936</v>
+        <v>0.1380888936890319</v>
       </c>
       <c r="D61">
-        <v>0.09696146770877799</v>
+        <v>0.03062949656808997</v>
       </c>
       <c r="E61">
-        <v>2.468790237916418</v>
+        <v>1.86358112490759</v>
       </c>
       <c r="F61">
-        <v>-0.3638247702401498</v>
+        <v>-0.002501882455700171</v>
       </c>
       <c r="G61">
-        <v>0.3079061717450118</v>
+        <v>0.2733265786630234</v>
       </c>
       <c r="H61">
-        <v>0.7706066856426339</v>
+        <v>0.05158575461864269</v>
       </c>
     </row>
     <row r="62">
@@ -2296,26 +2309,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.1267858582772571</v>
+        <v>0.07545723585485645</v>
       </c>
       <c r="D62">
-        <v>0.02947767116022822</v>
+        <v>0.03062949656809046</v>
       </c>
       <c r="E62">
-        <v>4.703671691429306</v>
+        <v>1.863581124907608</v>
       </c>
       <c r="F62">
-        <v>0.05019624236096919</v>
+        <v>-0.06578260521861971</v>
       </c>
       <c r="G62">
-        <v>0.2018929911401634</v>
+        <v>0.2137328359283559</v>
       </c>
       <c r="H62">
-        <v>0.008656849681768809</v>
+        <v>0.1413801269701698</v>
       </c>
     </row>
     <row r="63">
@@ -2326,26 +2339,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.0925044882029647</v>
+        <v>0.2684808405862452</v>
       </c>
       <c r="D63">
-        <v>0.02247072089739326</v>
+        <v>0.03958097225633714</v>
       </c>
       <c r="E63">
-        <v>1.097405265513069</v>
+        <v>2.543784364864242</v>
       </c>
       <c r="F63">
-        <v>-0.1384101032627684</v>
+        <v>0.1346422955098146</v>
       </c>
       <c r="G63">
-        <v>0.313880009184987</v>
+        <v>0.3926988459753437</v>
       </c>
       <c r="H63">
-        <v>0.1341291837067571</v>
+        <v>0.0102020430884604</v>
       </c>
     </row>
     <row r="64">
@@ -2356,26 +2369,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.1554450834706603</v>
+        <v>-0.07225962892237234</v>
       </c>
       <c r="D64">
-        <v>0.0268994889655273</v>
+        <v>6.849643514126578e-17</v>
       </c>
       <c r="E64">
-        <v>1.821858831799603</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0.02941688668806731</v>
+        <v>-0.07225962892237321</v>
       </c>
       <c r="G64">
-        <v>0.2766084376630905</v>
+        <v>-0.07225962892237146</v>
       </c>
       <c r="H64">
-        <v>0.03483732668595106</v>
+        <v>6.024135984976443e-16</v>
       </c>
     </row>
     <row r="65">
@@ -2386,26 +2399,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.1250794163032972</v>
+        <v>-0.02670579771332519</v>
       </c>
       <c r="D65">
-        <v>4.141412422499575e-17</v>
+        <v>0.04820489118491012</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>1.073636702138643</v>
       </c>
       <c r="F65">
-        <v>0.1250794163032967</v>
+        <v>-0.499274174665863</v>
       </c>
       <c r="G65">
-        <v>0.1250794163032978</v>
+        <v>0.4581083273169028</v>
       </c>
       <c r="H65">
-        <v>2.096826179635238e-16</v>
+        <v>0.6726758122608796</v>
       </c>
     </row>
     <row r="66">
@@ -2416,26 +2429,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.2291898739973034</v>
+        <v>-0.1837633238422559</v>
       </c>
       <c r="D66">
-        <v>0.02594212456116521</v>
+        <v>0.1006000362937969</v>
       </c>
       <c r="E66">
-        <v>1.280437158509066</v>
+        <v>1.936179463342739</v>
       </c>
       <c r="F66">
-        <v>0.03364399703832962</v>
+        <v>-0.5598988918915258</v>
       </c>
       <c r="G66">
-        <v>0.4078352535083917</v>
+        <v>0.2551711273664992</v>
       </c>
       <c r="H66">
-        <v>0.04106288021235818</v>
+        <v>0.2100625159680451</v>
       </c>
     </row>
     <row r="67">
@@ -2446,26 +2459,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorInvitation from others to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.05850118159008933</v>
+        <v>0.018262111802126</v>
       </c>
       <c r="D67">
-        <v>0.02947767121561473</v>
+        <v>0.03691065567522382</v>
       </c>
       <c r="E67">
-        <v>4.70367169142926</v>
+        <v>2.555033848302753</v>
       </c>
       <c r="F67">
-        <v>-0.01866314339862283</v>
+        <v>-0.1112055997188663</v>
       </c>
       <c r="G67">
-        <v>0.1349727193199952</v>
+        <v>0.1471202873999204</v>
       </c>
       <c r="H67">
-        <v>0.1072592029979644</v>
+        <v>0.6600891240483417</v>
       </c>
     </row>
     <row r="68">
@@ -2476,26 +2489,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorlow personal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C68">
-        <v>0.1279470442603562</v>
+        <v>-0.02371896647094369</v>
       </c>
       <c r="D68">
-        <v>0.03427111635550614</v>
+        <v>0.03691065559066357</v>
       </c>
       <c r="E68">
-        <v>3.470294981588781</v>
+        <v>2.555033848302785</v>
       </c>
       <c r="F68">
-        <v>0.02748236797637423</v>
+        <v>-0.1524570587799973</v>
       </c>
       <c r="G68">
-        <v>0.2258528373429095</v>
+        <v>0.105810617226642</v>
       </c>
       <c r="H68">
-        <v>0.0256174107172529</v>
+        <v>0.5733621466667661</v>
       </c>
     </row>
     <row r="69">
@@ -2506,14 +2519,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.6899999999999999</v>
+        <v>0.06724432524943626</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>0.06243677215798357</v>
+      </c>
+      <c r="E69">
+        <v>2.231643894113191</v>
+      </c>
+      <c r="F69">
+        <v>-0.174464808237481</v>
+      </c>
+      <c r="G69">
+        <v>0.301310089515868</v>
+      </c>
+      <c r="H69">
+        <v>0.3834132158482985</v>
       </c>
     </row>
     <row r="70">
@@ -2524,26 +2549,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.1885907610487368</v>
+        <v>-0.2924032393000822</v>
       </c>
       <c r="D70">
-        <v>0.06046175137850184</v>
+        <v>0.03036517703175367</v>
       </c>
       <c r="E70">
-        <v>2.005316634650642</v>
+        <v>4.949594066109251</v>
       </c>
       <c r="F70">
-        <v>-0.4221962306274832</v>
+        <v>-0.3622627847592935</v>
       </c>
       <c r="G70">
-        <v>0.06850307305515696</v>
+        <v>-0.2192768514819596</v>
       </c>
       <c r="H70">
-        <v>0.08708874300973626</v>
+        <v>0.000188135390906523</v>
       </c>
     </row>
     <row r="71">
@@ -2554,26 +2579,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1975401087851637</v>
+        <v>0.2725733253189676</v>
       </c>
       <c r="D71">
-        <v>0.0553053912732423</v>
+        <v>0.03036517703175337</v>
       </c>
       <c r="E71">
-        <v>3.450930922821743</v>
+        <v>4.949594066109276</v>
       </c>
       <c r="F71">
-        <v>0.03647067090619175</v>
+        <v>0.1986682632567073</v>
       </c>
       <c r="G71">
-        <v>0.3486060553154333</v>
+        <v>0.3433959959046682</v>
       </c>
       <c r="H71">
-        <v>0.02873339924971732</v>
+        <v>0.0002673100081216723</v>
       </c>
     </row>
     <row r="72">
@@ -2584,686 +2609,674 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33</t>
+          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.2387352576612265</v>
+        <v>-0.04505530487849334</v>
       </c>
       <c r="D72">
-        <v>0.1333510938918664</v>
+        <v>2.424578776547998e-17</v>
       </c>
       <c r="E72">
-        <v>1.984616926185875</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>-0.6758740239630275</v>
+        <v>-0.04505530487849364</v>
       </c>
       <c r="G72">
-        <v>0.3226604846209631</v>
+        <v>-0.04505530487849304</v>
       </c>
       <c r="H72">
-        <v>0.2104475666949276</v>
+        <v>3.423547523372623e-16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.3172606271151935</v>
+        <v>0.2220968099393537</v>
       </c>
       <c r="D73">
-        <v>0.06101212904046931</v>
+        <v>0.1516542974413642</v>
       </c>
       <c r="E73">
-        <v>3.809790617386358</v>
+        <v>1.014770874250031</v>
       </c>
       <c r="F73">
-        <v>0.1545644297931879</v>
+        <v>-0.9269191995103299</v>
       </c>
       <c r="G73">
-        <v>0.4632042332840733</v>
+        <v>0.9697317878376307</v>
       </c>
       <c r="H73">
-        <v>0.006594716536739297</v>
+        <v>0.37390366256308</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.08760883987147597</v>
+        <v>0.2630089255754785</v>
       </c>
       <c r="D74">
-        <v>0.09104022836392565</v>
+        <v>0.04616297975311846</v>
       </c>
       <c r="E74">
-        <v>1.089444646707662</v>
+        <v>1.222999179612075</v>
       </c>
       <c r="F74">
-        <v>-0.778929366387311</v>
+        <v>-0.1156144539277542</v>
       </c>
       <c r="G74">
-        <v>0.6998335975022618</v>
+        <v>0.5748992301249671</v>
       </c>
       <c r="H74">
-        <v>0.5006057373903589</v>
+        <v>0.0769297011433997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C75">
-        <v>-0.07387167330971892</v>
+        <v>0.08462248165427952</v>
       </c>
       <c r="D75">
-        <v>0.03505397892688213</v>
+        <v>0.2740438259384911</v>
       </c>
       <c r="E75">
-        <v>13.11927323867098</v>
+        <v>1.020572413078036</v>
       </c>
       <c r="F75">
-        <v>-0.1485584971674061</v>
+        <v>-0.9969104558998992</v>
       </c>
       <c r="G75">
-        <v>0.001653099956783454</v>
+        <v>0.9977984388293338</v>
       </c>
       <c r="H75">
-        <v>0.05449973788379206</v>
+        <v>0.8080968243698312</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.3539556655948705</v>
+        <v>-0.2449702234838083</v>
       </c>
       <c r="D76">
-        <v>0.153352193369761</v>
+        <v>0.03623945339705099</v>
       </c>
       <c r="E76">
-        <v>1.089444646707661</v>
+        <v>3.849443266311018</v>
       </c>
       <c r="F76">
-        <v>-0.8449879761530267</v>
+        <v>-0.3383631226334055</v>
       </c>
       <c r="G76">
-        <v>0.9624604963332668</v>
+        <v>-0.1467985062875813</v>
       </c>
       <c r="H76">
-        <v>0.2333998666642725</v>
+        <v>0.002660532411800886</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.1456719082070118</v>
+        <v>-0.2824279329120751</v>
       </c>
       <c r="D77">
-        <v>0.04853614386435738</v>
+        <v>0.09329700831890683</v>
       </c>
       <c r="E77">
-        <v>11.43490700438348</v>
+        <v>1.258033796698151</v>
       </c>
       <c r="F77">
-        <v>0.04035998733128583</v>
+        <v>-0.7742524075414948</v>
       </c>
       <c r="G77">
-        <v>0.2477829369465531</v>
+        <v>0.4220810245939913</v>
       </c>
       <c r="H77">
-        <v>0.01114084416727627</v>
+        <v>0.1552515953551041</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.2838262370931707</v>
+        <v>0.1232165094917483</v>
       </c>
       <c r="D78">
-        <v>0.04633757788378728</v>
+        <v>0.05190449536772592</v>
       </c>
       <c r="E78">
-        <v>2.862790339797637</v>
+        <v>1.029488213932145</v>
       </c>
       <c r="F78">
-        <v>-0.4164469333074104</v>
+        <v>-0.4563215895248783</v>
       </c>
       <c r="G78">
-        <v>-0.1393783864022285</v>
+        <v>0.6293549011801343</v>
       </c>
       <c r="H78">
-        <v>0.009283199190158827</v>
+        <v>0.2468901033889095</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.219586445408656</v>
+        <v>0.1040512199300244</v>
       </c>
       <c r="D79">
-        <v>0.02716735803546413</v>
+        <v>0.1041564533660484</v>
       </c>
       <c r="E79">
-        <v>1.020829643257693</v>
+        <v>1.086589208313628</v>
       </c>
       <c r="F79">
-        <v>-0.1053720780387249</v>
+        <v>-0.7590818742147885</v>
       </c>
       <c r="G79">
-        <v>0.5021730921276775</v>
+        <v>0.8345380748397592</v>
       </c>
       <c r="H79">
-        <v>0.07408353444503307</v>
+        <v>0.4883408666292807</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.0483234178327093</v>
+        <v>0.4173208260370228</v>
       </c>
       <c r="D80">
-        <v>0.0528983723784187</v>
+        <v>0.1126137842808003</v>
       </c>
       <c r="E80">
-        <v>3.316686890966102</v>
+        <v>1.177419358129334</v>
       </c>
       <c r="F80">
-        <v>-0.1107904019196765</v>
+        <v>-0.5118716557837509</v>
       </c>
       <c r="G80">
-        <v>0.20502191193371</v>
+        <v>0.8965103375806731</v>
       </c>
       <c r="H80">
-        <v>0.4221102347447038</v>
+        <v>0.1283223889104668</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.2762361607410582</v>
+        <v>-0.09159029492921322</v>
       </c>
       <c r="D81">
-        <v>0.03612144139622149</v>
+        <v>0.07757992905044951</v>
       </c>
       <c r="E81">
-        <v>4.032659281060646</v>
+        <v>2.34449652485546</v>
       </c>
       <c r="F81">
-        <v>0.1815963637411262</v>
+        <v>-0.3651215080836779</v>
       </c>
       <c r="G81">
-        <v>0.3658058469333125</v>
+        <v>0.1964978660308458</v>
       </c>
       <c r="H81">
-        <v>0.001374642069904381</v>
+        <v>0.3425376698432053</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.245626544102011</v>
+        <v>0.05363805362608427</v>
       </c>
       <c r="D82">
-        <v>0.09918890712985565</v>
+        <v>0.03691065558782622</v>
       </c>
       <c r="E82">
-        <v>1.745825132311438</v>
+        <v>2.555033848302786</v>
       </c>
       <c r="F82">
-        <v>-0.2368757998571139</v>
+        <v>-0.07609462129286658</v>
       </c>
       <c r="G82">
-        <v>0.6309349906142828</v>
+        <v>0.1815849264097648</v>
       </c>
       <c r="H82">
-        <v>0.1450658612506247</v>
+        <v>0.2566376959683126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.05997500097129725</v>
+        <v>0.1007842831477807</v>
       </c>
       <c r="D83">
-        <v>0.06056735587003757</v>
+        <v>0.01164736662325574</v>
       </c>
       <c r="E83">
-        <v>1.389091225757058</v>
+        <v>1.085281591838442</v>
       </c>
       <c r="F83">
-        <v>-0.3346361250424322</v>
+        <v>-0.0220217887377527</v>
       </c>
       <c r="G83">
-        <v>0.4366904555903774</v>
+        <v>0.2205941661941824</v>
       </c>
       <c r="H83">
-        <v>0.4626637649787901</v>
+        <v>0.0618164384063742</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.2820204912688303</v>
+        <v>0.1275821308580659</v>
       </c>
       <c r="D84">
-        <v>0.0848263139975482</v>
+        <v>0.03062949656809052</v>
       </c>
       <c r="E84">
-        <v>7.615002109996202</v>
+        <v>1.863581124907613</v>
       </c>
       <c r="F84">
-        <v>0.09226791850415078</v>
+        <v>-0.01319671650240164</v>
       </c>
       <c r="G84">
-        <v>0.4520075881977656</v>
+        <v>0.2634013872189991</v>
       </c>
       <c r="H84">
-        <v>0.009829301734369539</v>
+        <v>0.05929452287958908</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C85">
-        <v>-0.05765540901017266</v>
+        <v>0.1250794163032973</v>
       </c>
       <c r="D85">
-        <v>0.0136969858597234</v>
+        <v>4.274685597025615e-17</v>
       </c>
       <c r="E85">
-        <v>1.405235653456243</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>-0.1473017487341843</v>
+        <v>0.1250794163032967</v>
       </c>
       <c r="G85">
-        <v>0.03293045740086996</v>
+        <v>0.1250794163032978</v>
       </c>
       <c r="H85">
-        <v>0.0922303247243179</v>
+        <v>2.16430332339206e-16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.1461663315537759</v>
+        <v>0.2358231915482797</v>
       </c>
       <c r="D86">
-        <v>0.05696705322193706</v>
+        <v>0.03272144963807104</v>
       </c>
       <c r="E86">
-        <v>1.009011109599827</v>
+        <v>1.0509946945224</v>
       </c>
       <c r="F86">
-        <v>-0.5091011424144473</v>
+        <v>-0.1299121191721205</v>
       </c>
       <c r="G86">
-        <v>0.6941689060903706</v>
+        <v>0.5450723785610925</v>
       </c>
       <c r="H86">
-        <v>0.2332450068101272</v>
+        <v>0.07859644091196502</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorprior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.04957168826145732</v>
+        <v>-0.01521301983227362</v>
       </c>
       <c r="D87">
-        <v>0.07922841584768346</v>
+        <v>0.03691065466488819</v>
       </c>
       <c r="E87">
-        <v>1.745825132311438</v>
+        <v>2.555033848302771</v>
       </c>
       <c r="F87">
-        <v>-0.4159421893464746</v>
+        <v>-0.1441350191377723</v>
       </c>
       <c r="G87">
-        <v>0.3306434684451649</v>
+        <v>0.1142167965686276</v>
       </c>
       <c r="H87">
-        <v>0.6031034520615171</v>
+        <v>0.7122889184306987</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C88">
-        <v>-0.2775282917239709</v>
+        <v>0.0472479063451255</v>
       </c>
       <c r="D88">
-        <v>0.0366205421817633</v>
+        <v>0.04656688227768507</v>
       </c>
       <c r="E88">
-        <v>2.810902189420046</v>
+        <v>1.928105652907652</v>
       </c>
       <c r="F88">
-        <v>-0.3851633785847572</v>
+        <v>-0.15904860969467</v>
       </c>
       <c r="G88">
-        <v>-0.1624438921031845</v>
+        <v>0.2495910873732094</v>
       </c>
       <c r="H88">
-        <v>0.005541386641253338</v>
+        <v>0.4201578052714084</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.269025021399696</v>
+        <v>0.2060074486605969</v>
       </c>
       <c r="D89">
-        <v>0.03252474039490601</v>
+        <v>0.02362072415267258</v>
       </c>
       <c r="E89">
-        <v>7.326546723624664</v>
+        <v>1.085281591838441</v>
       </c>
       <c r="F89">
-        <v>0.1969842877550007</v>
+        <v>-0.04073199753076066</v>
       </c>
       <c r="G89">
-        <v>0.3381762209773947</v>
+        <v>0.4290657114136929</v>
       </c>
       <c r="H89">
-        <v>4.82149222512909e-05</v>
+        <v>0.06057322086604799</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C90">
-        <v>-0.1157518278424628</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D90">
-        <v>0.03006805802181409</v>
-      </c>
-      <c r="E90">
-        <v>9.67291674159358</v>
-      </c>
-      <c r="F90">
-        <v>-0.1815423531889186</v>
-      </c>
-      <c r="G90">
-        <v>-0.04892973052706973</v>
-      </c>
-      <c r="H90">
-        <v>0.003324108311380264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.3027838912907984</v>
+        <v>-0.1973417340286827</v>
       </c>
       <c r="D91">
-        <v>0.01966596873713376</v>
+        <v>0.06421287808811421</v>
       </c>
       <c r="E91">
-        <v>2.094763495973016</v>
+        <v>2.000340170911225</v>
       </c>
       <c r="F91">
-        <v>0.2274798967930413</v>
+        <v>-0.4431997814040895</v>
       </c>
       <c r="G91">
-        <v>0.3744880291827201</v>
+        <v>0.07612806314566893</v>
       </c>
       <c r="H91">
-        <v>0.003223588416211534</v>
+        <v>0.08947292251498414</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorwell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.2496267871004409</v>
+        <v>0.0963680368655291</v>
       </c>
       <c r="D92">
-        <v>0.0605673558700368</v>
+        <v>0.03691065659494833</v>
       </c>
       <c r="E92">
-        <v>1.389091225757059</v>
+        <v>2.555033848302768</v>
       </c>
       <c r="F92">
-        <v>-0.1518878059775209</v>
+        <v>-0.03325130204436483</v>
       </c>
       <c r="G92">
-        <v>0.5804239265719493</v>
+        <v>0.2227992233758658</v>
       </c>
       <c r="H92">
-        <v>0.09395444208523832</v>
+        <v>0.09337648191897786</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C93">
-        <v>-0.6079163906557398</v>
+        <v>0.2560999853891113</v>
       </c>
       <c r="D93">
-        <v>0.01891774007639166</v>
+        <v>0.06867172966944736</v>
       </c>
       <c r="E93">
-        <v>1.424299257265951</v>
+        <v>2.066644159369846</v>
       </c>
       <c r="F93">
-        <v>-0.6795633290087576</v>
+        <v>-0.02458992373371434</v>
       </c>
       <c r="G93">
-        <v>-0.5247824194762084</v>
+        <v>0.4993615164742793</v>
       </c>
       <c r="H93">
-        <v>0.004206728378137976</v>
+        <v>0.05921945821668672</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.1747213391972904</v>
+        <v>-0.2417029814644035</v>
       </c>
       <c r="D94">
-        <v>0.1392769006221135</v>
+        <v>0.1332163750031072</v>
       </c>
       <c r="E94">
-        <v>4.941631635608992</v>
+        <v>1.970581013679773</v>
       </c>
       <c r="F94">
-        <v>-0.4898256437458487</v>
+        <v>-0.6794246389062955</v>
       </c>
       <c r="G94">
-        <v>0.180757608168949</v>
+        <v>0.3228994087974902</v>
       </c>
       <c r="H94">
-        <v>0.261421146577105</v>
+        <v>0.2072691796255714</v>
       </c>
     </row>
     <row r="95">
@@ -3274,26 +3287,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAmotivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.04549903436700507</v>
+        <v>0.3213719196346431</v>
       </c>
       <c r="D95">
-        <v>0.03972958215474733</v>
+        <v>0.06094484276064233</v>
       </c>
       <c r="E95">
-        <v>1.054138153614816</v>
+        <v>3.8542111611241</v>
       </c>
       <c r="F95">
-        <v>-0.3816204775447232</v>
+        <v>0.160024563093714</v>
       </c>
       <c r="G95">
-        <v>0.4566068511159873</v>
+        <v>0.4659938555568114</v>
       </c>
       <c r="H95">
-        <v>0.4490688277096945</v>
+        <v>0.006059837894196121</v>
       </c>
     </row>
     <row r="96">
@@ -3304,26 +3317,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.573364284239391</v>
+        <v>-0.03340310341938222</v>
       </c>
       <c r="D96">
-        <v>0.3831289604138127</v>
+        <v>0.04294409603845879</v>
       </c>
       <c r="E96">
-        <v>1.009656756802169</v>
+        <v>1.090932430483824</v>
       </c>
       <c r="F96">
-        <v>-0.9994584045679105</v>
+        <v>-0.4482457444071439</v>
       </c>
       <c r="G96">
-        <v>0.9999601672941307</v>
+        <v>0.3932778081058561</v>
       </c>
       <c r="H96">
-        <v>0.3362283235100698</v>
+        <v>0.5700392815892614</v>
       </c>
     </row>
     <row r="97">
@@ -3334,26 +3347,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorautonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C97">
-        <v>0.2241763998687348</v>
+        <v>-0.06175923803191247</v>
       </c>
       <c r="D97">
-        <v>0.02729412714781666</v>
+        <v>0.1229279058924556</v>
       </c>
       <c r="E97">
-        <v>2.912563134495581</v>
+        <v>1.964510896074006</v>
       </c>
       <c r="F97">
-        <v>0.1387914759260118</v>
+        <v>-0.5370615072626658</v>
       </c>
       <c r="G97">
-        <v>0.3062529601629457</v>
+        <v>0.4433083811723406</v>
       </c>
       <c r="H97">
-        <v>0.004012495137280634</v>
+        <v>0.6656573411477351</v>
       </c>
     </row>
     <row r="98">
@@ -3364,26 +3377,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C98">
-        <v>0.02554141823474158</v>
+        <v>-0.07738527380719269</v>
       </c>
       <c r="D98">
-        <v>0.05379057324073486</v>
+        <v>0.03964637548618329</v>
       </c>
       <c r="E98">
-        <v>2.178875481649345</v>
+        <v>10.66546815742045</v>
       </c>
       <c r="F98">
-        <v>-0.1864026912636029</v>
+        <v>-0.1636515883506016</v>
       </c>
       <c r="G98">
-        <v>0.2352139825881823</v>
+        <v>0.01005553887188045</v>
       </c>
       <c r="H98">
-        <v>0.6782208099889575</v>
+        <v>0.07718269807419943</v>
       </c>
     </row>
     <row r="99">
@@ -3394,26 +3407,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C99">
-        <v>-0.2170710946397655</v>
+        <v>0.4006116265790235</v>
       </c>
       <c r="D99">
-        <v>0.03692847825688542</v>
+        <v>0.2075078492842662</v>
       </c>
       <c r="E99">
-        <v>1.046562565741055</v>
+        <v>1.090932430483821</v>
       </c>
       <c r="F99">
-        <v>-0.5670968603983155</v>
+        <v>-0.9408764568202093</v>
       </c>
       <c r="G99">
-        <v>0.1993661761732629</v>
+        <v>0.9889042259076309</v>
       </c>
       <c r="H99">
-        <v>0.09802357756143674</v>
+        <v>0.2729161170901843</v>
       </c>
     </row>
     <row r="100">
@@ -3424,26 +3437,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorcontrolled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.143848608582848</v>
+        <v>-0.1060694315205901</v>
       </c>
       <c r="D100">
-        <v>0.03660896117348412</v>
+        <v>0.1193316229429795</v>
       </c>
       <c r="E100">
-        <v>3.074500534654408</v>
+        <v>1.204699340987006</v>
       </c>
       <c r="F100">
-        <v>-0.2540882640885485</v>
+        <v>-0.8113742036674919</v>
       </c>
       <c r="G100">
-        <v>-0.02991926205228272</v>
+        <v>0.7249964412433864</v>
       </c>
       <c r="H100">
-        <v>0.0275428901961127</v>
+        <v>0.5148101723800613</v>
       </c>
     </row>
     <row r="101">
@@ -3454,26 +3467,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.05693453605158456</v>
+        <v>0.1760576973856074</v>
       </c>
       <c r="D101">
-        <v>0.05163283265875571</v>
+        <v>0.04547501223236929</v>
       </c>
       <c r="E101">
-        <v>1.009829217054164</v>
+        <v>10.30793937031219</v>
       </c>
       <c r="F101">
-        <v>-0.5256836448776656</v>
+        <v>0.07684371574069833</v>
       </c>
       <c r="G101">
-        <v>0.6031947606478354</v>
+        <v>0.2718192585810713</v>
       </c>
       <c r="H101">
-        <v>0.4671951575923559</v>
+        <v>0.002740136792440075</v>
       </c>
     </row>
     <row r="102">
@@ -3484,26 +3497,26 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factoremotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.03422979338766721</v>
+        <v>-0.3602634902429828</v>
       </c>
       <c r="D102">
-        <v>0.01695987657721115</v>
+        <v>0.07703608794289488</v>
       </c>
       <c r="E102">
-        <v>1.072820920110757</v>
+        <v>1.338306467362715</v>
       </c>
       <c r="F102">
-        <v>-0.2146761381824847</v>
+        <v>-0.7295890632255496</v>
       </c>
       <c r="G102">
-        <v>0.1484762179277813</v>
+        <v>0.1717515084094258</v>
       </c>
       <c r="H102">
-        <v>0.2793294403462695</v>
+        <v>0.08185890178075055</v>
       </c>
     </row>
     <row r="103">
@@ -3514,26 +3527,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.1098406162118828</v>
+        <v>-0.2259421422486989</v>
       </c>
       <c r="D103">
-        <v>0.05984638214643444</v>
+        <v>0.03348163116095076</v>
       </c>
       <c r="E103">
-        <v>1.505385136290033</v>
+        <v>1.998308825214977</v>
       </c>
       <c r="F103">
-        <v>-0.4370372445360417</v>
+        <v>-0.3575604073962408</v>
       </c>
       <c r="G103">
-        <v>0.2430297163624587</v>
+        <v>-0.08552299218825624</v>
       </c>
       <c r="H103">
-        <v>0.2463545053734879</v>
+        <v>0.02060185897608172</v>
       </c>
     </row>
     <row r="104">
@@ -3544,26 +3557,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorentity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.4265432913440393</v>
+        <v>0.2142006704233923</v>
       </c>
       <c r="D104">
-        <v>0.1072126178549532</v>
+        <v>0.03860909152812594</v>
       </c>
       <c r="E104">
-        <v>1.026356990101047</v>
+        <v>1.027122131319363</v>
       </c>
       <c r="F104">
-        <v>-0.6786738071858951</v>
+        <v>-0.2387306076213113</v>
       </c>
       <c r="G104">
-        <v>0.9399917366456125</v>
+        <v>0.5905872463085541</v>
       </c>
       <c r="H104">
-        <v>0.1422179266789466</v>
+        <v>0.1072068575291516</v>
       </c>
     </row>
     <row r="105">
@@ -3574,26 +3587,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C105">
-        <v>-0.1934329404853723</v>
+        <v>0.04458768284975944</v>
       </c>
       <c r="D105">
-        <v>0.04086868505160017</v>
+        <v>0.04899761433053499</v>
       </c>
       <c r="E105">
-        <v>3.958698691057807</v>
+        <v>3.341019627025006</v>
       </c>
       <c r="F105">
-        <v>-0.3002907831978572</v>
+        <v>-0.1023270420237218</v>
       </c>
       <c r="G105">
-        <v>-0.08177998814305308</v>
+        <v>0.189598807230017</v>
       </c>
       <c r="H105">
-        <v>0.008916725405729662</v>
+        <v>0.4233568013625271</v>
       </c>
     </row>
     <row r="106">
@@ -3604,26 +3617,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorexternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C106">
-        <v>-0.1329948183901772</v>
+        <v>0.295970891734748</v>
       </c>
       <c r="D106">
-        <v>0.1082270414431392</v>
+        <v>0.1060894798360717</v>
       </c>
       <c r="E106">
-        <v>1.221596182205328</v>
+        <v>1.00493698219265</v>
       </c>
       <c r="F106">
-        <v>-0.7776544970156907</v>
+        <v>-0.7728424469932186</v>
       </c>
       <c r="G106">
-        <v>0.6479946574382427</v>
+        <v>0.9271283800307757</v>
       </c>
       <c r="H106">
-        <v>0.4032166785734281</v>
+        <v>0.2120520827944498</v>
       </c>
     </row>
     <row r="107">
@@ -3634,26 +3647,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.2157100219747173</v>
+        <v>0.2548829591788749</v>
       </c>
       <c r="D107">
-        <v>0.1058532574014014</v>
+        <v>0.009984882064592561</v>
       </c>
       <c r="E107">
-        <v>1.082973325820977</v>
+        <v>2.024387204069632</v>
       </c>
       <c r="F107">
-        <v>-0.7188102212764147</v>
+        <v>0.2147625048914606</v>
       </c>
       <c r="G107">
-        <v>0.8725064368798907</v>
+        <v>0.2941446415649888</v>
       </c>
       <c r="H107">
-        <v>0.2711788440369076</v>
+        <v>0.001374283259507484</v>
       </c>
     </row>
     <row r="108">
@@ -3664,26 +3677,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.2334353605135842</v>
+        <v>0.3075030701740047</v>
       </c>
       <c r="D108">
-        <v>0.01314346371374893</v>
+        <v>0.1811555417380631</v>
       </c>
       <c r="E108">
-        <v>1.013328955345737</v>
+        <v>1.005743850732209</v>
       </c>
       <c r="F108">
-        <v>0.07577332830251764</v>
+        <v>-0.9605660437812931</v>
       </c>
       <c r="G108">
-        <v>0.3797099192383883</v>
+        <v>0.988779151417429</v>
       </c>
       <c r="H108">
-        <v>0.03390548976472171</v>
+        <v>0.3287751145957176</v>
       </c>
     </row>
     <row r="109">
@@ -3694,26 +3707,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorHarmonious passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C109">
-        <v>-0.106662769577286</v>
+        <v>0.05455250101526051</v>
       </c>
       <c r="D109">
-        <v>0.03274626631900655</v>
+        <v>0.05249419809621167</v>
       </c>
       <c r="E109">
-        <v>1.500834094909921</v>
+        <v>1.435944648589399</v>
       </c>
       <c r="F109">
-        <v>-0.2949141248783239</v>
+        <v>-0.2745147435136239</v>
       </c>
       <c r="G109">
-        <v>0.08955931608001509</v>
+        <v>0.3721818959770434</v>
       </c>
       <c r="H109">
-        <v>0.1187567066938496</v>
+        <v>0.4418813313738347</v>
       </c>
     </row>
     <row r="110">
@@ -3724,26 +3737,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C110">
-        <v>-0.0318616866048531</v>
+        <v>0.283478992722852</v>
       </c>
       <c r="D110">
-        <v>0.03274626622865572</v>
+        <v>0.09027028655165646</v>
       </c>
       <c r="E110">
-        <v>1.500834094909923</v>
+        <v>6.674141188667189</v>
       </c>
       <c r="F110">
-        <v>-0.2248347099144725</v>
+        <v>0.07572949486287277</v>
       </c>
       <c r="G110">
-        <v>0.163516320413345</v>
+        <v>0.4676414108270757</v>
       </c>
       <c r="H110">
-        <v>0.4608081719077856</v>
+        <v>0.0154604881857176</v>
       </c>
     </row>
     <row r="111">
@@ -3754,26 +3767,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.09607255769266287</v>
+        <v>-0.05484696338090734</v>
       </c>
       <c r="D111">
-        <v>0.05342153155550942</v>
+        <v>0.01465530479439242</v>
       </c>
       <c r="E111">
-        <v>1.771761475350543</v>
+        <v>1.478920640451951</v>
       </c>
       <c r="F111">
-        <v>-0.3426276893935189</v>
+        <v>-0.1438550944868532</v>
       </c>
       <c r="G111">
-        <v>0.162863797092972</v>
+        <v>0.03504145497890528</v>
       </c>
       <c r="H111">
-        <v>0.2289470441038015</v>
+        <v>0.1004399415335035</v>
       </c>
     </row>
     <row r="112">
@@ -3784,26 +3797,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.3542683938922949</v>
+        <v>0.1501940457341633</v>
       </c>
       <c r="D112">
-        <v>0.02249680411726453</v>
+        <v>0.0440761486757006</v>
       </c>
       <c r="E112">
-        <v>1.067922088874126</v>
+        <v>1.011858337801991</v>
       </c>
       <c r="F112">
-        <v>0.1234129567624198</v>
+        <v>-0.3743112165497881</v>
       </c>
       <c r="G112">
-        <v>0.5487475154463645</v>
+        <v>0.6018898594062355</v>
       </c>
       <c r="H112">
-        <v>0.03240037313733163</v>
+        <v>0.1780918685217679</v>
       </c>
     </row>
     <row r="113">
@@ -3814,26 +3827,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C113">
-        <v>-0.2786027036937547</v>
+        <v>0.02603635003140912</v>
       </c>
       <c r="D113">
-        <v>0.01120849145182959</v>
+        <v>0.1165052045281339</v>
       </c>
       <c r="E113">
-        <v>1.775640624407232</v>
+        <v>1.005743850732208</v>
       </c>
       <c r="F113">
-        <v>-0.3281287775975262</v>
+        <v>-0.8925784031251128</v>
       </c>
       <c r="G113">
-        <v>-0.2275491877072635</v>
+        <v>0.9026882328129895</v>
       </c>
       <c r="H113">
-        <v>0.002759216793284088</v>
+        <v>0.8598378065477044</v>
       </c>
     </row>
     <row r="114">
@@ -3844,26 +3857,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C114">
-        <v>0.2096401775152771</v>
+        <v>-0.1980296145418824</v>
       </c>
       <c r="D114">
-        <v>0.02809356837052066</v>
+        <v>0.04274713957997631</v>
       </c>
       <c r="E114">
-        <v>1.035612598088959</v>
+        <v>2.083992895730588</v>
       </c>
       <c r="F114">
-        <v>-0.1159042986132197</v>
+        <v>-0.3606933702762423</v>
       </c>
       <c r="G114">
-        <v>0.4945135757080175</v>
+        <v>-0.02367465147088505</v>
       </c>
       <c r="H114">
-        <v>0.07828532450444291</v>
+        <v>0.0392398136617623</v>
       </c>
     </row>
     <row r="115">
@@ -3874,26 +3887,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorneed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C115">
-        <v>-0.2328687736102508</v>
+        <v>0.157367074954803</v>
       </c>
       <c r="D115">
-        <v>0.03088701498850741</v>
+        <v>0.1193316229429795</v>
       </c>
       <c r="E115">
-        <v>1.648223250644323</v>
+        <v>1.204699340987005</v>
       </c>
       <c r="F115">
-        <v>-0.3811173440872608</v>
+        <v>-0.6992759753417156</v>
       </c>
       <c r="G115">
-        <v>-0.0729451787739531</v>
+        <v>0.8284748521832731</v>
       </c>
       <c r="H115">
-        <v>0.02773243760987679</v>
+        <v>0.3813415483311225</v>
       </c>
     </row>
     <row r="116">
@@ -3904,26 +3917,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.264234630916159</v>
+        <v>0.2855122348043044</v>
       </c>
       <c r="D116">
-        <v>0.04039118687429286</v>
+        <v>0.03841562437078968</v>
       </c>
       <c r="E116">
-        <v>1.004937830971794</v>
+        <v>6.750856315895454</v>
       </c>
       <c r="F116">
-        <v>-0.2323217631126586</v>
+        <v>0.199441431437802</v>
       </c>
       <c r="G116">
-        <v>0.6515303298541281</v>
+        <v>0.367211276029478</v>
       </c>
       <c r="H116">
-        <v>0.09351063005038919</v>
+        <v>0.0001462703996877446</v>
       </c>
     </row>
     <row r="117">
@@ -3934,26 +3947,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorneed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C117">
-        <v>0.2506813921716046</v>
+        <v>-0.07803567485937406</v>
       </c>
       <c r="D117">
-        <v>0.02095671825496878</v>
+        <v>0.1193316229429797</v>
       </c>
       <c r="E117">
-        <v>1.082973325820975</v>
+        <v>1.204699340987005</v>
       </c>
       <c r="F117">
-        <v>0.03353324540274589</v>
+        <v>-0.8014891933865657</v>
       </c>
       <c r="G117">
-        <v>0.4452289014226871</v>
+        <v>0.7381367950878366</v>
       </c>
       <c r="H117">
-        <v>0.04298516467169752</v>
+        <v>0.6149337212509436</v>
       </c>
     </row>
     <row r="118">
@@ -3964,26 +3977,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.0396368096060862</v>
+        <v>-0.1402920360650491</v>
       </c>
       <c r="D118">
-        <v>0.0008127947123064795</v>
+        <v>0.02791553584651675</v>
       </c>
       <c r="E118">
-        <v>1.07172021136469</v>
+        <v>9.064446777668552</v>
       </c>
       <c r="F118">
-        <v>-0.04844895254801799</v>
+        <v>-0.2015085136572584</v>
       </c>
       <c r="G118">
-        <v>-0.03081849675786028</v>
+        <v>-0.07798384299805215</v>
       </c>
       <c r="H118">
-        <v>0.01002606318089393</v>
+        <v>0.0006671923101311314</v>
       </c>
     </row>
     <row r="119">
@@ -3994,26 +4007,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factornegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C119">
-        <v>-0.1284907335596616</v>
+        <v>0.3798707776864193</v>
       </c>
       <c r="D119">
-        <v>0.02086774549483947</v>
+        <v>0.04274713957997695</v>
       </c>
       <c r="E119">
-        <v>1.044059964435699</v>
+        <v>2.083992895730574</v>
       </c>
       <c r="F119">
-        <v>-0.3533976983270465</v>
+        <v>0.2192868354134733</v>
       </c>
       <c r="G119">
-        <v>0.1104586051966604</v>
+        <v>0.5204162627609896</v>
       </c>
       <c r="H119">
-        <v>0.09485694856454747</v>
+        <v>0.009831134204390489</v>
       </c>
     </row>
     <row r="120">
@@ -4024,26 +4037,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.1597258406459769</v>
+        <v>0.2818926567652212</v>
       </c>
       <c r="D120">
-        <v>0.04869688027532313</v>
+        <v>0.009744792403340906</v>
       </c>
       <c r="E120">
-        <v>1.900370530810959</v>
+        <v>1.014630826456701</v>
       </c>
       <c r="F120">
-        <v>-0.05923767597880293</v>
+        <v>0.1684375311443696</v>
       </c>
       <c r="G120">
-        <v>0.3640248695028739</v>
+        <v>0.387976451624976</v>
       </c>
       <c r="H120">
-        <v>0.08620176703823051</v>
+        <v>0.02042603091721781</v>
       </c>
     </row>
     <row r="121">
@@ -4054,26 +4067,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorObsessive passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C121">
-        <v>-0.07186429558905938</v>
+        <v>0.2445185547190532</v>
       </c>
       <c r="D121">
-        <v>0.03274626616730174</v>
+        <v>0.05249419809621163</v>
       </c>
       <c r="E121">
-        <v>1.500834094909923</v>
+        <v>1.4359446485894</v>
       </c>
       <c r="F121">
-        <v>-0.2625622258210321</v>
+        <v>-0.08655520132655609</v>
       </c>
       <c r="G121">
-        <v>0.1242364114025095</v>
+        <v>0.5269557092706855</v>
       </c>
       <c r="H121">
-        <v>0.1996907163815828</v>
+        <v>0.07568393445371861</v>
       </c>
     </row>
     <row r="122">
@@ -4084,26 +4097,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers positive behaviour:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C122">
-        <v>-0.2530549338392911</v>
+        <v>0.01443583832957228</v>
       </c>
       <c r="D122">
-        <v>0.1237078974566336</v>
+        <v>0.07703608794289463</v>
       </c>
       <c r="E122">
-        <v>1.007915124316856</v>
+        <v>1.338306467362716</v>
       </c>
       <c r="F122">
-        <v>-0.9469776855038179</v>
+        <v>-0.4901233459571604</v>
       </c>
       <c r="G122">
-        <v>0.8576295937515851</v>
+        <v>0.5117489193742093</v>
       </c>
       <c r="H122">
-        <v>0.282448282061764</v>
+        <v>0.8757236103985436</v>
       </c>
     </row>
     <row r="123">
@@ -4114,26 +4127,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.04190654152422962</v>
+        <v>-0.5961049141530792</v>
       </c>
       <c r="D123">
-        <v>0.03274626683644492</v>
+        <v>0.03292601817571755</v>
       </c>
       <c r="E123">
-        <v>1.500834094909923</v>
+        <v>1.232186850675753</v>
       </c>
       <c r="F123">
-        <v>-0.2343629976815255</v>
+        <v>-0.7435199534637842</v>
       </c>
       <c r="G123">
-        <v>0.15371084636771</v>
+        <v>-0.3934379436905509</v>
       </c>
       <c r="H123">
-        <v>0.3631870854666192</v>
+        <v>0.01600892908001852</v>
       </c>
     </row>
     <row r="124">
@@ -4144,26 +4157,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorothers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.08935404242891014</v>
+        <v>-0.3649085739347308</v>
       </c>
       <c r="D124">
-        <v>0.02509718074621781</v>
+        <v>0.1417284843175452</v>
       </c>
       <c r="E124">
-        <v>1.692524186337979</v>
+        <v>1.687534642241828</v>
       </c>
       <c r="F124">
-        <v>-0.2153144334692036</v>
+        <v>-0.8056198103483606</v>
       </c>
       <c r="G124">
-        <v>0.03953091731162341</v>
+        <v>0.3357970552444951</v>
       </c>
       <c r="H124">
-        <v>0.08928574979610501</v>
+        <v>0.1363657591507716</v>
       </c>
     </row>
     <row r="125">
@@ -4174,26 +4187,1064 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>0.05100072055630873</v>
+      </c>
+      <c r="D125">
+        <v>0.07888701517816343</v>
+      </c>
+      <c r="E125">
+        <v>2.774841953177984</v>
+      </c>
+      <c r="F125">
+        <v>-0.2088187685318996</v>
+      </c>
+      <c r="G125">
+        <v>0.3040952166456753</v>
+      </c>
+      <c r="H125">
+        <v>0.5671028970131005</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>0.08013047117635473</v>
+      </c>
+      <c r="D126">
+        <v>0.03696850037297283</v>
+      </c>
+      <c r="E126">
+        <v>1.074908632104411</v>
+      </c>
+      <c r="F126">
+        <v>-0.3083433162957288</v>
+      </c>
+      <c r="G126">
+        <v>0.4456979794617079</v>
+      </c>
+      <c r="H126">
+        <v>0.2606666106939832</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>0.2595032879889551</v>
+      </c>
+      <c r="D127">
+        <v>0.0123649337142768</v>
+      </c>
+      <c r="E127">
+        <v>1.319375444005988</v>
+      </c>
+      <c r="F127">
+        <v>0.1733313285876681</v>
+      </c>
+      <c r="G127">
+        <v>0.3417321225805847</v>
+      </c>
+      <c r="H127">
+        <v>0.0121974611876845</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>0.7760658450104249</v>
+      </c>
+      <c r="D128">
+        <v>0.03292601817571737</v>
+      </c>
+      <c r="E128">
+        <v>1.232186850675752</v>
+      </c>
+      <c r="F128">
+        <v>0.6435324295318814</v>
+      </c>
+      <c r="G128">
+        <v>0.8634186969238909</v>
+      </c>
+      <c r="H128">
+        <v>0.009665010068220537</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>0.2239776716704024</v>
+      </c>
+      <c r="D129">
+        <v>0.06809446603533303</v>
+      </c>
+      <c r="E129">
+        <v>1.120011353117371</v>
+      </c>
+      <c r="F129">
+        <v>-0.4188623240180187</v>
+      </c>
+      <c r="G129">
+        <v>0.7172661377615626</v>
+      </c>
+      <c r="H129">
+        <v>0.1631797434180799</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>0.211363116601832</v>
+      </c>
+      <c r="D130">
+        <v>0.04420915436536153</v>
+      </c>
+      <c r="E130">
+        <v>1.085534939844969</v>
+      </c>
+      <c r="F130">
+        <v>-0.2473738705268178</v>
+      </c>
+      <c r="G130">
+        <v>0.5926942520366713</v>
+      </c>
+      <c r="H130">
+        <v>0.1148430684633467</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>-0.210784986206223</v>
+      </c>
+      <c r="D131">
+        <v>0.01259396443289534</v>
+      </c>
+      <c r="E131">
+        <v>1.045769664404306</v>
+      </c>
+      <c r="F131">
+        <v>-0.3437835068031205</v>
+      </c>
+      <c r="G131">
+        <v>-0.06949633458816036</v>
+      </c>
+      <c r="H131">
+        <v>0.03318388936110845</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>-0.1448197137531432</v>
+      </c>
+      <c r="D132">
+        <v>0.03945218530862582</v>
+      </c>
+      <c r="E132">
+        <v>3.521549987744981</v>
+      </c>
+      <c r="F132">
+        <v>-0.2557057282753378</v>
+      </c>
+      <c r="G132">
+        <v>-0.03017270737038959</v>
+      </c>
+      <c r="H132">
+        <v>0.02611074839940915</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>0.05127950153103295</v>
+      </c>
+      <c r="D133">
+        <v>0.04929634031934584</v>
+      </c>
+      <c r="E133">
+        <v>1.012823112778984</v>
+      </c>
+      <c r="F133">
+        <v>-0.5054593693104311</v>
+      </c>
+      <c r="G133">
+        <v>0.5778714443456037</v>
+      </c>
+      <c r="H133">
+        <v>0.4854304869138736</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>-0.03587440886873657</v>
+      </c>
+      <c r="D134">
+        <v>0.02288420264693483</v>
+      </c>
+      <c r="E134">
+        <v>1.087395605084356</v>
+      </c>
+      <c r="F134">
+        <v>-0.2699918474682204</v>
+      </c>
+      <c r="G134">
+        <v>0.2022480822536222</v>
+      </c>
+      <c r="H134">
+        <v>0.3467274625222649</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>-0.119307972373794</v>
+      </c>
+      <c r="D135">
+        <v>0.05189029856274648</v>
+      </c>
+      <c r="E135">
+        <v>1.534387685849956</v>
+      </c>
+      <c r="F135">
+        <v>-0.3990109462344878</v>
+      </c>
+      <c r="G135">
+        <v>0.1807076599702701</v>
+      </c>
+      <c r="H135">
+        <v>0.1842422876682459</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>specific_factorstyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>0.3034706742844113</v>
+      </c>
+      <c r="D136">
+        <v>0.007195181324734405</v>
+      </c>
+      <c r="E136">
+        <v>1.005258472920839</v>
+      </c>
+      <c r="F136">
+        <v>0.219410660712778</v>
+      </c>
+      <c r="G136">
+        <v>0.3830582844041296</v>
+      </c>
+      <c r="H136">
+        <v>0.01434360747663551</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0.4913306803840953</v>
+      </c>
+      <c r="D137">
+        <v>1.023293219349866e-16</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0.4913306803840943</v>
+      </c>
+      <c r="G137">
+        <v>0.4913306803840963</v>
+      </c>
+      <c r="H137">
+        <v>1.211292280484331e-16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>-0.1934246534763584</v>
+      </c>
+      <c r="D138">
+        <v>0.04079639094192073</v>
+      </c>
+      <c r="E138">
+        <v>3.936970680314667</v>
+      </c>
+      <c r="F138">
+        <v>-0.3003281063707153</v>
+      </c>
+      <c r="G138">
+        <v>-0.08172213629907366</v>
+      </c>
+      <c r="H138">
+        <v>0.008985446472124885</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>-0.1040364917583672</v>
+      </c>
+      <c r="D139">
+        <v>0.1068968061571631</v>
+      </c>
+      <c r="E139">
+        <v>1.254014804007071</v>
+      </c>
+      <c r="F139">
+        <v>-0.7432538045540809</v>
+      </c>
+      <c r="G139">
+        <v>0.6344813244918071</v>
+      </c>
+      <c r="H139">
+        <v>0.4795394306762423</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>0.2175107377207781</v>
+      </c>
+      <c r="D140">
+        <v>0.07541205315817172</v>
+      </c>
+      <c r="E140">
+        <v>1.084848814912266</v>
+      </c>
+      <c r="F140">
+        <v>-0.5204835142493547</v>
+      </c>
+      <c r="G140">
+        <v>0.7694940657026478</v>
+      </c>
+      <c r="H140">
+        <v>0.1933264851371347</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>0.2342428787361495</v>
+      </c>
+      <c r="D141">
+        <v>0.01418108679360323</v>
+      </c>
+      <c r="E141">
+        <v>1.016775051902065</v>
+      </c>
+      <c r="F141">
+        <v>0.06526867682738074</v>
+      </c>
+      <c r="G141">
+        <v>0.3901579790568409</v>
+      </c>
+      <c r="H141">
+        <v>0.03615230990705579</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>specific_factorInvitation from others to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>-0.09677750390295391</v>
+      </c>
+      <c r="D142">
+        <v>0.03055554696732135</v>
+      </c>
+      <c r="E142">
+        <v>1.175118694389254</v>
+      </c>
+      <c r="F142">
+        <v>-0.3558073538416979</v>
+      </c>
+      <c r="G142">
+        <v>0.1760608412271555</v>
+      </c>
+      <c r="H142">
+        <v>0.1634893076748632</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>specific_factorlow personal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>-0.02188027869475525</v>
+      </c>
+      <c r="D143">
+        <v>0.03055554684363589</v>
+      </c>
+      <c r="E143">
+        <v>1.175118694389253</v>
+      </c>
+      <c r="F143">
+        <v>-0.2884545266931546</v>
+      </c>
+      <c r="G143">
+        <v>0.2478419036753476</v>
+      </c>
+      <c r="H143">
+        <v>0.5892526488658074</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>-0.08768242628359872</v>
+      </c>
+      <c r="D144">
+        <v>0.05150641549964236</v>
+      </c>
+      <c r="E144">
+        <v>1.77001265983903</v>
+      </c>
+      <c r="F144">
+        <v>-0.3270655626688747</v>
+      </c>
+      <c r="G144">
+        <v>0.1622750708455588</v>
+      </c>
+      <c r="H144">
+        <v>0.2458538589060363</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>0.3532481723625289</v>
+      </c>
+      <c r="D145">
+        <v>0.02422541643669716</v>
+      </c>
+      <c r="E145">
+        <v>1.087126929254642</v>
+      </c>
+      <c r="F145">
+        <v>0.1134379050464881</v>
+      </c>
+      <c r="G145">
+        <v>0.5541648095998215</v>
+      </c>
+      <c r="H145">
+        <v>0.03353749273217324</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>-0.2801435206506562</v>
+      </c>
+      <c r="D146">
+        <v>0.01608159631450041</v>
+      </c>
+      <c r="E146">
+        <v>1.985804004089832</v>
+      </c>
+      <c r="F146">
+        <v>-0.3430167011839168</v>
+      </c>
+      <c r="G146">
+        <v>-0.2147713512270753</v>
+      </c>
+      <c r="H146">
+        <v>0.003207277905654994</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>0.2101084581434213</v>
+      </c>
+      <c r="D147">
+        <v>0.02864081153903351</v>
+      </c>
+      <c r="E147">
+        <v>1.042169307394621</v>
+      </c>
+      <c r="F147">
+        <v>-0.1170743714792675</v>
+      </c>
+      <c r="G147">
+        <v>0.4961480533340691</v>
+      </c>
+      <c r="H147">
+        <v>0.07872239697944119</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>-0.2061528180638275</v>
+      </c>
+      <c r="D148">
+        <v>0.05123119388501312</v>
+      </c>
+      <c r="E148">
+        <v>1.021829588970658</v>
+      </c>
+      <c r="F148">
+        <v>-0.6794781354722135</v>
+      </c>
+      <c r="G148">
+        <v>0.3883400790988871</v>
+      </c>
+      <c r="H148">
+        <v>0.1488170177043074</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>0.3000000000000002</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>0.2428477793505905</v>
+      </c>
+      <c r="D150">
+        <v>0.02909449773729919</v>
+      </c>
+      <c r="E150">
+        <v>1.232186847359518</v>
+      </c>
+      <c r="F150">
+        <v>0.00813737681848577</v>
+      </c>
+      <c r="G150">
+        <v>0.4521971464064615</v>
+      </c>
+      <c r="H150">
+        <v>0.04800815353971549</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>0.2524511878238657</v>
+      </c>
+      <c r="D151">
+        <v>0.02605864902203748</v>
+      </c>
+      <c r="E151">
+        <v>1.084848814912273</v>
+      </c>
+      <c r="F151">
+        <v>-0.01773341464462271</v>
+      </c>
+      <c r="G151">
+        <v>0.4882755416455459</v>
+      </c>
+      <c r="H151">
+        <v>0.05371204417918055</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>-0.1230682349681277</v>
+      </c>
+      <c r="D152">
+        <v>0.02064506695383364</v>
+      </c>
+      <c r="E152">
+        <v>1.044630341257237</v>
+      </c>
+      <c r="F152">
+        <v>-0.3460584790755485</v>
+      </c>
+      <c r="G152">
+        <v>0.1130827278119948</v>
+      </c>
+      <c r="H152">
+        <v>0.09801582989785751</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>0.1683736367459907</v>
+      </c>
+      <c r="D153">
+        <v>0.0485883248091977</v>
+      </c>
+      <c r="E153">
+        <v>1.90081289441801</v>
+      </c>
+      <c r="F153">
+        <v>-0.04983496603712102</v>
+      </c>
+      <c r="G153">
+        <v>0.3712404189350088</v>
+      </c>
+      <c r="H153">
+        <v>0.07836490490187727</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>-0.06192037123353904</v>
+      </c>
+      <c r="D154">
+        <v>0.03055554675964536</v>
+      </c>
+      <c r="E154">
+        <v>1.175118694389253</v>
+      </c>
+      <c r="F154">
+        <v>-0.324792578843523</v>
+      </c>
+      <c r="G154">
+        <v>0.209832611686165</v>
+      </c>
+      <c r="H154">
+        <v>0.2613113412160376</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>-0.2517256716895962</v>
+      </c>
+      <c r="D155">
+        <v>0.1249586854463752</v>
+      </c>
+      <c r="E155">
+        <v>1.007869335919415</v>
+      </c>
+      <c r="F155">
+        <v>-0.948438805403352</v>
+      </c>
+      <c r="G155">
+        <v>0.8621084071914353</v>
+      </c>
+      <c r="H155">
+        <v>0.2863374882393194</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>specific_factorprior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>-0.03193153632237937</v>
+      </c>
+      <c r="D156">
+        <v>0.03055554767566729</v>
+      </c>
+      <c r="E156">
+        <v>1.175118694389253</v>
+      </c>
+      <c r="F156">
+        <v>-0.2976492316599461</v>
+      </c>
+      <c r="G156">
+        <v>0.2383778693937453</v>
+      </c>
+      <c r="H156">
+        <v>0.4644776572718624</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>-0.08186992138996563</v>
+      </c>
+      <c r="D157">
+        <v>0.03055554692561235</v>
+      </c>
+      <c r="E157">
+        <v>1.175118694389254</v>
+      </c>
+      <c r="F157">
+        <v>-0.3426125208919785</v>
+      </c>
+      <c r="G157">
+        <v>0.1905832742629869</v>
+      </c>
+      <c r="H157">
+        <v>0.1959136921090552</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>-0.08308275968193983</v>
+      </c>
+      <c r="D158">
+        <v>0.07196097865640291</v>
+      </c>
+      <c r="E158">
+        <v>1.007869335919415</v>
+      </c>
+      <c r="F158">
+        <v>-0.7534666693272798</v>
+      </c>
+      <c r="G158">
+        <v>0.6719977485089975</v>
+      </c>
+      <c r="H158">
+        <v>0.4525231997098602</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>specific_factorwell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>-0.1216842175918304</v>
+      </c>
+      <c r="D159">
+        <v>0.03055554700856641</v>
+      </c>
+      <c r="E159">
+        <v>1.175118694389253</v>
+      </c>
+      <c r="F159">
+        <v>-0.3776244877011969</v>
+      </c>
+      <c r="G159">
+        <v>0.1515297146067018</v>
+      </c>
+      <c r="H159">
+        <v>0.1266560552383826</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
           <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
-      <c r="C125">
-        <v>-0.1868376872061784</v>
-      </c>
-      <c r="D125">
-        <v>0.09346602142267685</v>
-      </c>
-      <c r="E125">
-        <v>1.910862231458089</v>
-      </c>
-      <c r="F125">
-        <v>-0.543939357495422</v>
-      </c>
-      <c r="G125">
-        <v>0.2275616350829381</v>
-      </c>
-      <c r="H125">
-        <v>0.1863541405167442</v>
+      <c r="C160">
+        <v>-0.2358058370392268</v>
+      </c>
+      <c r="D160">
+        <v>0.194728122018841</v>
+      </c>
+      <c r="E160">
+        <v>1.044630341257237</v>
+      </c>
+      <c r="F160">
+        <v>-0.9860231690748156</v>
+      </c>
+      <c r="G160">
+        <v>0.9638567453405543</v>
+      </c>
+      <c r="H160">
+        <v>0.4267999821765229</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +5254,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4258,19 +5309,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0124613909789195</v>
+        <v>0.05049560802800723</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.687243911022658</v>
+        <v>2.66892049606482</v>
       </c>
       <c r="F2">
-        <v>0.9909237766360648</v>
+        <v>0.9632639538376014</v>
       </c>
       <c r="G2">
-        <v>0.9994934130590691</v>
+        <v>0.9632639538376014</v>
       </c>
     </row>
     <row r="3">
@@ -4285,19 +5336,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>4.252528340391041</v>
+        <v>4.656019592171202</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.358527450181557</v>
+        <v>2.110150731573044</v>
       </c>
       <c r="F3">
-        <v>0.03792483916578804</v>
+        <v>0.03891825879752927</v>
       </c>
       <c r="G3">
-        <v>0.09481209791447011</v>
+        <v>0.1210790273700911</v>
       </c>
     </row>
     <row r="4">
@@ -4312,19 +5363,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>4.393253954452414</v>
+        <v>2.826238300019586</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.925443227839242</v>
+        <v>2.367883861351211</v>
       </c>
       <c r="F4">
-        <v>0.02301985901320101</v>
+        <v>0.08729393075579649</v>
       </c>
       <c r="G4">
-        <v>0.09481209791447011</v>
+        <v>0.2036858384301918</v>
       </c>
     </row>
     <row r="5">
@@ -4339,19 +5390,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>3.4087061096592</v>
+        <v>8.996859588549272</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.711587586904526</v>
+        <v>1.872368871083884</v>
       </c>
       <c r="F5">
-        <v>0.09444638192607779</v>
+        <v>0.01484688735973452</v>
       </c>
       <c r="G5">
-        <v>0.1835000985563529</v>
+        <v>0.06928547434542776</v>
       </c>
     </row>
     <row r="6">
@@ -4366,19 +5417,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.925347803168218</v>
+        <v>1.146457275928639</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>7.272635861811233</v>
+        <v>2.33497096757643</v>
       </c>
       <c r="F6">
-        <v>0.09401353150766317</v>
+        <v>0.3554529938860524</v>
       </c>
       <c r="G6">
-        <v>0.1835000985563529</v>
+        <v>0.5529268793783039</v>
       </c>
     </row>
     <row r="7">
@@ -4389,23 +5440,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.8887932322172667</v>
+        <v>3.017966969921468</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4.371486365469391</v>
+        <v>1.351445398959976</v>
       </c>
       <c r="F7">
-        <v>0.4203255948334265</v>
+        <v>0.1488107014956951</v>
       </c>
       <c r="G7">
-        <v>0.6005772674956334</v>
+        <v>0.2777799761252976</v>
       </c>
     </row>
     <row r="8">
@@ -4416,23 +5467,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.6561183498107207</v>
+        <v>0.6483673272085041</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2.559973238328589</v>
+        <v>1.954787675401295</v>
       </c>
       <c r="F8">
-        <v>0.5658661067431975</v>
+        <v>0.584585310371488</v>
       </c>
       <c r="G8">
-        <v>0.6736501270752351</v>
+        <v>0.7794470804953173</v>
       </c>
     </row>
     <row r="9">
@@ -4443,23 +5494,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C9">
-        <v>3.495063375818261</v>
+        <v>6.013908427937027</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3.41780588828296</v>
+        <v>3.784768587674577</v>
       </c>
       <c r="F9">
-        <v>0.0322250125183499</v>
+        <v>0.004588622408698366</v>
       </c>
       <c r="G9">
-        <v>0.09481209791447011</v>
+        <v>0.04282714248118475</v>
       </c>
     </row>
     <row r="10">
@@ -4470,23 +5521,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.0405012530710463</v>
+        <v>2.524200065300533</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>2.598425488249568</v>
+        <v>4.024461929599067</v>
       </c>
       <c r="F10">
-        <v>0.9705993409852571</v>
+        <v>0.06469068974784099</v>
       </c>
       <c r="G10">
-        <v>0.9994934130590691</v>
+        <v>0.1646672102672316</v>
       </c>
     </row>
     <row r="11">
@@ -4497,23 +5548,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C11">
-        <v>5.853362473044244</v>
+        <v>0.2270838250069529</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1.007047049913192</v>
+        <v>2.96932190135496</v>
       </c>
       <c r="F11">
-        <v>0.1065194344567847</v>
+        <v>0.8350933630159506</v>
       </c>
       <c r="G11">
-        <v>0.1835000985563529</v>
+        <v>0.9028572880436093</v>
       </c>
     </row>
     <row r="12">
@@ -4524,23 +5575,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.2533502597921241</v>
+        <v>0.1075962922036817</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2.142802389780973</v>
+        <v>1.873964217874664</v>
       </c>
       <c r="F12">
-        <v>0.8222532392801619</v>
+        <v>0.9247170079510998</v>
       </c>
       <c r="G12">
-        <v>0.9343786810001841</v>
+        <v>0.9589657860233627</v>
       </c>
     </row>
     <row r="13">
@@ -4551,23 +5602,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C13">
-        <v>1.239547929046398</v>
+        <v>0.5012929927759534</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3.338743550258299</v>
+        <v>1.350424553196147</v>
       </c>
       <c r="F13">
-        <v>0.295133242918747</v>
+        <v>0.6856189083531111</v>
       </c>
       <c r="G13">
-        <v>0.4611456920605422</v>
+        <v>0.8545329261788202</v>
       </c>
     </row>
     <row r="14">
@@ -4578,23 +5629,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C14">
-        <v>3.624991922333023</v>
+        <v>0.9786992741192195</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1.428409543812893</v>
+        <v>1.710857899413754</v>
       </c>
       <c r="F14">
-        <v>0.1101000591338117</v>
+        <v>0.445470711887375</v>
       </c>
       <c r="G14">
-        <v>0.1835000985563529</v>
+        <v>0.656483154360342</v>
       </c>
     </row>
     <row r="15">
@@ -4605,23 +5656,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.9857996494376379</v>
+        <v>239.7088130264492</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1.907840946712176</v>
+        <v>3.331364184101252</v>
       </c>
       <c r="F15">
-        <v>0.4324156325968561</v>
+        <v>3.559413636786485e-08</v>
       </c>
       <c r="G15">
-        <v>0.6005772674956334</v>
+        <v>9.966358183002158e-07</v>
       </c>
     </row>
     <row r="16">
@@ -4632,23 +5683,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.7705777212415463</v>
+        <v>4.456480469597556</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2.750078864893249</v>
+        <v>1.274571119523399</v>
       </c>
       <c r="F16">
-        <v>0.5017035949081099</v>
+        <v>0.09951519846470373</v>
       </c>
       <c r="G16">
-        <v>0.6601363090896183</v>
+        <v>0.2143404274624388</v>
       </c>
     </row>
     <row r="17">
@@ -4659,23 +5710,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C17">
-        <v>4.255843731739765</v>
+        <v>0.3507983106234689</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>4.057170473681118</v>
+        <v>1.765093799191015</v>
       </c>
       <c r="F17">
-        <v>0.01270446251324418</v>
+        <v>0.7631166759839582</v>
       </c>
       <c r="G17">
-        <v>0.07216916974317261</v>
+        <v>0.8903027886479512</v>
       </c>
     </row>
     <row r="18">
@@ -4686,23 +5737,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C18">
-        <v>4.654597968125969</v>
+        <v>0.4719651455088687</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>6.735920532812226</v>
+        <v>1.349214922962847</v>
       </c>
       <c r="F18">
-        <v>0.002577499720820459</v>
+        <v>0.7019377607897451</v>
       </c>
       <c r="G18">
-        <v>0.02845385880080572</v>
+        <v>0.8545329261788202</v>
       </c>
     </row>
     <row r="19">
@@ -4713,23 +5764,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C19">
-        <v>8.574829621861248</v>
+        <v>2.088619112705661</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1.536290016746656</v>
+        <v>1.376609642091614</v>
       </c>
       <c r="F19">
-        <v>0.02794278662207255</v>
+        <v>0.2265409337978677</v>
       </c>
       <c r="G19">
-        <v>0.09481209791447011</v>
+        <v>0.3964466341462686</v>
       </c>
     </row>
     <row r="20">
@@ -4740,13 +5791,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>5.706495229057619</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3.245753354120564</v>
+      </c>
+      <c r="F20">
+        <v>0.008585978978820163</v>
+      </c>
+      <c r="G20">
+        <v>0.06010185285174114</v>
       </c>
     </row>
     <row r="21">
@@ -4757,23 +5818,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.0007251480201789481</v>
+        <v>8.825610736974275</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1.806114328805134</v>
+        <v>1.526933185526443</v>
       </c>
       <c r="F21">
-        <v>0.9994934130590691</v>
+        <v>0.02718161935471265</v>
       </c>
       <c r="G21">
-        <v>0.9994934130590691</v>
+        <v>0.1087264774188506</v>
       </c>
     </row>
     <row r="22">
@@ -4784,23 +5845,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C22">
-        <v>4.51354903048215</v>
+        <v>0.2322379505108721</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>6.42337507026035</v>
+        <v>1.957493029774694</v>
       </c>
       <c r="F22">
-        <v>0.003414463056096686</v>
+        <v>0.8383674817547802</v>
       </c>
       <c r="G22">
-        <v>0.02845385880080572</v>
+        <v>0.9028572880436093</v>
       </c>
     </row>
     <row r="23">
@@ -4811,23 +5872,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C23">
-        <v>7.909082171100705</v>
+        <v>4.574988737666608</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>7.359225694740181</v>
+        <v>1.628925789904027</v>
       </c>
       <c r="F23">
-        <v>7.498771128076147e-05</v>
+        <v>0.06457528603253736</v>
       </c>
       <c r="G23">
-        <v>0.001874692782019037</v>
+        <v>0.1646672102672316</v>
       </c>
     </row>
     <row r="24">
@@ -4838,23 +5899,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C24">
-        <v>9.447730452739989</v>
+        <v>3.210196781559373</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1.329987796776082</v>
+        <v>1.444109708176851</v>
       </c>
       <c r="F24">
-        <v>0.03514334555417412</v>
+        <v>0.1275277162571451</v>
       </c>
       <c r="G24">
-        <v>0.09481209791447011</v>
+        <v>0.2550554325142902</v>
       </c>
     </row>
     <row r="25">
@@ -4865,23 +5926,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C25">
-        <v>19.01943025133302</v>
+        <v>8.913165402906801</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.316142253454894</v>
+        <v>7.152773937181086</v>
       </c>
       <c r="F25">
-        <v>0.01443383394863452</v>
+        <v>3.988101567578064e-05</v>
       </c>
       <c r="G25">
-        <v>0.07216916974317261</v>
+        <v>0.000558334219460929</v>
       </c>
     </row>
     <row r="26">
@@ -4892,23 +5953,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.7176475004472511</v>
+        <v>9.919331811789725</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.923666805027286</v>
+        <v>1.329169817711833</v>
       </c>
       <c r="F26">
-        <v>0.5500331978294533</v>
+        <v>0.03301150137086384</v>
       </c>
       <c r="G26">
-        <v>0.6736501270752351</v>
+        <v>0.1155402547980234</v>
       </c>
     </row>
     <row r="27">
@@ -4919,77 +5980,77 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.974937056165514</v>
+        <v>20.10348384342847</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>5.959239872129968</v>
+        <v>1.308503001403497</v>
       </c>
       <c r="F27">
-        <v>0.09602083578379911</v>
+        <v>0.01369269447326663</v>
       </c>
       <c r="G27">
-        <v>0.1835000985563529</v>
+        <v>0.06928547434542776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C28">
-        <v>1.349495979720641</v>
+        <v>0.6710465496070623</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.303355416448541</v>
+        <v>1.886444690101674</v>
       </c>
       <c r="F28">
-        <v>0.3649143072935109</v>
+        <v>0.5749083612070385</v>
       </c>
       <c r="G28">
-        <v>0.4170449226211553</v>
+        <v>0.7794470804953173</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C29">
-        <v>1.98343925307748</v>
+        <v>1.186146621259405</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1.302418547250109</v>
+        <v>2.37977649090188</v>
       </c>
       <c r="F29">
-        <v>0.2493502949900794</v>
+        <v>0.3404285761676996</v>
       </c>
       <c r="G29">
-        <v>0.3654550599472539</v>
+        <v>0.5529268793783039</v>
       </c>
     </row>
     <row r="30">
@@ -5000,23 +6061,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C30">
-        <v>1.548410416849485</v>
+        <v>1.581241175968772</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.315258720738557</v>
+        <v>1.264422051644146</v>
       </c>
       <c r="F30">
-        <v>0.3194766717368386</v>
+        <v>0.3192337932795794</v>
       </c>
       <c r="G30">
-        <v>0.4143125375369069</v>
+        <v>0.3648386208909479</v>
       </c>
     </row>
     <row r="31">
@@ -5027,23 +6088,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C31">
-        <v>2.910263471689716</v>
+        <v>2.448374488903238</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>2.994830263020872</v>
+        <v>1.277102249615866</v>
       </c>
       <c r="F31">
-        <v>0.06211346511562251</v>
+        <v>0.2010031248696894</v>
       </c>
       <c r="G31">
-        <v>0.3075912432563608</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="32">
@@ -5054,23 +6115,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C32">
-        <v>3.271496844161729</v>
+        <v>1.877498864073224</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1.132501469351643</v>
+        <v>1.379072802681434</v>
       </c>
       <c r="F32">
-        <v>0.1650334613867164</v>
+        <v>0.2548697671067322</v>
       </c>
       <c r="G32">
-        <v>0.3654550599472539</v>
+        <v>0.327127066113549</v>
       </c>
     </row>
     <row r="33">
@@ -5081,23 +6142,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C33">
-        <v>6.192414464676821</v>
+        <v>1.684788751577617</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1.878532920344939</v>
+        <v>3.529413919506357</v>
       </c>
       <c r="F33">
-        <v>0.02914353961101013</v>
+        <v>0.1767580713431973</v>
       </c>
       <c r="G33">
-        <v>0.233148316888081</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="34">
@@ -5108,23 +6169,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C34">
-        <v>3.054258409059277</v>
+        <v>2.621810196659896</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>2.320011256789485</v>
+        <v>1.161917582538015</v>
       </c>
       <c r="F34">
-        <v>0.07689781081409021</v>
+        <v>0.2030208335475656</v>
       </c>
       <c r="G34">
-        <v>0.3075912432563608</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="35">
@@ -5135,23 +6196,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C35">
-        <v>18.55583590311468</v>
+        <v>5.86287287502909</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1.729129627571507</v>
+        <v>2.031310292646436</v>
       </c>
       <c r="F35">
-        <v>0.00541753311354951</v>
+        <v>0.02689022628918354</v>
       </c>
       <c r="G35">
-        <v>0.08668052981679215</v>
+        <v>0.1434145402089789</v>
       </c>
     </row>
     <row r="36">
@@ -5162,23 +6223,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.9525467706746621</v>
+        <v>2.782653724828032</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1.574755337009499</v>
+        <v>1.121340476438064</v>
       </c>
       <c r="F36">
-        <v>0.4636595899187956</v>
+        <v>0.1973237301679057</v>
       </c>
       <c r="G36">
-        <v>0.4945702292467153</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="37">
@@ -5189,23 +6250,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C37">
-        <v>1.887206622284239</v>
+        <v>20.06338184213592</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.397840990291964</v>
+        <v>1.063419317206845</v>
       </c>
       <c r="F37">
-        <v>0.2512503537137371</v>
+        <v>0.0265684980329102</v>
       </c>
       <c r="G37">
-        <v>0.3654550599472539</v>
+        <v>0.1434145402089789</v>
       </c>
     </row>
     <row r="38">
@@ -5216,23 +6277,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C38">
-        <v>1.218402853938838</v>
+        <v>3.553908883245564</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2.220845961385242</v>
+        <v>1.319375444005985</v>
       </c>
       <c r="F38">
-        <v>0.3366289367487368</v>
+        <v>0.1252144876652372</v>
       </c>
       <c r="G38">
-        <v>0.4143125375369069</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="39">
@@ -5243,23 +6304,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C39">
-        <v>4.369938911116392</v>
+        <v>205.5590803928414</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1.000043372955729</v>
+        <v>1.232186875857446</v>
       </c>
       <c r="F39">
-        <v>0.1432075357392981</v>
+        <v>0.0009566269880798824</v>
       </c>
       <c r="G39">
-        <v>0.3654550599472539</v>
+        <v>0.01530603180927812</v>
       </c>
     </row>
     <row r="40">
@@ -5270,23 +6331,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others':report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C40">
-        <v>1.480271593503407</v>
+        <v>2.254304348693476</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>3.162269987672197</v>
+        <v>1.000039634541678</v>
       </c>
       <c r="F40">
-        <v>0.2308546779433948</v>
+        <v>0.2657907412172585</v>
       </c>
       <c r="G40">
-        <v>0.3654550599472539</v>
+        <v>0.327127066113549</v>
       </c>
     </row>
     <row r="41">
@@ -5297,23 +6358,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C41">
-        <v>2.108015652613014</v>
+        <v>4.641402685277288</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1.575817640369812</v>
+        <v>1.000050295724707</v>
       </c>
       <c r="F41">
-        <v>0.2027755563792981</v>
+        <v>0.1350866319691862</v>
       </c>
       <c r="G41">
-        <v>0.3654550599472539</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="42">
@@ -5324,23 +6385,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C42">
-        <v>2.381275034523701</v>
+        <v>1.680231660384333</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1.915852269010045</v>
+        <v>2.383450447419647</v>
       </c>
       <c r="F42">
-        <v>0.1456839703288541</v>
+        <v>0.2144985931684464</v>
       </c>
       <c r="G42">
-        <v>0.3654550599472539</v>
+        <v>0.3119979536995584</v>
       </c>
     </row>
     <row r="43">
@@ -5351,23 +6412,202 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.08156266282981009</v>
+        <v>2.102158536591954</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>3.419656837340893</v>
+        <v>1.572680174970641</v>
       </c>
       <c r="F43">
-        <v>0.9395391028013647</v>
+        <v>0.2037946768815609</v>
       </c>
       <c r="G43">
-        <v>0.9395391028013647</v>
+        <v>0.3119979536995584</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.8397994962942366</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1.415610377944607</v>
+      </c>
+      <c r="F44">
+        <v>0.5190060050153633</v>
+      </c>
+      <c r="G44">
+        <v>0.5536064053497208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>0.2430606465265433</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1.38544298470899</v>
+      </c>
+      <c r="F45">
+        <v>0.8390017322073153</v>
+      </c>
+      <c r="G45">
+        <v>0.8390017322073153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>681</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>358</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/output/14-specific-report.xlsx
+++ b/output/14-specific-report.xlsx
@@ -409,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D2">
-        <v>0.01067991780140817</v>
+        <v>0.009059241296497341</v>
       </c>
       <c r="E2">
-        <v>0.01978889205427728</v>
+        <v>0.02029949414162044</v>
       </c>
       <c r="F2">
-        <v>93.99113544989963</v>
+        <v>93.79006741596241</v>
       </c>
       <c r="G2">
-        <v>61.04539173951188</v>
+        <v>64.84921423354655</v>
       </c>
       <c r="H2">
-        <v>32.94574371038775</v>
+        <v>28.94085318241586</v>
       </c>
     </row>
     <row r="3">
@@ -437,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>4.673155694730936e-09</v>
+        <v>1.944067229445426e-09</v>
       </c>
       <c r="E3">
-        <v>0.01836997906374256</v>
+        <v>0.02115396919853025</v>
       </c>
       <c r="F3">
-        <v>84.90948045599478</v>
+        <v>87.22433686704724</v>
       </c>
       <c r="G3">
-        <v>84.90945885580025</v>
+        <v>87.22432885105943</v>
       </c>
       <c r="H3">
-        <v>2.160019452453666e-05</v>
+        <v>8.015987814783117e-06</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2790985786564789</v>
+        <v>-0.2842449146165292</v>
       </c>
       <c r="D2">
-        <v>0.07351705216335604</v>
+        <v>0.07180162896221449</v>
       </c>
       <c r="E2">
-        <v>3.364407527881986</v>
+        <v>3.267649071114556</v>
       </c>
       <c r="F2">
-        <v>-0.4675775263489731</v>
+        <v>-0.4703868351634756</v>
       </c>
       <c r="G2">
-        <v>-0.0663453275523191</v>
+        <v>-0.07388629752304951</v>
       </c>
       <c r="H2">
-        <v>0.02427206568429617</v>
+        <v>0.02270142703560851</v>
       </c>
     </row>
     <row r="3">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.2758798124093152</v>
+        <v>0.268666799917379</v>
       </c>
       <c r="D3">
-        <v>0.1258152954760778</v>
+        <v>0.1153543396403339</v>
       </c>
       <c r="E3">
-        <v>2.668920496064824</v>
+        <v>2.687243911022667</v>
       </c>
       <c r="F3">
-        <v>-0.1457577954841726</v>
+        <v>-0.1165462476746892</v>
       </c>
       <c r="G3">
-        <v>0.6127028251460683</v>
+        <v>0.5836172295029833</v>
       </c>
       <c r="H3">
-        <v>0.1207929088972737</v>
+        <v>0.1069928879506781</v>
       </c>
     </row>
     <row r="4">
@@ -581,26 +581,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.2589801408900907</v>
+        <v>0.3126122940704539</v>
       </c>
       <c r="D4">
-        <v>0.1178280638559648</v>
+        <v>0.04106971119648554</v>
       </c>
       <c r="E4">
-        <v>3.010211313769895</v>
+        <v>25.78473412149153</v>
       </c>
       <c r="F4">
-        <v>-0.1088154212852953</v>
+        <v>0.2345356001259286</v>
       </c>
       <c r="G4">
-        <v>0.5644076285515716</v>
+        <v>0.3866816339938426</v>
       </c>
       <c r="H4">
-        <v>0.1097218490465556</v>
+        <v>2.5144741480426e-08</v>
       </c>
     </row>
     <row r="5">
@@ -611,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorCoherence of mind:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.3270965607112828</v>
+        <v>0.1100445571831774</v>
       </c>
       <c r="D5">
-        <v>0.04571680751029817</v>
+        <v>2.462646274243626e-16</v>
       </c>
       <c r="E5">
-        <v>21.32642944567097</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2398252620061216</v>
+        <v>0.1100445571831743</v>
       </c>
       <c r="G5">
-        <v>0.4091236566335364</v>
+        <v>0.1100445571831805</v>
       </c>
       <c r="H5">
-        <v>2.405396079035121e-07</v>
+        <v>1.418898238565572e-15</v>
       </c>
     </row>
     <row r="6">
@@ -641,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.1100445571831774</v>
+        <v>-0.139651112876202</v>
       </c>
       <c r="D6">
-        <v>2.390131085737748e-16</v>
+        <v>0.07748877353901955</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.556449170404055</v>
       </c>
       <c r="F6">
-        <v>0.1100445571831744</v>
+        <v>-0.5254463254568597</v>
       </c>
       <c r="G6">
-        <v>0.1100445571831804</v>
+        <v>0.293776354525349</v>
       </c>
       <c r="H6">
-        <v>1.377117299777746e-15</v>
+        <v>0.2458523981259397</v>
       </c>
     </row>
     <row r="7">
@@ -671,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.1252421953928357</v>
+        <v>-0.03784981878775419</v>
       </c>
       <c r="D7">
-        <v>0.08678566408252239</v>
+        <v>0.03433511975392819</v>
       </c>
       <c r="E7">
-        <v>1.632859931212413</v>
+        <v>14.52209993589579</v>
       </c>
       <c r="F7">
-        <v>-0.5317081032955081</v>
+        <v>-0.1108049564628853</v>
       </c>
       <c r="G7">
-        <v>0.3281173258829933</v>
+        <v>0.03551104854930329</v>
       </c>
       <c r="H7">
-        <v>0.3093305337785289</v>
+        <v>0.2880163302179274</v>
       </c>
     </row>
     <row r="8">
@@ -701,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.04524060842750339</v>
+        <v>0.2972120905586272</v>
       </c>
       <c r="D8">
-        <v>0.1046983704622767</v>
+        <v>0.06667735379390188</v>
       </c>
       <c r="E8">
-        <v>1.319942290059135</v>
+        <v>5.193161159041334</v>
       </c>
       <c r="F8">
-        <v>-0.670045061815428</v>
+        <v>0.1361091013848888</v>
       </c>
       <c r="G8">
-        <v>0.617083872064208</v>
+        <v>0.4430010516661046</v>
       </c>
       <c r="H8">
-        <v>0.7254890731696306</v>
+        <v>0.005334191293268632</v>
       </c>
     </row>
     <row r="9">
@@ -731,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEntity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.03060192054678393</v>
+        <v>-0.215222764180883</v>
       </c>
       <c r="D9">
-        <v>0.03867244241420388</v>
+        <v>0.04161422744873078</v>
       </c>
       <c r="E9">
-        <v>12.32503656261862</v>
+        <v>1.982933163102141</v>
       </c>
       <c r="F9">
-        <v>-0.1141262984375858</v>
+        <v>-0.3792453182083279</v>
       </c>
       <c r="G9">
-        <v>0.05335203331497799</v>
+        <v>-0.038086455060229</v>
       </c>
       <c r="H9">
-        <v>0.4435859823435713</v>
+        <v>0.03499909778938461</v>
       </c>
     </row>
     <row r="10">
@@ -761,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1480598176168042</v>
+        <v>0.0135275462036778</v>
       </c>
       <c r="D10">
-        <v>0.08528569147670145</v>
+        <v>0.04190603294040348</v>
       </c>
       <c r="E10">
-        <v>1.568350769962821</v>
+        <v>5.551489861174255</v>
       </c>
       <c r="F10">
-        <v>-0.3219319742607918</v>
+        <v>-0.09080321372581243</v>
       </c>
       <c r="G10">
-        <v>0.5595056972761387</v>
+        <v>0.1175645892754345</v>
       </c>
       <c r="H10">
-        <v>0.2555128566835145</v>
+        <v>0.7586360382707831</v>
       </c>
     </row>
     <row r="11">
@@ -791,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.3668398448321462</v>
+        <v>0.02502715580591653</v>
       </c>
       <c r="D11">
-        <v>0.04671353809308973</v>
+        <v>0.05059770194196454</v>
       </c>
       <c r="E11">
-        <v>4.102275020023003</v>
+        <v>7.272635861811238</v>
       </c>
       <c r="F11">
-        <v>0.250863791407805</v>
+        <v>-0.09343557358914316</v>
       </c>
       <c r="G11">
-        <v>0.4724338535884065</v>
+        <v>0.1427911576110553</v>
       </c>
       <c r="H11">
-        <v>0.001062057533893408</v>
+        <v>0.6353832310918702</v>
       </c>
     </row>
     <row r="12">
@@ -821,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.2049119311189259</v>
+        <v>-0.04918928015033897</v>
       </c>
       <c r="D12">
-        <v>0.04552417958770535</v>
+        <v>0.1204015468855162</v>
       </c>
       <c r="E12">
-        <v>2.02691025671554</v>
+        <v>1.878758901152713</v>
       </c>
       <c r="F12">
-        <v>-0.3810249176425693</v>
+        <v>-0.5375247584236806</v>
       </c>
       <c r="G12">
-        <v>-0.01444977463231906</v>
+        <v>0.4638534453048913</v>
       </c>
       <c r="H12">
-        <v>0.04366057280722069</v>
+        <v>0.7244957298927543</v>
       </c>
     </row>
     <row r="13">
@@ -851,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.01675510364326087</v>
+        <v>-0.2446021845222981</v>
       </c>
       <c r="D13">
-        <v>0.04384304053047093</v>
+        <v>0.09659009825909048</v>
       </c>
       <c r="E13">
-        <v>5.798466433579232</v>
+        <v>9.446567248936834</v>
       </c>
       <c r="F13">
-        <v>-0.09117978698940499</v>
+        <v>-0.4354488060493633</v>
       </c>
       <c r="G13">
-        <v>0.1243009004408307</v>
+        <v>-0.03271414722561063</v>
       </c>
       <c r="H13">
-        <v>0.715929524901066</v>
+        <v>0.02838443702285207</v>
       </c>
     </row>
     <row r="14">
@@ -881,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.006200643470667833</v>
+        <v>0.1492750875838308</v>
       </c>
       <c r="D14">
-        <v>0.08344059966374738</v>
+        <v>0.02512003863818634</v>
       </c>
       <c r="E14">
-        <v>3.620115759021568</v>
+        <v>1.102907236350699</v>
       </c>
       <c r="F14">
-        <v>-0.2311248025191066</v>
+        <v>-0.1059349146835511</v>
       </c>
       <c r="G14">
-        <v>0.2428296302211357</v>
+        <v>0.3860345442646802</v>
       </c>
       <c r="H14">
-        <v>0.944683341856972</v>
+        <v>0.08951245264993378</v>
       </c>
     </row>
     <row r="15">
@@ -911,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.0466066183060669</v>
+        <v>-0.06530085251863463</v>
       </c>
       <c r="D15">
-        <v>0.1038208766945442</v>
+        <v>0.0785934856971137</v>
       </c>
       <c r="E15">
-        <v>2.334970967576425</v>
+        <v>1.957373904839963</v>
       </c>
       <c r="F15">
-        <v>-0.330990036682904</v>
+        <v>-0.389075693670545</v>
       </c>
       <c r="G15">
-        <v>0.4113378788897451</v>
+        <v>0.2728334122144157</v>
       </c>
       <c r="H15">
-        <v>0.6915754651597859</v>
+        <v>0.4945463874395983</v>
       </c>
     </row>
     <row r="16">
@@ -941,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.03827527075611225</v>
+        <v>0.261281146802565</v>
       </c>
       <c r="D16">
-        <v>0.0980127940485975</v>
+        <v>0.07592092338896539</v>
       </c>
       <c r="E16">
-        <v>1.010271852090562</v>
+        <v>1.878758901152713</v>
       </c>
       <c r="F16">
-        <v>-0.8266773324502646</v>
+        <v>-0.08006313186575202</v>
       </c>
       <c r="G16">
-        <v>0.8494397719228916</v>
+        <v>0.5477776587275345</v>
       </c>
       <c r="H16">
-        <v>0.7623612920684804</v>
+        <v>0.07873180830334423</v>
       </c>
     </row>
     <row r="17">
@@ -971,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.124438444979015</v>
+        <v>0.2574975961964783</v>
       </c>
       <c r="D17">
-        <v>0.04178287164822631</v>
+        <v>0.1984984050143748</v>
       </c>
       <c r="E17">
-        <v>1.137925554076761</v>
+        <v>1.133793248298305</v>
       </c>
       <c r="F17">
-        <v>-0.4820554534856175</v>
+        <v>-0.9293423623979953</v>
       </c>
       <c r="G17">
-        <v>0.2687211695715407</v>
+        <v>0.974785455123538</v>
       </c>
       <c r="H17">
-        <v>0.1802840061789287</v>
+        <v>0.391213285580412</v>
       </c>
     </row>
     <row r="18">
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.2657892298751155</v>
+        <v>-0.1731445456808779</v>
       </c>
       <c r="D18">
-        <v>0.115956546135803</v>
+        <v>0.04826403131419123</v>
       </c>
       <c r="E18">
-        <v>7.506917270009454</v>
+        <v>9.872430631710161</v>
       </c>
       <c r="F18">
-        <v>-0.4951136024421807</v>
+        <v>-0.2753413400351844</v>
       </c>
       <c r="G18">
-        <v>-0.001842950236232413</v>
+        <v>-0.06707808942321496</v>
       </c>
       <c r="H18">
-        <v>0.04880745993304611</v>
+        <v>0.004757181540164399</v>
       </c>
     </row>
     <row r="19">
@@ -1031,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.1485622143420814</v>
+        <v>0.2812175254963976</v>
       </c>
       <c r="D19">
-        <v>0.0259124756918528</v>
+        <v>0.03898962779391732</v>
       </c>
       <c r="E19">
-        <v>3.267050373866313</v>
+        <v>20.65358288615618</v>
       </c>
       <c r="F19">
-        <v>0.0707715800557483</v>
+        <v>0.204895613794126</v>
       </c>
       <c r="G19">
-        <v>0.2245567079312442</v>
+        <v>0.3541403317252242</v>
       </c>
       <c r="H19">
-        <v>0.008126301178741028</v>
+        <v>3.036276847289503e-07</v>
       </c>
     </row>
     <row r="20">
@@ -1061,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.0468523132979911</v>
+        <v>-0.07011273365840111</v>
       </c>
       <c r="D20">
-        <v>0.0811866372733669</v>
+        <v>3.254469079242171e-17</v>
       </c>
       <c r="E20">
-        <v>2.007823836642065</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>-0.3755796723013955</v>
+        <v>-0.07011273365840152</v>
       </c>
       <c r="G20">
-        <v>0.2923464649817437</v>
+        <v>-0.07011273365840069</v>
       </c>
       <c r="H20">
-        <v>0.6217426530287641</v>
+        <v>2.95019156866981e-16</v>
       </c>
     </row>
     <row r="21">
@@ -1091,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.335990654299413</v>
+        <v>0.052496128076447</v>
       </c>
       <c r="D21">
-        <v>0.02509568558915094</v>
+        <v>0.08754645133430398</v>
       </c>
       <c r="E21">
-        <v>1.010271852090561</v>
+        <v>1.007047049913193</v>
       </c>
       <c r="F21">
-        <v>0.03823678342983452</v>
+        <v>-0.7785236246124964</v>
       </c>
       <c r="G21">
-        <v>0.5789465573784838</v>
+        <v>0.8166580179657746</v>
       </c>
       <c r="H21">
-        <v>0.04449545364541099</v>
+        <v>0.6553032137754808</v>
       </c>
     </row>
     <row r="22">
@@ -1121,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factormastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.0933745102732025</v>
+        <v>-0.2479505400679517</v>
       </c>
       <c r="D22">
-        <v>0.1006937711014173</v>
+        <v>0.08447953833910414</v>
       </c>
       <c r="E22">
-        <v>1.876080245000677</v>
+        <v>1.073261122474315</v>
       </c>
       <c r="F22">
-        <v>-0.3524303044621686</v>
+        <v>-0.8236541101645497</v>
       </c>
       <c r="G22">
-        <v>0.5046389259085139</v>
+        <v>0.5794400154704102</v>
       </c>
       <c r="H22">
-        <v>0.4560486389743553</v>
+        <v>0.1910905553368784</v>
       </c>
     </row>
     <row r="23">
@@ -1151,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative life events:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.5103947413657737</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D23">
-        <v>0.05335645375970073</v>
+        <v>2.59219003166776e-16</v>
       </c>
       <c r="E23">
-        <v>2.787471859317189</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.3678159641618575</v>
+        <v>0.1466519662212866</v>
       </c>
       <c r="G23">
-        <v>0.6295267499328427</v>
+        <v>0.1466519662212931</v>
       </c>
       <c r="H23">
-        <v>0.002493118400781723</v>
+        <v>1.117162210317401e-15</v>
       </c>
     </row>
     <row r="24">
@@ -1181,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.1219290637306851</v>
+        <v>-0.2917457044095864</v>
       </c>
       <c r="D24">
-        <v>0.08385381947306898</v>
+        <v>0.1702101765428329</v>
       </c>
       <c r="E24">
-        <v>2.035481433710705</v>
+        <v>2.053934797061446</v>
       </c>
       <c r="F24">
-        <v>-0.4441366743909481</v>
+        <v>-0.7677009651390537</v>
       </c>
       <c r="G24">
-        <v>0.2282047633057453</v>
+        <v>0.391659030003669</v>
       </c>
       <c r="H24">
-        <v>0.2793479129651732</v>
+        <v>0.2162479341246182</v>
       </c>
     </row>
     <row r="25">
@@ -1211,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C25">
-        <v>-0.1884455805693409</v>
+        <v>0.2348131729123647</v>
       </c>
       <c r="D25">
-        <v>0.06199183342020468</v>
+        <v>0.08877549789510496</v>
       </c>
       <c r="E25">
-        <v>9.05799093169359</v>
+        <v>2.690950072539528</v>
       </c>
       <c r="F25">
-        <v>-0.3192605853045854</v>
+        <v>-0.06243777182497767</v>
       </c>
       <c r="G25">
-        <v>-0.05058328709219685</v>
+        <v>0.4938005427778923</v>
       </c>
       <c r="H25">
-        <v>0.01311348168025923</v>
+        <v>0.0833290078482917</v>
       </c>
     </row>
     <row r="26">
@@ -1241,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.3141606737891723</v>
+        <v>0.1890444464217981</v>
       </c>
       <c r="D26">
-        <v>0.08385381947306915</v>
+        <v>0.05114297509010683</v>
       </c>
       <c r="E26">
-        <v>2.035481433710692</v>
+        <v>8.787884794724825</v>
       </c>
       <c r="F26">
-        <v>-0.02966976555071059</v>
+        <v>0.07508390880149322</v>
       </c>
       <c r="G26">
-        <v>0.5915119609176686</v>
+        <v>0.298130566126997</v>
       </c>
       <c r="H26">
-        <v>0.05884465916743321</v>
+        <v>0.004814668738189718</v>
       </c>
     </row>
     <row r="27">
@@ -1271,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.2795069884211923</v>
+        <v>0.05420923199384598</v>
       </c>
       <c r="D27">
-        <v>0.04062720780641572</v>
+        <v>0.03041032954599606</v>
       </c>
       <c r="E27">
-        <v>19.60826969646251</v>
+        <v>1.707050680202893</v>
       </c>
       <c r="F27">
-        <v>0.1995767062477629</v>
+        <v>-0.1003035876991014</v>
       </c>
       <c r="G27">
-        <v>0.3557422450568705</v>
+        <v>0.2061689138708844</v>
       </c>
       <c r="H27">
-        <v>8.372036650317384e-07</v>
+        <v>0.2373514783030281</v>
       </c>
     </row>
     <row r="28">
@@ -1301,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C28">
-        <v>-0.07011273365840102</v>
+        <v>-0.2091057698069457</v>
       </c>
       <c r="D28">
-        <v>2.443972774147965e-17</v>
+        <v>0.1083461918039008</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3.73986408952644</v>
       </c>
       <c r="F28">
-        <v>-0.07011273365840133</v>
+        <v>-0.478847484732806</v>
       </c>
       <c r="G28">
-        <v>-0.07011273365840072</v>
+        <v>0.09671248063035601</v>
       </c>
       <c r="H28">
-        <v>2.215472845736439e-16</v>
+        <v>0.1266294152008593</v>
       </c>
     </row>
     <row r="29">
@@ -1331,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.03550148853161853</v>
+        <v>-0.0994232443129541</v>
       </c>
       <c r="D29">
-        <v>0.1111074179268941</v>
+        <v>0.04301943858302022</v>
       </c>
       <c r="E29">
-        <v>1.035740094317313</v>
+        <v>3.088815595446503</v>
       </c>
       <c r="F29">
-        <v>-0.8527548925642059</v>
+        <v>-0.2302557768918973</v>
       </c>
       <c r="G29">
-        <v>0.8709975963454438</v>
+        <v>0.03493971820456798</v>
       </c>
       <c r="H29">
-        <v>0.8016054799103485</v>
+        <v>0.1006769461592322</v>
       </c>
     </row>
     <row r="30">
@@ -1361,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.236255628492406</v>
+        <v>0.2053996343462457</v>
       </c>
       <c r="D30">
-        <v>0.08380815215012084</v>
+        <v>0.0542990781975954</v>
       </c>
       <c r="E30">
-        <v>1.092176678479345</v>
+        <v>5.209495092237619</v>
       </c>
       <c r="F30">
-        <v>-0.8058635776629959</v>
+        <v>0.07033850950736095</v>
       </c>
       <c r="G30">
-        <v>0.5604624966225246</v>
+        <v>0.3330654741976885</v>
       </c>
       <c r="H30">
-        <v>0.1959295719918943</v>
+        <v>0.01124346950920017</v>
       </c>
     </row>
     <row r="31">
@@ -1391,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.1466519662212898</v>
+        <v>0.1907753803113011</v>
       </c>
       <c r="D31">
-        <v>2.349164434722652e-16</v>
+        <v>0.04055892155768406</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>4.715817621493093</v>
       </c>
       <c r="F31">
-        <v>0.1466519662212869</v>
+        <v>0.08674473653922009</v>
       </c>
       <c r="G31">
-        <v>0.1466519662212928</v>
+        <v>0.290690311221415</v>
       </c>
       <c r="H31">
-        <v>1.012424899499094e-15</v>
+        <v>0.005874293077285577</v>
       </c>
     </row>
     <row r="32">
@@ -1421,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.3615142662933082</v>
+        <v>-0.4921413881869383</v>
       </c>
       <c r="D32">
-        <v>0.1110662923329324</v>
+        <v>0.06829840088299784</v>
       </c>
       <c r="E32">
-        <v>1.116962220324593</v>
+        <v>1.655092343610466</v>
       </c>
       <c r="F32">
-        <v>-0.9022840858153712</v>
+        <v>-0.7162925658225633</v>
       </c>
       <c r="G32">
-        <v>0.6213000004814154</v>
+        <v>-0.1759259164110671</v>
       </c>
       <c r="H32">
-        <v>0.1605080259837615</v>
+        <v>0.02626748787380212</v>
       </c>
     </row>
     <row r="33">
@@ -1451,26 +1451,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C33">
-        <v>-0.02724171344791702</v>
+        <v>0.3297782780008515</v>
       </c>
       <c r="D33">
-        <v>0.03909208922825985</v>
+        <v>0.03446008090704005</v>
       </c>
       <c r="E33">
-        <v>1.353804359871861</v>
+        <v>7.066941173879955</v>
       </c>
       <c r="F33">
-        <v>-0.2927181855441555</v>
+        <v>0.2554648168235868</v>
       </c>
       <c r="G33">
-        <v>0.2421339197234207</v>
+        <v>0.4002179234476529</v>
       </c>
       <c r="H33">
-        <v>0.5859017315135527</v>
+        <v>2.086887118219093e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1481,26 +1481,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.2062470330350026</v>
+        <v>0.3415347006873853</v>
       </c>
       <c r="D34">
-        <v>0.05281894637516865</v>
+        <v>0.03521136241888485</v>
       </c>
       <c r="E34">
-        <v>2.051122600072188</v>
+        <v>1.065390662964677</v>
       </c>
       <c r="F34">
-        <v>-0.0126697633306645</v>
+        <v>-0.03161478536247321</v>
       </c>
       <c r="G34">
-        <v>0.4062964151855291</v>
+        <v>0.631124599725486</v>
       </c>
       <c r="H34">
-        <v>0.05584306966778531</v>
+        <v>0.05471605315557817</v>
       </c>
     </row>
     <row r="35">
@@ -1511,26 +1511,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2430613315042943</v>
+        <v>0.3247195468355785</v>
       </c>
       <c r="D35">
-        <v>0.08528569147670155</v>
+        <v>0.02689948896552742</v>
       </c>
       <c r="E35">
-        <v>1.568350769962822</v>
+        <v>1.821858831799606</v>
       </c>
       <c r="F35">
-        <v>-0.2307031857066622</v>
+        <v>0.2066063745881818</v>
       </c>
       <c r="G35">
-        <v>0.6236659160857021</v>
+        <v>0.4335045251213722</v>
       </c>
       <c r="H35">
-        <v>0.1326014635561034</v>
+        <v>0.00887932801586102</v>
       </c>
     </row>
     <row r="36">
@@ -1541,26 +1541,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2305141232462352</v>
+        <v>0.2202082776306993</v>
       </c>
       <c r="D36">
-        <v>0.1063533451859138</v>
+        <v>4.000386964968511e-17</v>
       </c>
       <c r="E36">
-        <v>2.112756406655732</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>-0.1976102320255385</v>
+        <v>0.2202082776306988</v>
       </c>
       <c r="G36">
-        <v>0.584788558660937</v>
+        <v>0.2202082776306997</v>
       </c>
       <c r="H36">
-        <v>0.1512065522550912</v>
+        <v>1.137565849918934e-16</v>
       </c>
     </row>
     <row r="37">
@@ -1571,26 +1571,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.1979391102217895</v>
+        <v>0.2292549601213771</v>
       </c>
       <c r="D37">
-        <v>0.1033814572714206</v>
+        <v>0.09125131833934917</v>
       </c>
       <c r="E37">
-        <v>2.349785241693469</v>
+        <v>1.015450585018255</v>
       </c>
       <c r="F37">
-        <v>-0.1842990432102443</v>
+        <v>-0.709007587276567</v>
       </c>
       <c r="G37">
-        <v>0.5281692498600677</v>
+        <v>0.8745224964067083</v>
       </c>
       <c r="H37">
-        <v>0.1725778368618949</v>
+        <v>0.2341938547636197</v>
       </c>
     </row>
     <row r="38">
@@ -1601,26 +1601,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1854581799884723</v>
+        <v>0.3287071251355536</v>
       </c>
       <c r="D38">
-        <v>0.07065273721962199</v>
+        <v>0.04141107994163729</v>
       </c>
       <c r="E38">
-        <v>4.906980508066117</v>
+        <v>5.28222686387087</v>
       </c>
       <c r="F38">
-        <v>0.004970307637174799</v>
+        <v>0.2322965698374282</v>
       </c>
       <c r="G38">
-        <v>0.3542440425382613</v>
+        <v>0.4187213135422046</v>
       </c>
       <c r="H38">
-        <v>0.04597524174477366</v>
+        <v>0.0003279709701405196</v>
       </c>
     </row>
     <row r="39">
@@ -1631,26 +1631,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial competence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.06052527892712826</v>
+        <v>0.2901367230861707</v>
       </c>
       <c r="D39">
-        <v>0.03376434499691071</v>
+        <v>0.02866449973860656</v>
       </c>
       <c r="E39">
-        <v>1.764497537482779</v>
+        <v>1.913253721290549</v>
       </c>
       <c r="F39">
-        <v>-0.1045520607157413</v>
+        <v>0.1682502760704404</v>
       </c>
       <c r="G39">
-        <v>0.2223568951869372</v>
+        <v>0.4032849044071307</v>
       </c>
       <c r="H39">
-        <v>0.2310249878046935</v>
+        <v>0.01054353895670817</v>
       </c>
     </row>
     <row r="40">
@@ -1661,26 +1661,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C40">
-        <v>-0.1951054836676736</v>
+        <v>0.2604584451024384</v>
       </c>
       <c r="D40">
-        <v>0.1085929940345653</v>
+        <v>0.07350481256880795</v>
       </c>
       <c r="E40">
-        <v>2.786876422297046</v>
+        <v>7.359225694740181</v>
       </c>
       <c r="F40">
-        <v>-0.5069928117349163</v>
+        <v>0.09421385122309706</v>
       </c>
       <c r="G40">
-        <v>0.1619565901165866</v>
+        <v>0.4125714439175316</v>
       </c>
       <c r="H40">
-        <v>0.1733093066406548</v>
+        <v>0.007738687929075134</v>
       </c>
     </row>
     <row r="41">
@@ -1691,26 +1691,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C41">
-        <v>-0.3652991326272506</v>
+        <v>0.4606967987052083</v>
       </c>
       <c r="D41">
-        <v>0.03678293087762134</v>
+        <v>0.1257281539114797</v>
       </c>
       <c r="E41">
-        <v>3.881542680663145</v>
+        <v>1.59646043709105</v>
       </c>
       <c r="F41">
-        <v>-0.4513180809774116</v>
+        <v>-0.1949326603233514</v>
       </c>
       <c r="G41">
-        <v>-0.2725540296515466</v>
+        <v>0.8317692494639658</v>
       </c>
       <c r="H41">
-        <v>0.0005605722860412529</v>
+        <v>0.08295648551213186</v>
       </c>
     </row>
     <row r="42">
@@ -1721,26 +1721,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C42">
-        <v>-0.1688165664582064</v>
+        <v>0.3847877258754295</v>
       </c>
       <c r="D42">
-        <v>0.0852856914767017</v>
+        <v>0.08656558678264105</v>
       </c>
       <c r="E42">
-        <v>1.568350769962822</v>
+        <v>6.039575877216494</v>
       </c>
       <c r="F42">
-        <v>-0.5739580085440942</v>
+        <v>0.1917805202681531</v>
       </c>
       <c r="G42">
-        <v>0.3027178077279047</v>
+        <v>0.549140400295178</v>
       </c>
       <c r="H42">
-        <v>0.2175489689718706</v>
+        <v>0.003316337195926302</v>
       </c>
     </row>
     <row r="43">
@@ -1751,26 +1751,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C43">
-        <v>-0.07444692471408257</v>
+        <v>0.27</v>
       </c>
       <c r="D43">
-        <v>0.07080095741221253</v>
-      </c>
-      <c r="E43">
-        <v>2.268618917353991</v>
-      </c>
-      <c r="F43">
-        <v>-0.3338301179239809</v>
-      </c>
-      <c r="G43">
-        <v>0.1954166367458522</v>
-      </c>
-      <c r="H43">
-        <v>0.3912535820494358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1781,26 +1769,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.1430383125401337</v>
+        <v>0.1658645185089016</v>
       </c>
       <c r="D44">
-        <v>0.05253014546425556</v>
+        <v>0.02689948896552748</v>
       </c>
       <c r="E44">
-        <v>2.067988364175604</v>
+        <v>1.821858831799603</v>
       </c>
       <c r="F44">
-        <v>-0.07487899301047897</v>
+        <v>0.04009945779815956</v>
       </c>
       <c r="G44">
-        <v>0.3479165167890061</v>
+        <v>0.2864561788812807</v>
       </c>
       <c r="H44">
-        <v>0.1073133681600414</v>
+        <v>0.0310214813088475</v>
       </c>
     </row>
     <row r="45">
@@ -1811,26 +1799,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.2355134509539061</v>
+        <v>0.1036615932079714</v>
       </c>
       <c r="D45">
-        <v>0.1658753982379803</v>
+        <v>0.02689948896552722</v>
       </c>
       <c r="E45">
-        <v>1.10064028424209</v>
+        <v>1.821858831799603</v>
       </c>
       <c r="F45">
-        <v>-0.8981513915231396</v>
+        <v>-0.02325069030783799</v>
       </c>
       <c r="G45">
-        <v>0.9597405740957132</v>
+        <v>0.2272857618466408</v>
       </c>
       <c r="H45">
-        <v>0.3689241970441406</v>
+        <v>0.07043260631198736</v>
       </c>
     </row>
     <row r="46">
@@ -1841,26 +1829,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.1790101014044065</v>
+        <v>0.2136088093755234</v>
       </c>
       <c r="D46">
-        <v>0.08378033871847221</v>
+        <v>0.06467866934441359</v>
       </c>
       <c r="E46">
-        <v>1.261164203821096</v>
+        <v>2.648745886164584</v>
       </c>
       <c r="F46">
-        <v>-0.4471564474389754</v>
+        <v>-0.005224420830085113</v>
       </c>
       <c r="G46">
-        <v>0.6874264697156323</v>
+        <v>0.4129178889529619</v>
       </c>
       <c r="H46">
-        <v>0.2329009391753364</v>
+        <v>0.05275619082846631</v>
       </c>
     </row>
     <row r="47">
@@ -1871,26 +1859,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.1883766113057751</v>
+        <v>-0.07225962892237235</v>
       </c>
       <c r="D47">
-        <v>0.07784107153851617</v>
+        <v>6.377998745479017e-17</v>
       </c>
       <c r="E47">
-        <v>2.272965133616848</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>-0.1081060749766943</v>
+        <v>-0.07225962892237316</v>
       </c>
       <c r="G47">
-        <v>0.4540872365889078</v>
+        <v>-0.07225962892237155</v>
       </c>
       <c r="H47">
-        <v>0.1189180399687069</v>
+        <v>5.609333051498821e-16</v>
       </c>
     </row>
     <row r="48">
@@ -1901,26 +1889,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorperformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.550632940739296</v>
+        <v>-0.154891154386987</v>
       </c>
       <c r="D48">
-        <v>0.1006937711014177</v>
+        <v>0.07934580916548267</v>
       </c>
       <c r="E48">
-        <v>1.876080245000677</v>
+        <v>3.934762628804807</v>
       </c>
       <c r="F48">
-        <v>-0.7936261108668412</v>
+        <v>-0.360878207089639</v>
       </c>
       <c r="G48">
-        <v>-0.1561381462346995</v>
+        <v>0.0655053528548928</v>
       </c>
       <c r="H48">
-        <v>0.02959702902884595</v>
+        <v>0.1216262487938891</v>
       </c>
     </row>
     <row r="49">
@@ -1931,26 +1919,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInvitation from others' to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.3427333989854162</v>
+        <v>0.09178731548589035</v>
       </c>
       <c r="D49">
-        <v>0.03859994450578026</v>
+        <v>0.02947767115498342</v>
       </c>
       <c r="E49">
-        <v>8.496424862850862</v>
+        <v>4.703671691429281</v>
       </c>
       <c r="F49">
-        <v>0.2627611401484448</v>
+        <v>0.01481194223032585</v>
       </c>
       <c r="G49">
-        <v>0.4180287116473568</v>
+        <v>0.1676811419585676</v>
       </c>
       <c r="H49">
-        <v>1.009180294322524e-05</v>
+        <v>0.02842984235617235</v>
       </c>
     </row>
     <row r="50">
@@ -1961,26 +1949,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.3688094736429406</v>
+        <v>0.05001706260711184</v>
       </c>
       <c r="D50">
-        <v>0.03767698571079293</v>
+        <v>0.02947767116005766</v>
       </c>
       <c r="E50">
-        <v>1.124688856998693</v>
+        <v>4.703671691429247</v>
       </c>
       <c r="F50">
-        <v>0.01719166468043657</v>
+        <v>-0.0271678457168942</v>
       </c>
       <c r="G50">
-        <v>0.6392447213742182</v>
+        <v>0.126609111006412</v>
       </c>
       <c r="H50">
-        <v>0.04752719788087851</v>
+        <v>0.1539064083576401</v>
       </c>
     </row>
     <row r="51">
@@ -1991,26 +1979,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.2990533092976689</v>
+        <v>0.1286853404654187</v>
       </c>
       <c r="D51">
-        <v>0.03062949656809057</v>
+        <v>0.04581268016772464</v>
       </c>
       <c r="E51">
-        <v>1.863581124907622</v>
+        <v>2.361077805280041</v>
       </c>
       <c r="F51">
-        <v>0.1654655412069204</v>
+        <v>-0.04144195869568272</v>
       </c>
       <c r="G51">
-        <v>0.4218647183338063</v>
+        <v>0.291560917712449</v>
       </c>
       <c r="H51">
-        <v>0.01224125526123109</v>
+        <v>0.08768029404809333</v>
       </c>
     </row>
     <row r="52">
@@ -2021,26 +2009,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2202082776306993</v>
+        <v>-0.2847589257334602</v>
       </c>
       <c r="D52">
-        <v>2.560359159132615e-17</v>
+        <v>0.02779474743467138</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>4.164669807344831</v>
       </c>
       <c r="F52">
-        <v>0.2202082776306989</v>
+        <v>-0.3529725812447138</v>
       </c>
       <c r="G52">
-        <v>0.2202082776306996</v>
+        <v>-0.213534095199407</v>
       </c>
       <c r="H52">
-        <v>7.280738509704013e-17</v>
+        <v>0.0003710310390651999</v>
       </c>
     </row>
     <row r="53">
@@ -2051,26 +2039,26 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2092656894920738</v>
+        <v>0.2802749166153557</v>
       </c>
       <c r="D53">
-        <v>0.1154159718491087</v>
+        <v>0.02779474743467144</v>
       </c>
       <c r="E53">
-        <v>1.074699137378359</v>
+        <v>4.164669807344844</v>
       </c>
       <c r="F53">
-        <v>-0.7754489637079286</v>
+        <v>0.2088785198081036</v>
       </c>
       <c r="G53">
-        <v>0.8973919061052698</v>
+        <v>0.3486994260987201</v>
       </c>
       <c r="H53">
-        <v>0.303461103108626</v>
+        <v>0.0003970302235418432</v>
       </c>
     </row>
     <row r="54">
@@ -2081,26 +2069,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2619938368735401</v>
+        <v>-0.04505530487849341</v>
       </c>
       <c r="D54">
-        <v>0.03684381803789274</v>
+        <v>3.722488292679134e-17</v>
       </c>
       <c r="E54">
-        <v>1.093812974638004</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>-0.1144016062924068</v>
+        <v>-0.04505530487849387</v>
       </c>
       <c r="G54">
-        <v>0.5726121073278398</v>
+        <v>-0.04505530487849294</v>
       </c>
       <c r="H54">
-        <v>0.0735634569656516</v>
+        <v>5.256218399028344e-16</v>
       </c>
     </row>
     <row r="55">
@@ -2111,26 +2099,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.3467024337002037</v>
+        <v>-0.43</v>
       </c>
       <c r="D55">
-        <v>0.05184601381627484</v>
-      </c>
-      <c r="E55">
-        <v>3.567798919938946</v>
-      </c>
-      <c r="F55">
-        <v>0.207539037148088</v>
-      </c>
-      <c r="G55">
-        <v>0.472110966082537</v>
-      </c>
-      <c r="H55">
-        <v>0.003358823661348698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2141,26 +2117,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.3003648693342598</v>
+        <v>0.2514433377160216</v>
       </c>
       <c r="D56">
-        <v>0.02808390431993914</v>
+        <v>0.04805075745340024</v>
       </c>
       <c r="E56">
-        <v>2.1411550208319</v>
+        <v>1.858797494055101</v>
       </c>
       <c r="F56">
-        <v>0.1939199244523157</v>
+        <v>0.03438945234376267</v>
       </c>
       <c r="G56">
-        <v>0.3998195654507647</v>
+        <v>0.4458454220022721</v>
       </c>
       <c r="H56">
-        <v>0.006345776436110478</v>
+        <v>0.03881407719384902</v>
       </c>
     </row>
     <row r="57">
@@ -2171,26 +2147,26 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2432524017107074</v>
+        <v>0.01198960386520322</v>
       </c>
       <c r="D57">
-        <v>0.06728558828453872</v>
+        <v>0.1751577155223692</v>
       </c>
       <c r="E57">
-        <v>7.152773937181059</v>
+        <v>2.117764450257917</v>
       </c>
       <c r="F57">
-        <v>0.08956866838927262</v>
+        <v>-0.6061944684250654</v>
       </c>
       <c r="G57">
-        <v>0.3856219860428606</v>
+        <v>0.6211425599235123</v>
       </c>
       <c r="H57">
-        <v>0.007473733444212025</v>
+        <v>0.9513435773267964</v>
       </c>
     </row>
     <row r="58">
@@ -2201,26 +2177,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.4601616963353457</v>
+        <v>-0.2851053347445097</v>
       </c>
       <c r="D58">
-        <v>0.1263222471032476</v>
+        <v>0.07838923445136317</v>
       </c>
       <c r="E58">
-        <v>1.601046812102728</v>
+        <v>1.174447744618313</v>
       </c>
       <c r="F58">
-        <v>-0.1962684754741054</v>
+        <v>-0.7613838564623367</v>
       </c>
       <c r="G58">
-        <v>0.8317787518884726</v>
+        <v>0.3910497493599771</v>
       </c>
       <c r="H58">
-        <v>0.08335065926857514</v>
+        <v>0.1366758808296878</v>
       </c>
     </row>
     <row r="59">
@@ -2231,26 +2207,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.3742683692655466</v>
+        <v>0.1430473969888013</v>
       </c>
       <c r="D59">
-        <v>0.0851744423770255</v>
+        <v>0.0412701998543454</v>
       </c>
       <c r="E59">
-        <v>6.238252476913601</v>
+        <v>1.18989181263681</v>
       </c>
       <c r="F59">
-        <v>0.1847321104657474</v>
+        <v>-0.2152181417325141</v>
       </c>
       <c r="G59">
-        <v>0.5369624625186407</v>
+        <v>0.4673755348608786</v>
       </c>
       <c r="H59">
-        <v>0.003276207291525689</v>
+        <v>0.145297741371896</v>
       </c>
     </row>
     <row r="60">
@@ -2261,14 +2237,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.27</v>
+        <v>0.2915759187760777</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>0.1343674871767272</v>
+      </c>
+      <c r="E60">
+        <v>2.170527863380352</v>
+      </c>
+      <c r="F60">
+        <v>-0.2321216987093635</v>
+      </c>
+      <c r="G60">
+        <v>0.6842201576997953</v>
+      </c>
+      <c r="H60">
+        <v>0.1449455624959109</v>
       </c>
     </row>
     <row r="61">
@@ -2279,26 +2267,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.1380888936890319</v>
+        <v>-0.03151782240311936</v>
       </c>
       <c r="D61">
-        <v>0.03062949656808997</v>
+        <v>0.09696146770877799</v>
       </c>
       <c r="E61">
-        <v>1.86358112490759</v>
+        <v>2.468790237916418</v>
       </c>
       <c r="F61">
-        <v>-0.002501882455700171</v>
+        <v>-0.3638247702401498</v>
       </c>
       <c r="G61">
-        <v>0.2733265786630234</v>
+        <v>0.3079061717450118</v>
       </c>
       <c r="H61">
-        <v>0.05158575461864269</v>
+        <v>0.7706066856426339</v>
       </c>
     </row>
     <row r="62">
@@ -2309,26 +2297,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.07545723585485645</v>
+        <v>0.1267858582772571</v>
       </c>
       <c r="D62">
-        <v>0.03062949656809046</v>
+        <v>0.02947767116022822</v>
       </c>
       <c r="E62">
-        <v>1.863581124907608</v>
+        <v>4.703671691429306</v>
       </c>
       <c r="F62">
-        <v>-0.06578260521861971</v>
+        <v>0.05019624236096919</v>
       </c>
       <c r="G62">
-        <v>0.2137328359283559</v>
+        <v>0.2018929911401634</v>
       </c>
       <c r="H62">
-        <v>0.1413801269701698</v>
+        <v>0.008656849681768809</v>
       </c>
     </row>
     <row r="63">
@@ -2339,26 +2327,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.2684808405862452</v>
+        <v>0.0925044882029647</v>
       </c>
       <c r="D63">
-        <v>0.03958097225633714</v>
+        <v>0.02247072089739326</v>
       </c>
       <c r="E63">
-        <v>2.543784364864242</v>
+        <v>1.097405265513069</v>
       </c>
       <c r="F63">
-        <v>0.1346422955098146</v>
+        <v>-0.1384101032627684</v>
       </c>
       <c r="G63">
-        <v>0.3926988459753437</v>
+        <v>0.313880009184987</v>
       </c>
       <c r="H63">
-        <v>0.0102020430884604</v>
+        <v>0.1341291837067571</v>
       </c>
     </row>
     <row r="64">
@@ -2369,26 +2357,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C64">
-        <v>-0.07225962892237234</v>
+        <v>0.1554450834706603</v>
       </c>
       <c r="D64">
-        <v>6.849643514126578e-17</v>
+        <v>0.0268994889655273</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>1.821858831799603</v>
       </c>
       <c r="F64">
-        <v>-0.07225962892237321</v>
+        <v>0.02941688668806731</v>
       </c>
       <c r="G64">
-        <v>-0.07225962892237146</v>
+        <v>0.2766084376630905</v>
       </c>
       <c r="H64">
-        <v>6.024135984976443e-16</v>
+        <v>0.03483732668595106</v>
       </c>
     </row>
     <row r="65">
@@ -2399,26 +2387,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.02670579771332519</v>
+        <v>0.1250794163032972</v>
       </c>
       <c r="D65">
-        <v>0.04820489118491012</v>
+        <v>4.141412422499575e-17</v>
       </c>
       <c r="E65">
-        <v>1.073636702138643</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>-0.499274174665863</v>
+        <v>0.1250794163032967</v>
       </c>
       <c r="G65">
-        <v>0.4581083273169028</v>
+        <v>0.1250794163032978</v>
       </c>
       <c r="H65">
-        <v>0.6726758122608796</v>
+        <v>2.096826179635238e-16</v>
       </c>
     </row>
     <row r="66">
@@ -2429,26 +2417,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C66">
-        <v>-0.1837633238422559</v>
+        <v>0.2291898739973034</v>
       </c>
       <c r="D66">
-        <v>0.1006000362937969</v>
+        <v>0.02594212456116521</v>
       </c>
       <c r="E66">
-        <v>1.936179463342739</v>
+        <v>1.280437158509066</v>
       </c>
       <c r="F66">
-        <v>-0.5598988918915258</v>
+        <v>0.03364399703832962</v>
       </c>
       <c r="G66">
-        <v>0.2551711273664992</v>
+        <v>0.4078352535083917</v>
       </c>
       <c r="H66">
-        <v>0.2100625159680451</v>
+        <v>0.04106288021235818</v>
       </c>
     </row>
     <row r="67">
@@ -2459,26 +2447,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorPrior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.018262111802126</v>
+        <v>0.05850118159008933</v>
       </c>
       <c r="D67">
-        <v>0.03691065567522382</v>
+        <v>0.02947767121561473</v>
       </c>
       <c r="E67">
-        <v>2.555033848302753</v>
+        <v>4.70367169142926</v>
       </c>
       <c r="F67">
-        <v>-0.1112055997188663</v>
+        <v>-0.01866314339862283</v>
       </c>
       <c r="G67">
-        <v>0.1471202873999204</v>
+        <v>0.1349727193199952</v>
       </c>
       <c r="H67">
-        <v>0.6600891240483417</v>
+        <v>0.1072592029979644</v>
       </c>
     </row>
     <row r="68">
@@ -2489,26 +2477,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorlow personal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.02371896647094369</v>
+        <v>0.1279470442603562</v>
       </c>
       <c r="D68">
-        <v>0.03691065559066357</v>
+        <v>0.03427111635550614</v>
       </c>
       <c r="E68">
-        <v>2.555033848302785</v>
+        <v>3.470294981588781</v>
       </c>
       <c r="F68">
-        <v>-0.1524570587799973</v>
+        <v>0.02748236797637423</v>
       </c>
       <c r="G68">
-        <v>0.105810617226642</v>
+        <v>0.2258528373429095</v>
       </c>
       <c r="H68">
-        <v>0.5733621466667661</v>
+        <v>0.0256174107172529</v>
       </c>
     </row>
     <row r="69">
@@ -2519,26 +2507,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.06724432524943626</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D69">
-        <v>0.06243677215798357</v>
-      </c>
-      <c r="E69">
-        <v>2.231643894113191</v>
-      </c>
-      <c r="F69">
-        <v>-0.174464808237481</v>
-      </c>
-      <c r="G69">
-        <v>0.301310089515868</v>
-      </c>
-      <c r="H69">
-        <v>0.3834132158482985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2549,26 +2525,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.2924032393000822</v>
+        <v>-0.1885907610487368</v>
       </c>
       <c r="D70">
-        <v>0.03036517703175367</v>
+        <v>0.06046175137850184</v>
       </c>
       <c r="E70">
-        <v>4.949594066109251</v>
+        <v>2.005316634650642</v>
       </c>
       <c r="F70">
-        <v>-0.3622627847592935</v>
+        <v>-0.4221962306274832</v>
       </c>
       <c r="G70">
-        <v>-0.2192768514819596</v>
+        <v>0.06850307305515696</v>
       </c>
       <c r="H70">
-        <v>0.000188135390906523</v>
+        <v>0.08708874300973626</v>
       </c>
     </row>
     <row r="71">
@@ -2579,26 +2555,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.2725733253189676</v>
+        <v>0.1975401087851637</v>
       </c>
       <c r="D71">
-        <v>0.03036517703175337</v>
+        <v>0.0553053912732423</v>
       </c>
       <c r="E71">
-        <v>4.949594066109276</v>
+        <v>3.450930922821743</v>
       </c>
       <c r="F71">
-        <v>0.1986682632567073</v>
+        <v>0.03647067090619175</v>
       </c>
       <c r="G71">
-        <v>0.3433959959046682</v>
+        <v>0.3486060553154333</v>
       </c>
       <c r="H71">
-        <v>0.0002673100081216723</v>
+        <v>0.02873339924971732</v>
       </c>
     </row>
     <row r="72">
@@ -2609,674 +2585,686 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.04505530487849334</v>
+        <v>-0.2387352576612265</v>
       </c>
       <c r="D72">
-        <v>2.424578776547998e-17</v>
+        <v>0.1333510938918664</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>1.984616926185875</v>
       </c>
       <c r="F72">
-        <v>-0.04505530487849364</v>
+        <v>-0.6758740239630275</v>
       </c>
       <c r="G72">
-        <v>-0.04505530487849304</v>
+        <v>0.3226604846209631</v>
       </c>
       <c r="H72">
-        <v>3.423547523372623e-16</v>
+        <v>0.2104475666949276</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorAmotivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.2220968099393537</v>
+        <v>0.3172606271151935</v>
       </c>
       <c r="D73">
-        <v>0.1516542974413642</v>
+        <v>0.06101212904046931</v>
       </c>
       <c r="E73">
-        <v>1.014770874250031</v>
+        <v>3.809790617386358</v>
       </c>
       <c r="F73">
-        <v>-0.9269191995103299</v>
+        <v>0.1545644297931879</v>
       </c>
       <c r="G73">
-        <v>0.9697317878376307</v>
+        <v>0.4632042332840733</v>
       </c>
       <c r="H73">
-        <v>0.37390366256308</v>
+        <v>0.006594716536739297</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.2630089255754785</v>
+        <v>-0.08760883987147597</v>
       </c>
       <c r="D74">
-        <v>0.04616297975311846</v>
+        <v>0.09104022836392565</v>
       </c>
       <c r="E74">
-        <v>1.222999179612075</v>
+        <v>1.089444646707662</v>
       </c>
       <c r="F74">
-        <v>-0.1156144539277542</v>
+        <v>-0.778929366387311</v>
       </c>
       <c r="G74">
-        <v>0.5748992301249671</v>
+        <v>0.6998335975022618</v>
       </c>
       <c r="H74">
-        <v>0.0769297011433997</v>
+        <v>0.5006057373903589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.08462248165427952</v>
+        <v>-0.07387167330971892</v>
       </c>
       <c r="D75">
-        <v>0.2740438259384911</v>
+        <v>0.03505397892688213</v>
       </c>
       <c r="E75">
-        <v>1.020572413078036</v>
+        <v>13.11927323867098</v>
       </c>
       <c r="F75">
-        <v>-0.9969104558998992</v>
+        <v>-0.1485584971674061</v>
       </c>
       <c r="G75">
-        <v>0.9977984388293338</v>
+        <v>0.001653099956783454</v>
       </c>
       <c r="H75">
-        <v>0.8080968243698312</v>
+        <v>0.05449973788379206</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.2449702234838083</v>
+        <v>0.3539556655948705</v>
       </c>
       <c r="D76">
-        <v>0.03623945339705099</v>
+        <v>0.153352193369761</v>
       </c>
       <c r="E76">
-        <v>3.849443266311018</v>
+        <v>1.089444646707661</v>
       </c>
       <c r="F76">
-        <v>-0.3383631226334055</v>
+        <v>-0.8449879761530267</v>
       </c>
       <c r="G76">
-        <v>-0.1467985062875813</v>
+        <v>0.9624604963332668</v>
       </c>
       <c r="H76">
-        <v>0.002660532411800886</v>
+        <v>0.2333998666642725</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.2824279329120751</v>
+        <v>0.1456719082070118</v>
       </c>
       <c r="D77">
-        <v>0.09329700831890683</v>
+        <v>0.04853614386435738</v>
       </c>
       <c r="E77">
-        <v>1.258033796698151</v>
+        <v>11.43490700438348</v>
       </c>
       <c r="F77">
-        <v>-0.7742524075414948</v>
+        <v>0.04035998733128583</v>
       </c>
       <c r="G77">
-        <v>0.4220810245939913</v>
+        <v>0.2477829369465531</v>
       </c>
       <c r="H77">
-        <v>0.1552515953551041</v>
+        <v>0.01114084416727627</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1232165094917483</v>
+        <v>-0.2838262370931707</v>
       </c>
       <c r="D78">
-        <v>0.05190449536772592</v>
+        <v>0.04633757788378728</v>
       </c>
       <c r="E78">
-        <v>1.029488213932145</v>
+        <v>2.862790339797637</v>
       </c>
       <c r="F78">
-        <v>-0.4563215895248783</v>
+        <v>-0.4164469333074104</v>
       </c>
       <c r="G78">
-        <v>0.6293549011801343</v>
+        <v>-0.1393783864022285</v>
       </c>
       <c r="H78">
-        <v>0.2468901033889095</v>
+        <v>0.009283199190158827</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorEntity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.1040512199300244</v>
+        <v>0.219586445408656</v>
       </c>
       <c r="D79">
-        <v>0.1041564533660484</v>
+        <v>0.02716735803546413</v>
       </c>
       <c r="E79">
-        <v>1.086589208313628</v>
+        <v>1.020829643257693</v>
       </c>
       <c r="F79">
-        <v>-0.7590818742147885</v>
+        <v>-0.1053720780387249</v>
       </c>
       <c r="G79">
-        <v>0.8345380748397592</v>
+        <v>0.5021730921276775</v>
       </c>
       <c r="H79">
-        <v>0.4883408666292807</v>
+        <v>0.07408353444503307</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.4173208260370228</v>
+        <v>0.0483234178327093</v>
       </c>
       <c r="D80">
-        <v>0.1126137842808003</v>
+        <v>0.0528983723784187</v>
       </c>
       <c r="E80">
-        <v>1.177419358129334</v>
+        <v>3.316686890966102</v>
       </c>
       <c r="F80">
-        <v>-0.5118716557837509</v>
+        <v>-0.1107904019196765</v>
       </c>
       <c r="G80">
-        <v>0.8965103375806731</v>
+        <v>0.20502191193371</v>
       </c>
       <c r="H80">
-        <v>0.1283223889104668</v>
+        <v>0.4221102347447038</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.09159029492921322</v>
+        <v>0.2762361607410582</v>
       </c>
       <c r="D81">
-        <v>0.07757992905044951</v>
+        <v>0.03612144139622149</v>
       </c>
       <c r="E81">
-        <v>2.34449652485546</v>
+        <v>4.032659281060646</v>
       </c>
       <c r="F81">
-        <v>-0.3651215080836779</v>
+        <v>0.1815963637411262</v>
       </c>
       <c r="G81">
-        <v>0.1964978660308458</v>
+        <v>0.3658058469333125</v>
       </c>
       <c r="H81">
-        <v>0.3425376698432053</v>
+        <v>0.001374642069904381</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.05363805362608427</v>
+        <v>0.245626544102011</v>
       </c>
       <c r="D82">
-        <v>0.03691065558782622</v>
+        <v>0.09918890712985565</v>
       </c>
       <c r="E82">
-        <v>2.555033848302786</v>
+        <v>1.745825132311438</v>
       </c>
       <c r="F82">
-        <v>-0.07609462129286658</v>
+        <v>-0.2368757998571139</v>
       </c>
       <c r="G82">
-        <v>0.1815849264097648</v>
+        <v>0.6309349906142828</v>
       </c>
       <c r="H82">
-        <v>0.2566376959683126</v>
+        <v>0.1450658612506247</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorHarmonious passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C83">
-        <v>0.1007842831477807</v>
+        <v>0.05997500097129725</v>
       </c>
       <c r="D83">
-        <v>0.01164736662325574</v>
+        <v>0.06056735587003757</v>
       </c>
       <c r="E83">
-        <v>1.085281591838442</v>
+        <v>1.389091225757058</v>
       </c>
       <c r="F83">
-        <v>-0.0220217887377527</v>
+        <v>-0.3346361250424322</v>
       </c>
       <c r="G83">
-        <v>0.2205941661941824</v>
+        <v>0.4366904555903774</v>
       </c>
       <c r="H83">
-        <v>0.0618164384063742</v>
+        <v>0.4626637649787901</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.1275821308580659</v>
+        <v>0.2820204912688303</v>
       </c>
       <c r="D84">
-        <v>0.03062949656809052</v>
+        <v>0.0848263139975482</v>
       </c>
       <c r="E84">
-        <v>1.863581124907613</v>
+        <v>7.615002109996202</v>
       </c>
       <c r="F84">
-        <v>-0.01319671650240164</v>
+        <v>0.09226791850415078</v>
       </c>
       <c r="G84">
-        <v>0.2634013872189991</v>
+        <v>0.4520075881977656</v>
       </c>
       <c r="H84">
-        <v>0.05929452287958908</v>
+        <v>0.009829301734369539</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C85">
-        <v>0.1250794163032973</v>
+        <v>-0.05765540901017266</v>
       </c>
       <c r="D85">
-        <v>4.274685597025615e-17</v>
+        <v>0.0136969858597234</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>1.405235653456243</v>
       </c>
       <c r="F85">
-        <v>0.1250794163032967</v>
+        <v>-0.1473017487341843</v>
       </c>
       <c r="G85">
-        <v>0.1250794163032978</v>
+        <v>0.03293045740086996</v>
       </c>
       <c r="H85">
-        <v>2.16430332339206e-16</v>
+        <v>0.0922303247243179</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C86">
-        <v>0.2358231915482797</v>
+        <v>0.1461663315537759</v>
       </c>
       <c r="D86">
-        <v>0.03272144963807104</v>
+        <v>0.05696705322193706</v>
       </c>
       <c r="E86">
-        <v>1.0509946945224</v>
+        <v>1.009011109599827</v>
       </c>
       <c r="F86">
-        <v>-0.1299121191721205</v>
+        <v>-0.5091011424144473</v>
       </c>
       <c r="G86">
-        <v>0.5450723785610925</v>
+        <v>0.6941689060903706</v>
       </c>
       <c r="H86">
-        <v>0.07859644091196502</v>
+        <v>0.2332450068101272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>specific_factorprior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C87">
-        <v>-0.01521301983227362</v>
+        <v>-0.04957168826145732</v>
       </c>
       <c r="D87">
-        <v>0.03691065466488819</v>
+        <v>0.07922841584768346</v>
       </c>
       <c r="E87">
-        <v>2.555033848302771</v>
+        <v>1.745825132311438</v>
       </c>
       <c r="F87">
-        <v>-0.1441350191377723</v>
+        <v>-0.4159421893464746</v>
       </c>
       <c r="G87">
-        <v>0.1142167965686276</v>
+        <v>0.3306434684451649</v>
       </c>
       <c r="H87">
-        <v>0.7122889184306987</v>
+        <v>0.6031034520615171</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C88">
-        <v>0.0472479063451255</v>
+        <v>-0.2775282917239709</v>
       </c>
       <c r="D88">
-        <v>0.04656688227768507</v>
+        <v>0.0366205421817633</v>
       </c>
       <c r="E88">
-        <v>1.928105652907652</v>
+        <v>2.810902189420046</v>
       </c>
       <c r="F88">
-        <v>-0.15904860969467</v>
+        <v>-0.3851633785847572</v>
       </c>
       <c r="G88">
-        <v>0.2495910873732094</v>
+        <v>-0.1624438921031845</v>
       </c>
       <c r="H88">
-        <v>0.4201578052714084</v>
+        <v>0.005541386641253338</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.2060074486605969</v>
+        <v>0.269025021399696</v>
       </c>
       <c r="D89">
-        <v>0.02362072415267258</v>
+        <v>0.03252474039490601</v>
       </c>
       <c r="E89">
-        <v>1.085281591838441</v>
+        <v>7.326546723624664</v>
       </c>
       <c r="F89">
-        <v>-0.04073199753076066</v>
+        <v>0.1969842877550007</v>
       </c>
       <c r="G89">
-        <v>0.4290657114136929</v>
+        <v>0.3381762209773947</v>
       </c>
       <c r="H89">
-        <v>0.06057322086604799</v>
+        <v>4.82149222512909e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.6899999999999999</v>
+        <v>-0.1157518278424628</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>0.03006805802181409</v>
+      </c>
+      <c r="E90">
+        <v>9.67291674159358</v>
+      </c>
+      <c r="F90">
+        <v>-0.1815423531889186</v>
+      </c>
+      <c r="G90">
+        <v>-0.04892973052706973</v>
+      </c>
+      <c r="H90">
+        <v>0.003324108311380264</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C91">
-        <v>-0.1973417340286827</v>
+        <v>0.3027838912907984</v>
       </c>
       <c r="D91">
-        <v>0.06421287808811421</v>
+        <v>0.01966596873713376</v>
       </c>
       <c r="E91">
-        <v>2.000340170911225</v>
+        <v>2.094763495973016</v>
       </c>
       <c r="F91">
-        <v>-0.4431997814040895</v>
+        <v>0.2274798967930413</v>
       </c>
       <c r="G91">
-        <v>0.07612806314566893</v>
+        <v>0.3744880291827201</v>
       </c>
       <c r="H91">
-        <v>0.08947292251498414</v>
+        <v>0.003223588416211534</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>specific_factorwell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorObsessive passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.0963680368655291</v>
+        <v>0.2496267871004409</v>
       </c>
       <c r="D92">
-        <v>0.03691065659494833</v>
+        <v>0.0605673558700368</v>
       </c>
       <c r="E92">
-        <v>2.555033848302768</v>
+        <v>1.389091225757059</v>
       </c>
       <c r="F92">
-        <v>-0.03325130204436483</v>
+        <v>-0.1518878059775209</v>
       </c>
       <c r="G92">
-        <v>0.2227992233758658</v>
+        <v>0.5804239265719493</v>
       </c>
       <c r="H92">
-        <v>0.09337648191897786</v>
+        <v>0.09395444208523832</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.2560999853891113</v>
+        <v>-0.6079163906557398</v>
       </c>
       <c r="D93">
-        <v>0.06867172966944736</v>
+        <v>0.01891774007639166</v>
       </c>
       <c r="E93">
-        <v>2.066644159369846</v>
+        <v>1.424299257265951</v>
       </c>
       <c r="F93">
-        <v>-0.02458992373371434</v>
+        <v>-0.6795633290087576</v>
       </c>
       <c r="G93">
-        <v>0.4993615164742793</v>
+        <v>-0.5247824194762084</v>
       </c>
       <c r="H93">
-        <v>0.05921945821668672</v>
+        <v>0.004206728378137976</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33</t>
+          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C94">
-        <v>-0.2417029814644035</v>
+        <v>-0.1747213391972904</v>
       </c>
       <c r="D94">
-        <v>0.1332163750031072</v>
+        <v>0.1392769006221135</v>
       </c>
       <c r="E94">
-        <v>1.970581013679773</v>
+        <v>4.941631635608992</v>
       </c>
       <c r="F94">
-        <v>-0.6794246389062955</v>
+        <v>-0.4898256437458487</v>
       </c>
       <c r="G94">
-        <v>0.3228994087974902</v>
+        <v>0.180757608168949</v>
       </c>
       <c r="H94">
-        <v>0.2072691796255714</v>
+        <v>0.261421146577105</v>
       </c>
     </row>
     <row r="95">
@@ -3287,26 +3275,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.3213719196346431</v>
+        <v>0.04549903436700507</v>
       </c>
       <c r="D95">
-        <v>0.06094484276064233</v>
+        <v>0.03972958215474733</v>
       </c>
       <c r="E95">
-        <v>3.8542111611241</v>
+        <v>1.054138153614816</v>
       </c>
       <c r="F95">
-        <v>0.160024563093714</v>
+        <v>-0.3816204775447232</v>
       </c>
       <c r="G95">
-        <v>0.4659938555568114</v>
+        <v>0.4566068511159873</v>
       </c>
       <c r="H95">
-        <v>0.006059837894196121</v>
+        <v>0.4490688277096945</v>
       </c>
     </row>
     <row r="96">
@@ -3317,26 +3305,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C96">
-        <v>-0.03340310341938222</v>
+        <v>0.573364284239391</v>
       </c>
       <c r="D96">
-        <v>0.04294409603845879</v>
+        <v>0.3831289604138127</v>
       </c>
       <c r="E96">
-        <v>1.090932430483824</v>
+        <v>1.009656756802169</v>
       </c>
       <c r="F96">
-        <v>-0.4482457444071439</v>
+        <v>-0.9994584045679105</v>
       </c>
       <c r="G96">
-        <v>0.3932778081058561</v>
+        <v>0.9999601672941307</v>
       </c>
       <c r="H96">
-        <v>0.5700392815892614</v>
+        <v>0.3362283235100698</v>
       </c>
     </row>
     <row r="97">
@@ -3347,26 +3335,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C97">
-        <v>-0.06175923803191247</v>
+        <v>0.2241763998687348</v>
       </c>
       <c r="D97">
-        <v>0.1229279058924556</v>
+        <v>0.02729412714781666</v>
       </c>
       <c r="E97">
-        <v>1.964510896074006</v>
+        <v>2.912563134495581</v>
       </c>
       <c r="F97">
-        <v>-0.5370615072626658</v>
+        <v>0.1387914759260118</v>
       </c>
       <c r="G97">
-        <v>0.4433083811723406</v>
+        <v>0.3062529601629457</v>
       </c>
       <c r="H97">
-        <v>0.6656573411477351</v>
+        <v>0.004012495137280634</v>
       </c>
     </row>
     <row r="98">
@@ -3377,26 +3365,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C98">
-        <v>-0.07738527380719269</v>
+        <v>0.02554141823474158</v>
       </c>
       <c r="D98">
-        <v>0.03964637548618329</v>
+        <v>0.05379057324073486</v>
       </c>
       <c r="E98">
-        <v>10.66546815742045</v>
+        <v>2.178875481649345</v>
       </c>
       <c r="F98">
-        <v>-0.1636515883506016</v>
+        <v>-0.1864026912636029</v>
       </c>
       <c r="G98">
-        <v>0.01005553887188045</v>
+        <v>0.2352139825881823</v>
       </c>
       <c r="H98">
-        <v>0.07718269807419943</v>
+        <v>0.6782208099889575</v>
       </c>
     </row>
     <row r="99">
@@ -3407,26 +3395,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C99">
-        <v>0.4006116265790235</v>
+        <v>-0.2170710946397655</v>
       </c>
       <c r="D99">
-        <v>0.2075078492842662</v>
+        <v>0.03692847825688542</v>
       </c>
       <c r="E99">
-        <v>1.090932430483821</v>
+        <v>1.046562565741055</v>
       </c>
       <c r="F99">
-        <v>-0.9408764568202093</v>
+        <v>-0.5670968603983155</v>
       </c>
       <c r="G99">
-        <v>0.9889042259076309</v>
+        <v>0.1993661761732629</v>
       </c>
       <c r="H99">
-        <v>0.2729161170901843</v>
+        <v>0.09802357756143674</v>
       </c>
     </row>
     <row r="100">
@@ -3437,26 +3425,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C100">
-        <v>-0.1060694315205901</v>
+        <v>-0.143848608582848</v>
       </c>
       <c r="D100">
-        <v>0.1193316229429795</v>
+        <v>0.03660896117348412</v>
       </c>
       <c r="E100">
-        <v>1.204699340987006</v>
+        <v>3.074500534654408</v>
       </c>
       <c r="F100">
-        <v>-0.8113742036674919</v>
+        <v>-0.2540882640885485</v>
       </c>
       <c r="G100">
-        <v>0.7249964412433864</v>
+        <v>-0.02991926205228272</v>
       </c>
       <c r="H100">
-        <v>0.5148101723800613</v>
+        <v>0.0275428901961127</v>
       </c>
     </row>
     <row r="101">
@@ -3467,26 +3455,26 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.1760576973856074</v>
+        <v>0.05693453605158456</v>
       </c>
       <c r="D101">
-        <v>0.04547501223236929</v>
+        <v>0.05163283265875571</v>
       </c>
       <c r="E101">
-        <v>10.30793937031219</v>
+        <v>1.009829217054164</v>
       </c>
       <c r="F101">
-        <v>0.07684371574069833</v>
+        <v>-0.5256836448776656</v>
       </c>
       <c r="G101">
-        <v>0.2718192585810713</v>
+        <v>0.6031947606478354</v>
       </c>
       <c r="H101">
-        <v>0.002740136792440075</v>
+        <v>0.4671951575923559</v>
       </c>
     </row>
     <row r="102">
@@ -3497,26 +3485,26 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C102">
-        <v>-0.3602634902429828</v>
+        <v>-0.03422979338766721</v>
       </c>
       <c r="D102">
-        <v>0.07703608794289488</v>
+        <v>0.01695987657721115</v>
       </c>
       <c r="E102">
-        <v>1.338306467362715</v>
+        <v>1.072820920110757</v>
       </c>
       <c r="F102">
-        <v>-0.7295890632255496</v>
+        <v>-0.2146761381824847</v>
       </c>
       <c r="G102">
-        <v>0.1717515084094258</v>
+        <v>0.1484762179277813</v>
       </c>
       <c r="H102">
-        <v>0.08185890178075055</v>
+        <v>0.2793294403462695</v>
       </c>
     </row>
     <row r="103">
@@ -3527,26 +3515,26 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C103">
-        <v>-0.2259421422486989</v>
+        <v>-0.1098406162118828</v>
       </c>
       <c r="D103">
-        <v>0.03348163116095076</v>
+        <v>0.05984638214643444</v>
       </c>
       <c r="E103">
-        <v>1.998308825214977</v>
+        <v>1.505385136290033</v>
       </c>
       <c r="F103">
-        <v>-0.3575604073962408</v>
+        <v>-0.4370372445360417</v>
       </c>
       <c r="G103">
-        <v>-0.08552299218825624</v>
+        <v>0.2430297163624587</v>
       </c>
       <c r="H103">
-        <v>0.02060185897608172</v>
+        <v>0.2463545053734879</v>
       </c>
     </row>
     <row r="104">
@@ -3557,26 +3545,26 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C104">
-        <v>0.2142006704233923</v>
+        <v>0.4265432913440393</v>
       </c>
       <c r="D104">
-        <v>0.03860909152812594</v>
+        <v>0.1072126178549532</v>
       </c>
       <c r="E104">
-        <v>1.027122131319363</v>
+        <v>1.026356990101047</v>
       </c>
       <c r="F104">
-        <v>-0.2387306076213113</v>
+        <v>-0.6786738071858951</v>
       </c>
       <c r="G104">
-        <v>0.5905872463085541</v>
+        <v>0.9399917366456125</v>
       </c>
       <c r="H104">
-        <v>0.1072068575291516</v>
+        <v>0.1422179266789466</v>
       </c>
     </row>
     <row r="105">
@@ -3587,26 +3575,26 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C105">
-        <v>0.04458768284975944</v>
+        <v>-0.1934329404853723</v>
       </c>
       <c r="D105">
-        <v>0.04899761433053499</v>
+        <v>0.04086868505160017</v>
       </c>
       <c r="E105">
-        <v>3.341019627025006</v>
+        <v>3.958698691057807</v>
       </c>
       <c r="F105">
-        <v>-0.1023270420237218</v>
+        <v>-0.3002907831978572</v>
       </c>
       <c r="G105">
-        <v>0.189598807230017</v>
+        <v>-0.08177998814305308</v>
       </c>
       <c r="H105">
-        <v>0.4233568013625271</v>
+        <v>0.008916725405729662</v>
       </c>
     </row>
     <row r="106">
@@ -3617,26 +3605,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C106">
-        <v>0.295970891734748</v>
+        <v>-0.1329948183901772</v>
       </c>
       <c r="D106">
-        <v>0.1060894798360717</v>
+        <v>0.1082270414431392</v>
       </c>
       <c r="E106">
-        <v>1.00493698219265</v>
+        <v>1.221596182205328</v>
       </c>
       <c r="F106">
-        <v>-0.7728424469932186</v>
+        <v>-0.7776544970156907</v>
       </c>
       <c r="G106">
-        <v>0.9271283800307757</v>
+        <v>0.6479946574382427</v>
       </c>
       <c r="H106">
-        <v>0.2120520827944498</v>
+        <v>0.4032166785734281</v>
       </c>
     </row>
     <row r="107">
@@ -3647,26 +3635,26 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C107">
-        <v>0.2548829591788749</v>
+        <v>0.2157100219747173</v>
       </c>
       <c r="D107">
-        <v>0.009984882064592561</v>
+        <v>0.1058532574014014</v>
       </c>
       <c r="E107">
-        <v>2.024387204069632</v>
+        <v>1.082973325820977</v>
       </c>
       <c r="F107">
-        <v>0.2147625048914606</v>
+        <v>-0.7188102212764147</v>
       </c>
       <c r="G107">
-        <v>0.2941446415649888</v>
+        <v>0.8725064368798907</v>
       </c>
       <c r="H107">
-        <v>0.001374283259507484</v>
+        <v>0.2711788440369076</v>
       </c>
     </row>
     <row r="108">
@@ -3677,26 +3665,26 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C108">
-        <v>0.3075030701740047</v>
+        <v>0.2334353605135842</v>
       </c>
       <c r="D108">
-        <v>0.1811555417380631</v>
+        <v>0.01314346371374893</v>
       </c>
       <c r="E108">
-        <v>1.005743850732209</v>
+        <v>1.013328955345737</v>
       </c>
       <c r="F108">
-        <v>-0.9605660437812931</v>
+        <v>0.07577332830251764</v>
       </c>
       <c r="G108">
-        <v>0.988779151417429</v>
+        <v>0.3797099192383883</v>
       </c>
       <c r="H108">
-        <v>0.3287751145957176</v>
+        <v>0.03390548976472171</v>
       </c>
     </row>
     <row r="109">
@@ -3707,26 +3695,26 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInvitation from others' to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.05455250101526051</v>
+        <v>-0.106662769577286</v>
       </c>
       <c r="D109">
-        <v>0.05249419809621167</v>
+        <v>0.03274626631900655</v>
       </c>
       <c r="E109">
-        <v>1.435944648589399</v>
+        <v>1.500834094909921</v>
       </c>
       <c r="F109">
-        <v>-0.2745147435136239</v>
+        <v>-0.2949141248783239</v>
       </c>
       <c r="G109">
-        <v>0.3721818959770434</v>
+        <v>0.08955931608001509</v>
       </c>
       <c r="H109">
-        <v>0.4418813313738347</v>
+        <v>0.1187567066938496</v>
       </c>
     </row>
     <row r="110">
@@ -3737,26 +3725,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C110">
-        <v>0.283478992722852</v>
+        <v>-0.0318616866048531</v>
       </c>
       <c r="D110">
-        <v>0.09027028655165646</v>
+        <v>0.03274626622865572</v>
       </c>
       <c r="E110">
-        <v>6.674141188667189</v>
+        <v>1.500834094909923</v>
       </c>
       <c r="F110">
-        <v>0.07572949486287277</v>
+        <v>-0.2248347099144725</v>
       </c>
       <c r="G110">
-        <v>0.4676414108270757</v>
+        <v>0.163516320413345</v>
       </c>
       <c r="H110">
-        <v>0.0154604881857176</v>
+        <v>0.4608081719077856</v>
       </c>
     </row>
     <row r="111">
@@ -3767,26 +3755,26 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C111">
-        <v>-0.05484696338090734</v>
+        <v>-0.09607255769266287</v>
       </c>
       <c r="D111">
-        <v>0.01465530479439242</v>
+        <v>0.05342153155550942</v>
       </c>
       <c r="E111">
-        <v>1.478920640451951</v>
+        <v>1.771761475350543</v>
       </c>
       <c r="F111">
-        <v>-0.1438550944868532</v>
+        <v>-0.3426276893935189</v>
       </c>
       <c r="G111">
-        <v>0.03504145497890528</v>
+        <v>0.162863797092972</v>
       </c>
       <c r="H111">
-        <v>0.1004399415335035</v>
+        <v>0.2289470441038015</v>
       </c>
     </row>
     <row r="112">
@@ -3797,26 +3785,26 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C112">
-        <v>0.1501940457341633</v>
+        <v>0.3542683938922949</v>
       </c>
       <c r="D112">
-        <v>0.0440761486757006</v>
+        <v>0.02249680411726453</v>
       </c>
       <c r="E112">
-        <v>1.011858337801991</v>
+        <v>1.067922088874126</v>
       </c>
       <c r="F112">
-        <v>-0.3743112165497881</v>
+        <v>0.1234129567624198</v>
       </c>
       <c r="G112">
-        <v>0.6018898594062355</v>
+        <v>0.5487475154463645</v>
       </c>
       <c r="H112">
-        <v>0.1780918685217679</v>
+        <v>0.03240037313733163</v>
       </c>
     </row>
     <row r="113">
@@ -3827,26 +3815,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C113">
-        <v>0.02603635003140912</v>
+        <v>-0.2786027036937547</v>
       </c>
       <c r="D113">
-        <v>0.1165052045281339</v>
+        <v>0.01120849145182959</v>
       </c>
       <c r="E113">
-        <v>1.005743850732208</v>
+        <v>1.775640624407232</v>
       </c>
       <c r="F113">
-        <v>-0.8925784031251128</v>
+        <v>-0.3281287775975262</v>
       </c>
       <c r="G113">
-        <v>0.9026882328129895</v>
+        <v>-0.2275491877072635</v>
       </c>
       <c r="H113">
-        <v>0.8598378065477044</v>
+        <v>0.002759216793284088</v>
       </c>
     </row>
     <row r="114">
@@ -3857,26 +3845,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C114">
-        <v>-0.1980296145418824</v>
+        <v>0.2096401775152771</v>
       </c>
       <c r="D114">
-        <v>0.04274713957997631</v>
+        <v>0.02809356837052066</v>
       </c>
       <c r="E114">
-        <v>2.083992895730588</v>
+        <v>1.035612598088959</v>
       </c>
       <c r="F114">
-        <v>-0.3606933702762423</v>
+        <v>-0.1159042986132197</v>
       </c>
       <c r="G114">
-        <v>-0.02367465147088505</v>
+        <v>0.4945135757080175</v>
       </c>
       <c r="H114">
-        <v>0.0392398136617623</v>
+        <v>0.07828532450444291</v>
       </c>
     </row>
     <row r="115">
@@ -3887,26 +3875,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C115">
-        <v>0.157367074954803</v>
+        <v>-0.2328687736102508</v>
       </c>
       <c r="D115">
-        <v>0.1193316229429795</v>
+        <v>0.03088701498850741</v>
       </c>
       <c r="E115">
-        <v>1.204699340987005</v>
+        <v>1.648223250644323</v>
       </c>
       <c r="F115">
-        <v>-0.6992759753417156</v>
+        <v>-0.3811173440872608</v>
       </c>
       <c r="G115">
-        <v>0.8284748521832731</v>
+        <v>-0.0729451787739531</v>
       </c>
       <c r="H115">
-        <v>0.3813415483311225</v>
+        <v>0.02773243760987679</v>
       </c>
     </row>
     <row r="116">
@@ -3917,26 +3905,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C116">
-        <v>0.2855122348043044</v>
+        <v>0.264234630916159</v>
       </c>
       <c r="D116">
-        <v>0.03841562437078968</v>
+        <v>0.04039118687429286</v>
       </c>
       <c r="E116">
-        <v>6.750856315895454</v>
+        <v>1.004937830971794</v>
       </c>
       <c r="F116">
-        <v>0.199441431437802</v>
+        <v>-0.2323217631126586</v>
       </c>
       <c r="G116">
-        <v>0.367211276029478</v>
+        <v>0.6515303298541281</v>
       </c>
       <c r="H116">
-        <v>0.0001462703996877446</v>
+        <v>0.09351063005038919</v>
       </c>
     </row>
     <row r="117">
@@ -3947,26 +3935,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C117">
-        <v>-0.07803567485937406</v>
+        <v>0.2506813921716046</v>
       </c>
       <c r="D117">
-        <v>0.1193316229429797</v>
+        <v>0.02095671825496878</v>
       </c>
       <c r="E117">
-        <v>1.204699340987005</v>
+        <v>1.082973325820975</v>
       </c>
       <c r="F117">
-        <v>-0.8014891933865657</v>
+        <v>0.03353324540274589</v>
       </c>
       <c r="G117">
-        <v>0.7381367950878366</v>
+        <v>0.4452289014226871</v>
       </c>
       <c r="H117">
-        <v>0.6149337212509436</v>
+        <v>0.04298516467169752</v>
       </c>
     </row>
     <row r="118">
@@ -3977,26 +3965,26 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C118">
-        <v>-0.1402920360650491</v>
+        <v>-0.0396368096060862</v>
       </c>
       <c r="D118">
-        <v>0.02791553584651675</v>
+        <v>0.0008127947123064795</v>
       </c>
       <c r="E118">
-        <v>9.064446777668552</v>
+        <v>1.07172021136469</v>
       </c>
       <c r="F118">
-        <v>-0.2015085136572584</v>
+        <v>-0.04844895254801799</v>
       </c>
       <c r="G118">
-        <v>-0.07798384299805215</v>
+        <v>-0.03081849675786028</v>
       </c>
       <c r="H118">
-        <v>0.0006671923101311314</v>
+        <v>0.01002606318089393</v>
       </c>
     </row>
     <row r="119">
@@ -4007,26 +3995,26 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C119">
-        <v>0.3798707776864193</v>
+        <v>-0.1284907335596616</v>
       </c>
       <c r="D119">
-        <v>0.04274713957997695</v>
+        <v>0.02086774549483947</v>
       </c>
       <c r="E119">
-        <v>2.083992895730574</v>
+        <v>1.044059964435699</v>
       </c>
       <c r="F119">
-        <v>0.2192868354134733</v>
+        <v>-0.3533976983270465</v>
       </c>
       <c r="G119">
-        <v>0.5204162627609896</v>
+        <v>0.1104586051966604</v>
       </c>
       <c r="H119">
-        <v>0.009831134204390489</v>
+        <v>0.09485694856454747</v>
       </c>
     </row>
     <row r="120">
@@ -4037,26 +4025,26 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C120">
-        <v>0.2818926567652212</v>
+        <v>0.1597258406459769</v>
       </c>
       <c r="D120">
-        <v>0.009744792403340906</v>
+        <v>0.04869688027532313</v>
       </c>
       <c r="E120">
-        <v>1.014630826456701</v>
+        <v>1.900370530810959</v>
       </c>
       <c r="F120">
-        <v>0.1684375311443696</v>
+        <v>-0.05923767597880293</v>
       </c>
       <c r="G120">
-        <v>0.387976451624976</v>
+        <v>0.3640248695028739</v>
       </c>
       <c r="H120">
-        <v>0.02042603091721781</v>
+        <v>0.08620176703823051</v>
       </c>
     </row>
     <row r="121">
@@ -4067,26 +4055,26 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C121">
-        <v>0.2445185547190532</v>
+        <v>-0.07186429558905938</v>
       </c>
       <c r="D121">
-        <v>0.05249419809621163</v>
+        <v>0.03274626616730174</v>
       </c>
       <c r="E121">
-        <v>1.4359446485894</v>
+        <v>1.500834094909923</v>
       </c>
       <c r="F121">
-        <v>-0.08655520132655609</v>
+        <v>-0.2625622258210321</v>
       </c>
       <c r="G121">
-        <v>0.5269557092706855</v>
+        <v>0.1242364114025095</v>
       </c>
       <c r="H121">
-        <v>0.07568393445371861</v>
+        <v>0.1996907163815828</v>
       </c>
     </row>
     <row r="122">
@@ -4097,26 +4085,26 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.01443583832957228</v>
+        <v>-0.2530549338392911</v>
       </c>
       <c r="D122">
-        <v>0.07703608794289463</v>
+        <v>0.1237078974566336</v>
       </c>
       <c r="E122">
-        <v>1.338306467362716</v>
+        <v>1.007915124316856</v>
       </c>
       <c r="F122">
-        <v>-0.4901233459571604</v>
+        <v>-0.9469776855038179</v>
       </c>
       <c r="G122">
-        <v>0.5117489193742093</v>
+        <v>0.8576295937515851</v>
       </c>
       <c r="H122">
-        <v>0.8757236103985436</v>
+        <v>0.282448282061764</v>
       </c>
     </row>
     <row r="123">
@@ -4127,26 +4115,26 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPrior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C123">
-        <v>-0.5961049141530792</v>
+        <v>-0.04190654152422962</v>
       </c>
       <c r="D123">
-        <v>0.03292601817571755</v>
+        <v>0.03274626683644492</v>
       </c>
       <c r="E123">
-        <v>1.232186850675753</v>
+        <v>1.500834094909923</v>
       </c>
       <c r="F123">
-        <v>-0.7435199534637842</v>
+        <v>-0.2343629976815255</v>
       </c>
       <c r="G123">
-        <v>-0.3934379436905509</v>
+        <v>0.15371084636771</v>
       </c>
       <c r="H123">
-        <v>0.01600892908001852</v>
+        <v>0.3631870854666192</v>
       </c>
     </row>
     <row r="124">
@@ -4157,26 +4145,26 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C124">
-        <v>-0.3649085739347308</v>
+        <v>-0.08935404242891014</v>
       </c>
       <c r="D124">
-        <v>0.1417284843175452</v>
+        <v>0.02509718074621781</v>
       </c>
       <c r="E124">
-        <v>1.687534642241828</v>
+        <v>1.692524186337979</v>
       </c>
       <c r="F124">
-        <v>-0.8056198103483606</v>
+        <v>-0.2153144334692036</v>
       </c>
       <c r="G124">
-        <v>0.3357970552444951</v>
+        <v>0.03953091731162341</v>
       </c>
       <c r="H124">
-        <v>0.1363657591507716</v>
+        <v>0.08928574979610501</v>
       </c>
     </row>
     <row r="125">
@@ -4187,1064 +4175,26 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C125">
-        <v>0.05100072055630873</v>
+        <v>-0.1868376872061784</v>
       </c>
       <c r="D125">
-        <v>0.07888701517816343</v>
+        <v>0.09346602142267685</v>
       </c>
       <c r="E125">
-        <v>2.774841953177984</v>
+        <v>1.910862231458089</v>
       </c>
       <c r="F125">
-        <v>-0.2088187685318996</v>
+        <v>-0.543939357495422</v>
       </c>
       <c r="G125">
-        <v>0.3040952166456753</v>
+        <v>0.2275616350829381</v>
       </c>
       <c r="H125">
-        <v>0.5671028970131005</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' controlled motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C126">
-        <v>0.08013047117635473</v>
-      </c>
-      <c r="D126">
-        <v>0.03696850037297283</v>
-      </c>
-      <c r="E126">
-        <v>1.074908632104411</v>
-      </c>
-      <c r="F126">
-        <v>-0.3083433162957288</v>
-      </c>
-      <c r="G126">
-        <v>0.4456979794617079</v>
-      </c>
-      <c r="H126">
-        <v>0.2606666106939832</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C127">
-        <v>0.2595032879889551</v>
-      </c>
-      <c r="D127">
-        <v>0.0123649337142768</v>
-      </c>
-      <c r="E127">
-        <v>1.319375444005988</v>
-      </c>
-      <c r="F127">
-        <v>0.1733313285876681</v>
-      </c>
-      <c r="G127">
-        <v>0.3417321225805847</v>
-      </c>
-      <c r="H127">
-        <v>0.0121974611876845</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C128">
-        <v>0.7760658450104249</v>
-      </c>
-      <c r="D128">
-        <v>0.03292601817571737</v>
-      </c>
-      <c r="E128">
-        <v>1.232186850675752</v>
-      </c>
-      <c r="F128">
-        <v>0.6435324295318814</v>
-      </c>
-      <c r="G128">
-        <v>0.8634186969238909</v>
-      </c>
-      <c r="H128">
-        <v>0.009665010068220537</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C129">
-        <v>0.2239776716704024</v>
-      </c>
-      <c r="D129">
-        <v>0.06809446603533303</v>
-      </c>
-      <c r="E129">
-        <v>1.120011353117371</v>
-      </c>
-      <c r="F129">
-        <v>-0.4188623240180187</v>
-      </c>
-      <c r="G129">
-        <v>0.7172661377615626</v>
-      </c>
-      <c r="H129">
-        <v>0.1631797434180799</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C130">
-        <v>0.211363116601832</v>
-      </c>
-      <c r="D130">
-        <v>0.04420915436536153</v>
-      </c>
-      <c r="E130">
-        <v>1.085534939844969</v>
-      </c>
-      <c r="F130">
-        <v>-0.2473738705268178</v>
-      </c>
-      <c r="G130">
-        <v>0.5926942520366713</v>
-      </c>
-      <c r="H130">
-        <v>0.1148430684633467</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C131">
-        <v>-0.210784986206223</v>
-      </c>
-      <c r="D131">
-        <v>0.01259396443289534</v>
-      </c>
-      <c r="E131">
-        <v>1.045769664404306</v>
-      </c>
-      <c r="F131">
-        <v>-0.3437835068031205</v>
-      </c>
-      <c r="G131">
-        <v>-0.06949633458816036</v>
-      </c>
-      <c r="H131">
-        <v>0.03318388936110845</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C132">
-        <v>-0.1448197137531432</v>
-      </c>
-      <c r="D132">
-        <v>0.03945218530862582</v>
-      </c>
-      <c r="E132">
-        <v>3.521549987744981</v>
-      </c>
-      <c r="F132">
-        <v>-0.2557057282753378</v>
-      </c>
-      <c r="G132">
-        <v>-0.03017270737038959</v>
-      </c>
-      <c r="H132">
-        <v>0.02611074839940915</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C133">
-        <v>0.05127950153103295</v>
-      </c>
-      <c r="D133">
-        <v>0.04929634031934584</v>
-      </c>
-      <c r="E133">
-        <v>1.012823112778984</v>
-      </c>
-      <c r="F133">
-        <v>-0.5054593693104311</v>
-      </c>
-      <c r="G133">
-        <v>0.5778714443456037</v>
-      </c>
-      <c r="H133">
-        <v>0.4854304869138736</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C134">
-        <v>-0.03587440886873657</v>
-      </c>
-      <c r="D134">
-        <v>0.02288420264693483</v>
-      </c>
-      <c r="E134">
-        <v>1.087395605084356</v>
-      </c>
-      <c r="F134">
-        <v>-0.2699918474682204</v>
-      </c>
-      <c r="G134">
-        <v>0.2022480822536222</v>
-      </c>
-      <c r="H134">
-        <v>0.3467274625222649</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C135">
-        <v>-0.119307972373794</v>
-      </c>
-      <c r="D135">
-        <v>0.05189029856274648</v>
-      </c>
-      <c r="E135">
-        <v>1.534387685849956</v>
-      </c>
-      <c r="F135">
-        <v>-0.3990109462344878</v>
-      </c>
-      <c r="G135">
-        <v>0.1807076599702701</v>
-      </c>
-      <c r="H135">
-        <v>0.1842422876682459</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>specific_factorstyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C136">
-        <v>0.3034706742844113</v>
-      </c>
-      <c r="D136">
-        <v>0.007195181324734405</v>
-      </c>
-      <c r="E136">
-        <v>1.005258472920839</v>
-      </c>
-      <c r="F136">
-        <v>0.219410660712778</v>
-      </c>
-      <c r="G136">
-        <v>0.3830582844041296</v>
-      </c>
-      <c r="H136">
-        <v>0.01434360747663551</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C137">
-        <v>0.4913306803840953</v>
-      </c>
-      <c r="D137">
-        <v>1.023293219349866e-16</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137">
-        <v>0.4913306803840943</v>
-      </c>
-      <c r="G137">
-        <v>0.4913306803840963</v>
-      </c>
-      <c r="H137">
-        <v>1.211292280484331e-16</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C138">
-        <v>-0.1934246534763584</v>
-      </c>
-      <c r="D138">
-        <v>0.04079639094192073</v>
-      </c>
-      <c r="E138">
-        <v>3.936970680314667</v>
-      </c>
-      <c r="F138">
-        <v>-0.3003281063707153</v>
-      </c>
-      <c r="G138">
-        <v>-0.08172213629907366</v>
-      </c>
-      <c r="H138">
-        <v>0.008985446472124885</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C139">
-        <v>-0.1040364917583672</v>
-      </c>
-      <c r="D139">
-        <v>0.1068968061571631</v>
-      </c>
-      <c r="E139">
-        <v>1.254014804007071</v>
-      </c>
-      <c r="F139">
-        <v>-0.7432538045540809</v>
-      </c>
-      <c r="G139">
-        <v>0.6344813244918071</v>
-      </c>
-      <c r="H139">
-        <v>0.4795394306762423</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>0.2175107377207781</v>
-      </c>
-      <c r="D140">
-        <v>0.07541205315817172</v>
-      </c>
-      <c r="E140">
-        <v>1.084848814912266</v>
-      </c>
-      <c r="F140">
-        <v>-0.5204835142493547</v>
-      </c>
-      <c r="G140">
-        <v>0.7694940657026478</v>
-      </c>
-      <c r="H140">
-        <v>0.1933264851371347</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C141">
-        <v>0.2342428787361495</v>
-      </c>
-      <c r="D141">
-        <v>0.01418108679360323</v>
-      </c>
-      <c r="E141">
-        <v>1.016775051902065</v>
-      </c>
-      <c r="F141">
-        <v>0.06526867682738074</v>
-      </c>
-      <c r="G141">
-        <v>0.3901579790568409</v>
-      </c>
-      <c r="H141">
-        <v>0.03615230990705579</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>specific_factorInvitation from others to help:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C142">
-        <v>-0.09677750390295391</v>
-      </c>
-      <c r="D142">
-        <v>0.03055554696732135</v>
-      </c>
-      <c r="E142">
-        <v>1.175118694389254</v>
-      </c>
-      <c r="F142">
-        <v>-0.3558073538416979</v>
-      </c>
-      <c r="G142">
-        <v>0.1760608412271555</v>
-      </c>
-      <c r="H142">
-        <v>0.1634893076748632</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>specific_factorlow personal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C143">
-        <v>-0.02188027869475525</v>
-      </c>
-      <c r="D143">
-        <v>0.03055554684363589</v>
-      </c>
-      <c r="E143">
-        <v>1.175118694389253</v>
-      </c>
-      <c r="F143">
-        <v>-0.2884545266931546</v>
-      </c>
-      <c r="G143">
-        <v>0.2478419036753476</v>
-      </c>
-      <c r="H143">
-        <v>0.5892526488658074</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C144">
-        <v>-0.08768242628359872</v>
-      </c>
-      <c r="D144">
-        <v>0.05150641549964236</v>
-      </c>
-      <c r="E144">
-        <v>1.77001265983903</v>
-      </c>
-      <c r="F144">
-        <v>-0.3270655626688747</v>
-      </c>
-      <c r="G144">
-        <v>0.1622750708455588</v>
-      </c>
-      <c r="H144">
-        <v>0.2458538589060363</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C145">
-        <v>0.3532481723625289</v>
-      </c>
-      <c r="D145">
-        <v>0.02422541643669716</v>
-      </c>
-      <c r="E145">
-        <v>1.087126929254642</v>
-      </c>
-      <c r="F145">
-        <v>0.1134379050464881</v>
-      </c>
-      <c r="G145">
-        <v>0.5541648095998215</v>
-      </c>
-      <c r="H145">
-        <v>0.03353749273217324</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C146">
-        <v>-0.2801435206506562</v>
-      </c>
-      <c r="D146">
-        <v>0.01608159631450041</v>
-      </c>
-      <c r="E146">
-        <v>1.985804004089832</v>
-      </c>
-      <c r="F146">
-        <v>-0.3430167011839168</v>
-      </c>
-      <c r="G146">
-        <v>-0.2147713512270753</v>
-      </c>
-      <c r="H146">
-        <v>0.003207277905654994</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C147">
-        <v>0.2101084581434213</v>
-      </c>
-      <c r="D147">
-        <v>0.02864081153903351</v>
-      </c>
-      <c r="E147">
-        <v>1.042169307394621</v>
-      </c>
-      <c r="F147">
-        <v>-0.1170743714792675</v>
-      </c>
-      <c r="G147">
-        <v>0.4961480533340691</v>
-      </c>
-      <c r="H147">
-        <v>0.07872239697944119</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C148">
-        <v>-0.2061528180638275</v>
-      </c>
-      <c r="D148">
-        <v>0.05123119388501312</v>
-      </c>
-      <c r="E148">
-        <v>1.021829588970658</v>
-      </c>
-      <c r="F148">
-        <v>-0.6794781354722135</v>
-      </c>
-      <c r="G148">
-        <v>0.3883400790988871</v>
-      </c>
-      <c r="H148">
-        <v>0.1488170177043074</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C149">
-        <v>0.3000000000000002</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C150">
-        <v>0.2428477793505905</v>
-      </c>
-      <c r="D150">
-        <v>0.02909449773729919</v>
-      </c>
-      <c r="E150">
-        <v>1.232186847359518</v>
-      </c>
-      <c r="F150">
-        <v>0.00813737681848577</v>
-      </c>
-      <c r="G150">
-        <v>0.4521971464064615</v>
-      </c>
-      <c r="H150">
-        <v>0.04800815353971549</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C151">
-        <v>0.2524511878238657</v>
-      </c>
-      <c r="D151">
-        <v>0.02605864902203748</v>
-      </c>
-      <c r="E151">
-        <v>1.084848814912273</v>
-      </c>
-      <c r="F151">
-        <v>-0.01773341464462271</v>
-      </c>
-      <c r="G151">
-        <v>0.4882755416455459</v>
-      </c>
-      <c r="H151">
-        <v>0.05371204417918055</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C152">
-        <v>-0.1230682349681277</v>
-      </c>
-      <c r="D152">
-        <v>0.02064506695383364</v>
-      </c>
-      <c r="E152">
-        <v>1.044630341257237</v>
-      </c>
-      <c r="F152">
-        <v>-0.3460584790755485</v>
-      </c>
-      <c r="G152">
-        <v>0.1130827278119948</v>
-      </c>
-      <c r="H152">
-        <v>0.09801582989785751</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C153">
-        <v>0.1683736367459907</v>
-      </c>
-      <c r="D153">
-        <v>0.0485883248091977</v>
-      </c>
-      <c r="E153">
-        <v>1.90081289441801</v>
-      </c>
-      <c r="F153">
-        <v>-0.04983496603712102</v>
-      </c>
-      <c r="G153">
-        <v>0.3712404189350088</v>
-      </c>
-      <c r="H153">
-        <v>0.07836490490187727</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C154">
-        <v>-0.06192037123353904</v>
-      </c>
-      <c r="D154">
-        <v>0.03055554675964536</v>
-      </c>
-      <c r="E154">
-        <v>1.175118694389253</v>
-      </c>
-      <c r="F154">
-        <v>-0.324792578843523</v>
-      </c>
-      <c r="G154">
-        <v>0.209832611686165</v>
-      </c>
-      <c r="H154">
-        <v>0.2613113412160376</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C155">
-        <v>-0.2517256716895962</v>
-      </c>
-      <c r="D155">
-        <v>0.1249586854463752</v>
-      </c>
-      <c r="E155">
-        <v>1.007869335919415</v>
-      </c>
-      <c r="F155">
-        <v>-0.948438805403352</v>
-      </c>
-      <c r="G155">
-        <v>0.8621084071914353</v>
-      </c>
-      <c r="H155">
-        <v>0.2863374882393194</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>specific_factorprior positive related experiences:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C156">
-        <v>-0.03193153632237937</v>
-      </c>
-      <c r="D156">
-        <v>0.03055554767566729</v>
-      </c>
-      <c r="E156">
-        <v>1.175118694389253</v>
-      </c>
-      <c r="F156">
-        <v>-0.2976492316599461</v>
-      </c>
-      <c r="G156">
-        <v>0.2383778693937453</v>
-      </c>
-      <c r="H156">
-        <v>0.4644776572718624</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C157">
-        <v>-0.08186992138996563</v>
-      </c>
-      <c r="D157">
-        <v>0.03055554692561235</v>
-      </c>
-      <c r="E157">
-        <v>1.175118694389254</v>
-      </c>
-      <c r="F157">
-        <v>-0.3426125208919785</v>
-      </c>
-      <c r="G157">
-        <v>0.1905832742629869</v>
-      </c>
-      <c r="H157">
-        <v>0.1959136921090552</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C158">
-        <v>-0.08308275968193983</v>
-      </c>
-      <c r="D158">
-        <v>0.07196097865640291</v>
-      </c>
-      <c r="E158">
-        <v>1.007869335919415</v>
-      </c>
-      <c r="F158">
-        <v>-0.7534666693272798</v>
-      </c>
-      <c r="G158">
-        <v>0.6719977485089975</v>
-      </c>
-      <c r="H158">
-        <v>0.4525231997098602</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>specific_factorwell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C159">
-        <v>-0.1216842175918304</v>
-      </c>
-      <c r="D159">
-        <v>0.03055554700856641</v>
-      </c>
-      <c r="E159">
-        <v>1.175118694389253</v>
-      </c>
-      <c r="F159">
-        <v>-0.3776244877011969</v>
-      </c>
-      <c r="G159">
-        <v>0.1515297146067018</v>
-      </c>
-      <c r="H159">
-        <v>0.1266560552383826</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
-        </is>
-      </c>
-      <c r="C160">
-        <v>-0.2358058370392268</v>
-      </c>
-      <c r="D160">
-        <v>0.194728122018841</v>
-      </c>
-      <c r="E160">
-        <v>1.044630341257237</v>
-      </c>
-      <c r="F160">
-        <v>-0.9860231690748156</v>
-      </c>
-      <c r="G160">
-        <v>0.9638567453405543</v>
-      </c>
-      <c r="H160">
-        <v>0.4267999821765229</v>
+        <v>0.1863541405167442</v>
       </c>
     </row>
   </sheetData>
@@ -5254,7 +4204,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5309,19 +4259,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.05049560802800723</v>
+        <v>0.0124613909789195</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.66892049606482</v>
+        <v>2.687243911022658</v>
       </c>
       <c r="F2">
-        <v>0.9632639538376014</v>
+        <v>0.9909237766360648</v>
       </c>
       <c r="G2">
-        <v>0.9632639538376014</v>
+        <v>0.9994934130590691</v>
       </c>
     </row>
     <row r="3">
@@ -5336,19 +4286,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>4.656019592171202</v>
+        <v>4.252528340391041</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.110150731573044</v>
+        <v>2.358527450181557</v>
       </c>
       <c r="F3">
-        <v>0.03891825879752927</v>
+        <v>0.03792483916578804</v>
       </c>
       <c r="G3">
-        <v>0.1210790273700911</v>
+        <v>0.09481209791447011</v>
       </c>
     </row>
     <row r="4">
@@ -5363,19 +4313,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.826238300019586</v>
+        <v>4.393253954452414</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.367883861351211</v>
+        <v>2.925443227839242</v>
       </c>
       <c r="F4">
-        <v>0.08729393075579649</v>
+        <v>0.02301985901320101</v>
       </c>
       <c r="G4">
-        <v>0.2036858384301918</v>
+        <v>0.09481209791447011</v>
       </c>
     </row>
     <row r="5">
@@ -5390,19 +4340,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>8.996859588549272</v>
+        <v>3.4087061096592</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1.872368871083884</v>
+        <v>1.711587586904526</v>
       </c>
       <c r="F5">
-        <v>0.01484688735973452</v>
+        <v>0.09444638192607779</v>
       </c>
       <c r="G5">
-        <v>0.06928547434542776</v>
+        <v>0.1835000985563529</v>
       </c>
     </row>
     <row r="6">
@@ -5417,19 +4367,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>1.146457275928639</v>
+        <v>1.925347803168218</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2.33497096757643</v>
+        <v>7.272635861811233</v>
       </c>
       <c r="F6">
-        <v>0.3554529938860524</v>
+        <v>0.09401353150766317</v>
       </c>
       <c r="G6">
-        <v>0.5529268793783039</v>
+        <v>0.1835000985563529</v>
       </c>
     </row>
     <row r="7">
@@ -5440,23 +4390,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorill-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C7">
-        <v>3.017966969921468</v>
+        <v>0.8887932322172667</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1.351445398959976</v>
+        <v>4.371486365469391</v>
       </c>
       <c r="F7">
-        <v>0.1488107014956951</v>
+        <v>0.4203255948334265</v>
       </c>
       <c r="G7">
-        <v>0.2777799761252976</v>
+        <v>0.6005772674956334</v>
       </c>
     </row>
     <row r="8">
@@ -5467,23 +4417,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.6483673272085041</v>
+        <v>0.6561183498107207</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1.954787675401295</v>
+        <v>2.559973238328589</v>
       </c>
       <c r="F8">
-        <v>0.584585310371488</v>
+        <v>0.5658661067431975</v>
       </c>
       <c r="G8">
-        <v>0.7794470804953173</v>
+        <v>0.6736501270752351</v>
       </c>
     </row>
     <row r="9">
@@ -5494,23 +4444,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C9">
-        <v>6.013908427937027</v>
+        <v>3.495063375818261</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3.784768587674577</v>
+        <v>3.41780588828296</v>
       </c>
       <c r="F9">
-        <v>0.004588622408698366</v>
+        <v>0.0322250125183499</v>
       </c>
       <c r="G9">
-        <v>0.04282714248118475</v>
+        <v>0.09481209791447011</v>
       </c>
     </row>
     <row r="10">
@@ -5521,23 +4471,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C10">
-        <v>2.524200065300533</v>
+        <v>0.0405012530710463</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4.024461929599067</v>
+        <v>2.598425488249568</v>
       </c>
       <c r="F10">
-        <v>0.06469068974784099</v>
+        <v>0.9705993409852571</v>
       </c>
       <c r="G10">
-        <v>0.1646672102672316</v>
+        <v>0.9994934130590691</v>
       </c>
     </row>
     <row r="11">
@@ -5548,23 +4498,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.2270838250069529</v>
+        <v>5.853362473044244</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2.96932190135496</v>
+        <v>1.007047049913192</v>
       </c>
       <c r="F11">
-        <v>0.8350933630159506</v>
+        <v>0.1065194344567847</v>
       </c>
       <c r="G11">
-        <v>0.9028572880436093</v>
+        <v>0.1835000985563529</v>
       </c>
     </row>
     <row r="12">
@@ -5575,23 +4525,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.1075962922036817</v>
+        <v>0.2533502597921241</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1.873964217874664</v>
+        <v>2.142802389780973</v>
       </c>
       <c r="F12">
-        <v>0.9247170079510998</v>
+        <v>0.8222532392801619</v>
       </c>
       <c r="G12">
-        <v>0.9589657860233627</v>
+        <v>0.9343786810001841</v>
       </c>
     </row>
     <row r="13">
@@ -5602,23 +4552,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.5012929927759534</v>
+        <v>1.239547929046398</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1.350424553196147</v>
+        <v>3.338743550258299</v>
       </c>
       <c r="F13">
-        <v>0.6856189083531111</v>
+        <v>0.295133242918747</v>
       </c>
       <c r="G13">
-        <v>0.8545329261788202</v>
+        <v>0.4611456920605422</v>
       </c>
     </row>
     <row r="14">
@@ -5629,23 +4579,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.9786992741192195</v>
+        <v>3.624991922333023</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1.710857899413754</v>
+        <v>1.428409543812893</v>
       </c>
       <c r="F14">
-        <v>0.445470711887375</v>
+        <v>0.1101000591338117</v>
       </c>
       <c r="G14">
-        <v>0.656483154360342</v>
+        <v>0.1835000985563529</v>
       </c>
     </row>
     <row r="15">
@@ -5656,23 +4606,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C15">
-        <v>239.7088130264492</v>
+        <v>0.9857996494376379</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3.331364184101252</v>
+        <v>1.907840946712176</v>
       </c>
       <c r="F15">
-        <v>3.559413636786485e-08</v>
+        <v>0.4324156325968561</v>
       </c>
       <c r="G15">
-        <v>9.966358183002158e-07</v>
+        <v>0.6005772674956334</v>
       </c>
     </row>
     <row r="16">
@@ -5683,23 +4633,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C16">
-        <v>4.456480469597556</v>
+        <v>0.7705777212415463</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1.274571119523399</v>
+        <v>2.750078864893249</v>
       </c>
       <c r="F16">
-        <v>0.09951519846470373</v>
+        <v>0.5017035949081099</v>
       </c>
       <c r="G16">
-        <v>0.2143404274624388</v>
+        <v>0.6601363090896183</v>
       </c>
     </row>
     <row r="17">
@@ -5710,23 +4660,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPerformance goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.3507983106234689</v>
+        <v>4.255843731739765</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1.765093799191015</v>
+        <v>4.057170473681118</v>
       </c>
       <c r="F17">
-        <v>0.7631166759839582</v>
+        <v>0.01270446251324418</v>
       </c>
       <c r="G17">
-        <v>0.8903027886479512</v>
+        <v>0.07216916974317261</v>
       </c>
     </row>
     <row r="18">
@@ -5737,23 +4687,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.4719651455088687</v>
+        <v>4.654597968125969</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1.349214922962847</v>
+        <v>6.735920532812226</v>
       </c>
       <c r="F18">
-        <v>0.7019377607897451</v>
+        <v>0.002577499720820459</v>
       </c>
       <c r="G18">
-        <v>0.8545329261788202</v>
+        <v>0.02845385880080572</v>
       </c>
     </row>
     <row r="19">
@@ -5764,23 +4714,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C19">
-        <v>2.088619112705661</v>
+        <v>8.574829621861248</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1.376609642091614</v>
+        <v>1.536290016746656</v>
       </c>
       <c r="F19">
-        <v>0.2265409337978677</v>
+        <v>0.02794278662207255</v>
       </c>
       <c r="G19">
-        <v>0.3964466341462686</v>
+        <v>0.09481209791447011</v>
       </c>
     </row>
     <row r="20">
@@ -5791,23 +4741,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>5.706495229057619</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3.245753354120564</v>
-      </c>
-      <c r="F20">
-        <v>0.008585978978820163</v>
-      </c>
-      <c r="G20">
-        <v>0.06010185285174114</v>
+          <t>specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive attitudes:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -5818,23 +4758,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C21">
-        <v>8.825610736974275</v>
+        <v>0.0007251480201789481</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1.526933185526443</v>
+        <v>1.806114328805134</v>
       </c>
       <c r="F21">
-        <v>0.02718161935471265</v>
+        <v>0.9994934130590691</v>
       </c>
       <c r="G21">
-        <v>0.1087264774188506</v>
+        <v>0.9994934130590691</v>
       </c>
     </row>
     <row r="22">
@@ -5845,23 +4785,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPositive beliefs about knowledge and learning:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.2322379505108721</v>
+        <v>4.51354903048215</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1.957493029774694</v>
+        <v>6.42337507026035</v>
       </c>
       <c r="F22">
-        <v>0.8383674817547802</v>
+        <v>0.003414463056096686</v>
       </c>
       <c r="G22">
-        <v>0.9028572880436093</v>
+        <v>0.02845385880080572</v>
       </c>
     </row>
     <row r="23">
@@ -5872,23 +4812,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorself-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C23">
-        <v>4.574988737666608</v>
+        <v>7.909082171100705</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1.628925789904027</v>
+        <v>7.359225694740181</v>
       </c>
       <c r="F23">
-        <v>0.06457528603253736</v>
+        <v>7.498771128076147e-05</v>
       </c>
       <c r="G23">
-        <v>0.1646672102672316</v>
+        <v>0.001874692782019037</v>
       </c>
     </row>
     <row r="24">
@@ -5899,23 +4839,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C24">
-        <v>3.210196781559373</v>
+        <v>9.447730452739989</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1.444109708176851</v>
+        <v>1.329987796776082</v>
       </c>
       <c r="F24">
-        <v>0.1275277162571451</v>
+        <v>0.03514334555417412</v>
       </c>
       <c r="G24">
-        <v>0.2550554325142902</v>
+        <v>0.09481209791447011</v>
       </c>
     </row>
     <row r="25">
@@ -5926,23 +4866,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSocial connection/support:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C25">
-        <v>8.913165402906801</v>
+        <v>19.01943025133302</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>7.152773937181086</v>
+        <v>1.316142253454894</v>
       </c>
       <c r="F25">
-        <v>3.988101567578064e-05</v>
+        <v>0.01443383394863452</v>
       </c>
       <c r="G25">
-        <v>0.000558334219460929</v>
+        <v>0.07216916974317261</v>
       </c>
     </row>
     <row r="26">
@@ -5953,23 +4893,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
         </is>
       </c>
       <c r="C26">
-        <v>9.919331811789725</v>
+        <v>0.7176475004472511</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1.329169817711833</v>
+        <v>1.923666805027286</v>
       </c>
       <c r="F26">
-        <v>0.03301150137086384</v>
+        <v>0.5500331978294533</v>
       </c>
       <c r="G26">
-        <v>0.1155402547980234</v>
+        <v>0.6736501270752351</v>
       </c>
     </row>
     <row r="27">
@@ -5980,77 +4920,77 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C27">
-        <v>20.10348384342847</v>
+        <v>1.974937056165514</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1.308503001403497</v>
+        <v>5.959239872129968</v>
       </c>
       <c r="F27">
-        <v>0.01369269447326663</v>
+        <v>0.09602083578379911</v>
       </c>
       <c r="G27">
-        <v>0.06928547434542776</v>
+        <v>0.1835000985563529</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_33 - specific_factorStyle-related beliefs:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32</t>
+          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.6710465496070623</v>
+        <v>1.349495979720641</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1.886444690101674</v>
+        <v>1.303355416448541</v>
       </c>
       <c r="F28">
-        <v>0.5749083612070385</v>
+        <v>0.3649143072935109</v>
       </c>
       <c r="G28">
-        <v>0.7794470804953173</v>
+        <v>0.4170449226211553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C29">
-        <v>1.186146621259405</v>
+        <v>1.98343925307748</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>2.37977649090188</v>
+        <v>1.302418547250109</v>
       </c>
       <c r="F29">
-        <v>0.3404285761676996</v>
+        <v>0.2493502949900794</v>
       </c>
       <c r="G29">
-        <v>0.5529268793783039</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="30">
@@ -6061,23 +5001,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorEmotional intelligence:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C30">
-        <v>1.581241175968772</v>
+        <v>1.548410416849485</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1.264422051644146</v>
+        <v>1.315258720738557</v>
       </c>
       <c r="F30">
-        <v>0.3192337932795794</v>
+        <v>0.3194766717368386</v>
       </c>
       <c r="G30">
-        <v>0.3648386208909479</v>
+        <v>0.4143125375369069</v>
       </c>
     </row>
     <row r="31">
@@ -6088,23 +5028,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorIll-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C31">
-        <v>2.448374488903238</v>
+        <v>2.910263471689716</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1.277102249615866</v>
+        <v>2.994830263020872</v>
       </c>
       <c r="F31">
-        <v>0.2010031248696894</v>
+        <v>0.06211346511562251</v>
       </c>
       <c r="G31">
-        <v>0.3119979536995584</v>
+        <v>0.3075912432563608</v>
       </c>
     </row>
     <row r="32">
@@ -6115,23 +5055,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorInternal pressures:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C32">
-        <v>1.877498864073224</v>
+        <v>3.271496844161729</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1.379072802681434</v>
+        <v>1.132501469351643</v>
       </c>
       <c r="F32">
-        <v>0.2548697671067322</v>
+        <v>0.1650334613867164</v>
       </c>
       <c r="G32">
-        <v>0.327127066113549</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="33">
@@ -6142,23 +5082,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorMastery goals:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C33">
-        <v>1.684788751577617</v>
+        <v>6.192414464676821</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>3.529413919506357</v>
+        <v>1.878532920344939</v>
       </c>
       <c r="F33">
-        <v>0.1767580713431973</v>
+        <v>0.02914353961101013</v>
       </c>
       <c r="G33">
-        <v>0.3119979536995584</v>
+        <v>0.233148316888081</v>
       </c>
     </row>
     <row r="34">
@@ -6169,23 +5109,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed frustration:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C34">
-        <v>2.621810196659896</v>
+        <v>3.054258409059277</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1.161917582538015</v>
+        <v>2.320011256789485</v>
       </c>
       <c r="F34">
-        <v>0.2030208335475656</v>
+        <v>0.07689781081409021</v>
       </c>
       <c r="G34">
-        <v>0.3119979536995584</v>
+        <v>0.3075912432563608</v>
       </c>
     </row>
     <row r="35">
@@ -6196,23 +5136,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNeed satisfaction:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C35">
-        <v>5.86287287502909</v>
+        <v>18.55583590311468</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>2.031310292646436</v>
+        <v>1.729129627571507</v>
       </c>
       <c r="F35">
-        <v>0.02689022628918354</v>
+        <v>0.00541753311354951</v>
       </c>
       <c r="G35">
-        <v>0.1434145402089789</v>
+        <v>0.08668052981679215</v>
       </c>
     </row>
     <row r="36">
@@ -6223,23 +5163,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorNegative personality:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C36">
-        <v>2.782653724828032</v>
+        <v>0.9525467706746621</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1.121340476438064</v>
+        <v>1.574755337009499</v>
       </c>
       <c r="F36">
-        <v>0.1973237301679057</v>
+        <v>0.4636595899187956</v>
       </c>
       <c r="G36">
-        <v>0.3119979536995584</v>
+        <v>0.4945702292467153</v>
       </c>
     </row>
     <row r="37">
@@ -6250,23 +5190,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' abilities:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C37">
-        <v>20.06338184213592</v>
+        <v>1.887206622284239</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1.063419317206845</v>
+        <v>1.397840990291964</v>
       </c>
       <c r="F37">
-        <v>0.0265684980329102</v>
+        <v>0.2512503537137371</v>
       </c>
       <c r="G37">
-        <v>0.1434145402089789</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="38">
@@ -6277,23 +5217,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorothers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C38">
-        <v>3.553908883245564</v>
+        <v>1.218402853938838</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1.319375444005985</v>
+        <v>2.220845961385242</v>
       </c>
       <c r="F38">
-        <v>0.1252144876652372</v>
+        <v>0.3366289367487368</v>
       </c>
       <c r="G38">
-        <v>0.3119979536995584</v>
+        <v>0.4143125375369069</v>
       </c>
     </row>
     <row r="39">
@@ -6304,23 +5244,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative behaviours:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C39">
-        <v>205.5590803928414</v>
+        <v>4.369938911116392</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1.232186875857446</v>
+        <v>1.000043372955729</v>
       </c>
       <c r="F39">
-        <v>0.0009566269880798824</v>
+        <v>0.1432075357392981</v>
       </c>
       <c r="G39">
-        <v>0.01530603180927812</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="40">
@@ -6331,23 +5271,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' negative emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C40">
-        <v>2.254304348693476</v>
+        <v>1.480271593503407</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1.000039634541678</v>
+        <v>3.162269987672197</v>
       </c>
       <c r="F40">
-        <v>0.2657907412172585</v>
+        <v>0.2308546779433948</v>
       </c>
       <c r="G40">
-        <v>0.327127066113549</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="41">
@@ -6358,23 +5298,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorOthers' positive emotions:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C41">
-        <v>4.641402685277288</v>
+        <v>2.108015652613014</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1.000050295724707</v>
+        <v>1.575817640369812</v>
       </c>
       <c r="F41">
-        <v>0.1350866319691862</v>
+        <v>0.2027755563792981</v>
       </c>
       <c r="G41">
-        <v>0.3119979536995584</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="42">
@@ -6385,23 +5325,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorpersonal responsibility for others:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C42">
-        <v>1.680231660384333</v>
+        <v>2.381275034523701</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>2.383450447419647</v>
+        <v>1.915852269010045</v>
       </c>
       <c r="F42">
-        <v>0.2144985931684464</v>
+        <v>0.1456839703288541</v>
       </c>
       <c r="G42">
-        <v>0.3119979536995584</v>
+        <v>0.3654550599472539</v>
       </c>
     </row>
     <row r="43">
@@ -6412,77 +5352,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorPersonal responsibility for others' motivation:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
+          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
         </is>
       </c>
       <c r="C43">
-        <v>2.102158536591954</v>
+        <v>0.08156266282981009</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1.572680174970641</v>
+        <v>3.419656837340893</v>
       </c>
       <c r="F43">
-        <v>0.2037946768815609</v>
+        <v>0.9395391028013647</v>
       </c>
       <c r="G43">
-        <v>0.3119979536995584</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorSelf-efficacy:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>0.8397994962942366</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1.415610377944607</v>
-      </c>
-      <c r="F44">
-        <v>0.5190060050153633</v>
-      </c>
-      <c r="G44">
-        <v>0.5536064053497208</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_32 - specific_factorWell-being:report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_31</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>0.2430606465265433</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1.38544298470899</v>
-      </c>
-      <c r="F45">
-        <v>0.8390017322073153</v>
-      </c>
-      <c r="G45">
-        <v>0.8390017322073153</v>
+        <v>0.9395391028013647</v>
       </c>
     </row>
   </sheetData>
@@ -6492,7 +5378,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6506,15 +5392,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>specific_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -6528,14 +5419,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2">
-        <v>681</v>
-      </c>
       <c r="D2">
-        <v>72</v>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6546,14 +5442,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>159</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6564,50 +5465,3055 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>5</v>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5">
-        <v>358</v>
-      </c>
       <c r="D5">
-        <v>44</v>
+        <v>93</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Behavioral investment</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coherence of mind</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Negative life events</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Positive beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Positive personality</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>23</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66">
         <v>13</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>47</v>
+      </c>
+      <c r="E73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>25</v>
+      </c>
+      <c r="E75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>36</v>
+      </c>
+      <c r="E94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>44</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>9</v>
+      </c>
+      <c r="E125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
